--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CalArduino" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>cover observed Nf,% and Throttle, deg ranges</t>
-  </si>
-  <si>
     <t>what works</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>cal thtl</t>
+  </si>
+  <si>
+    <t>Nf for 0% Ng</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,9 +723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -741,7 +738,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -790,6 +786,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,11 +1011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80788976"/>
-        <c:axId val="80791328"/>
+        <c:axId val="193840256"/>
+        <c:axId val="193837904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80788976"/>
+        <c:axId val="193840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,12 +1128,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80791328"/>
+        <c:crossAx val="193837904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80791328"/>
+        <c:axId val="193837904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80788976"/>
+        <c:crossAx val="193840256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1521,11 +1527,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80784272"/>
-        <c:axId val="80784664"/>
+        <c:axId val="193835552"/>
+        <c:axId val="193837120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80784272"/>
+        <c:axId val="193835552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,12 +1588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80784664"/>
+        <c:crossAx val="193837120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80784664"/>
+        <c:axId val="193837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80784272"/>
+        <c:crossAx val="193835552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,7 +1825,43 @@
             <c:forward val="5.5"/>
             <c:backward val="20"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5478196039448559E-2"/>
+                  <c:y val="0.1523936574043947"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1891,14 +1933,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219731744"/>
-        <c:axId val="225401784"/>
+        <c:axId val="193837512"/>
+        <c:axId val="193838296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219731744"/>
+        <c:axId val="193837512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1937,8 +1980,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>ln(Throttle)</a:t>
+                  <a:t>Throttle,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> deg</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2009,12 +2057,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225401784"/>
+        <c:crossAx val="193838296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225401784"/>
+        <c:axId val="193838296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219731744"/>
+        <c:crossAx val="193837512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2191,6 +2239,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Follows Square Law</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -2299,27 +2367,46 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225398648"/>
-        <c:axId val="225401000"/>
+        <c:axId val="193839864"/>
+        <c:axId val="193841432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225398648"/>
+        <c:axId val="193839864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225401000"/>
+        <c:crossAx val="193841432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225401000"/>
+        <c:axId val="193841432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225398648"/>
+        <c:crossAx val="193839864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2461,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225401392"/>
-        <c:axId val="225397472"/>
+        <c:axId val="195149472"/>
+        <c:axId val="195151040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225401392"/>
+        <c:axId val="195149472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,12 +2562,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225397472"/>
+        <c:crossAx val="195151040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225397472"/>
+        <c:axId val="195151040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225401392"/>
+        <c:crossAx val="195149472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2732,11 +2819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225399040"/>
-        <c:axId val="225402568"/>
+        <c:axId val="195151432"/>
+        <c:axId val="195154568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225399040"/>
+        <c:axId val="195151432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,12 +2936,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225402568"/>
+        <c:crossAx val="195154568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225402568"/>
+        <c:axId val="195154568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2968,7 +3055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225399040"/>
+        <c:crossAx val="195151432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5245,16 +5332,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5275,16 +5362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5305,16 +5392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53346</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>45726</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5335,16 +5422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280035</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>62871</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>131451</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40011</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5365,16 +5452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76206</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161931</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5400,16 +5487,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5722,9 +5809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5765,28 +5852,28 @@
       <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -5839,50 +5926,50 @@
         <v>Charger Pwr, W</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="80">
+      <c r="B2" s="78">
         <v>1.4338333333333333</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="74">
         <v>78.089999999999989</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="74">
         <v>0.5</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="74">
         <v>12</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="74">
         <v>0.97</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="74">
         <v>3840</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="74">
         <v>9150</v>
       </c>
-      <c r="I2" s="81">
+      <c r="I2" s="79">
         <v>3.2</v>
       </c>
       <c r="J2" s="2">
@@ -5963,28 +6050,28 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80">
+      <c r="B3" s="78">
         <v>1.4649999999999999</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="74">
         <v>83.699999999999974</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="74">
         <v>12</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="74">
         <v>1.51</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="74">
         <v>3180</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="74">
         <v>6060</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="79">
         <v>4.5999999999999996</v>
       </c>
       <c r="J3" s="2">
@@ -6080,28 +6167,28 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80">
+      <c r="B4" s="78">
         <v>1.568888888888889</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="74">
         <v>102.40000000000002</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="74">
         <v>1.17</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="74">
         <v>12</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="74">
         <v>3</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="74">
         <v>2450</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="74">
         <v>3840</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="79">
         <v>7.4</v>
       </c>
       <c r="J4" s="2">
@@ -6197,28 +6284,28 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80">
+      <c r="B5" s="78">
         <v>1.6727777777777779</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="74">
         <v>121.10000000000002</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="74">
         <v>1.52</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="74">
         <v>12</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="74">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="74">
         <v>2000</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="74">
         <v>2980</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="79">
         <v>9.4</v>
       </c>
       <c r="J5" s="2">
@@ -6314,28 +6401,28 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80">
+      <c r="B6" s="78">
         <v>1.7143333333333333</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="74">
         <v>128.57999999999998</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <v>1.7</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="74">
         <v>12</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="74">
         <v>5.4</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="74">
         <v>1930</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="74">
         <v>2760</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="79">
         <v>10.4</v>
       </c>
       <c r="J6" s="2">
@@ -6431,28 +6518,28 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80">
+      <c r="B7" s="78">
         <v>1.8545833333333333</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="74">
         <v>153.82499999999999</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="74">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="74">
         <v>12</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="74">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="74">
         <v>1610</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="74">
         <v>2180</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="79">
         <v>13</v>
       </c>
       <c r="J7" s="2">
@@ -6533,28 +6620,28 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="82">
+      <c r="B8" s="80">
         <v>1.9470444444444444</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="81">
         <v>170.46799999999999</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="81">
         <v>2.71</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="81">
         <v>12</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="81">
         <v>13</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="81">
         <v>1408</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="81">
         <v>1880</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="82">
         <v>15</v>
       </c>
       <c r="J8" s="2">
@@ -6636,7 +6723,7 @@
     </row>
     <row r="9" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD9">
         <f>AVERAGE(AD3:AD6)</f>
@@ -6709,9 +6796,14 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -6752,9 +6844,12 @@
       <c r="AL12" s="29"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -6796,9 +6891,12 @@
       <c r="AL13" s="31"/>
     </row>
     <row r="14" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -6813,14 +6911,6 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
       <c r="Y14" s="3"/>
       <c r="AA14" s="21" t="s">
         <v>5</v>
@@ -6861,12 +6951,6 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6887,12 +6971,6 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
       <c r="Y16" s="3"/>
       <c r="AA16" t="s">
         <v>53</v>
@@ -7060,11 +7138,12 @@
       <c r="AJ21" s="60">
         <v>0</v>
       </c>
-      <c r="AK21" s="61">
-        <v>-5</v>
+      <c r="AK21" s="90">
+        <f>AE23/AB17*100</f>
+        <v>-17.719588605194325</v>
       </c>
       <c r="AL21" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.3">
@@ -7159,13 +7238,13 @@
       </c>
       <c r="AG23" s="19"/>
       <c r="AH23" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="62"/>
-      <c r="AK23" s="63">
+      <c r="AK23" s="90">
         <f>(AK22-AK21)/(AH22-AH21)</f>
-        <v>15</v>
+        <v>17.543917721038866</v>
       </c>
     </row>
     <row r="24" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7204,9 +7283,9 @@
       <c r="AH24" s="30"/>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="62"/>
-      <c r="AK24" s="63">
+      <c r="AK24" s="90">
         <f>AK22-AK23*(AH22-AH21)</f>
-        <v>-5</v>
+        <v>-17.719588605194332</v>
       </c>
     </row>
     <row r="25" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7243,13 +7322,13 @@
     </row>
     <row r="26" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -7279,14 +7358,14 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B27" s="76">
+      <c r="B27" s="74">
         <v>87</v>
       </c>
       <c r="C27" s="6">
         <f>B27/180*(2.4-0.53)+0.53</f>
         <v>1.4338333333333333</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="89">
         <f>(C27-1)*180</f>
         <v>78.089999999999989</v>
       </c>
@@ -7311,25 +7390,25 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="AA27" s="64" t="s">
+      <c r="AA27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AB27" s="65">
+      <c r="AB27" s="64">
         <f>AH22</f>
         <v>5</v>
       </c>
-      <c r="AC27" s="66"/>
+      <c r="AC27" s="65"/>
       <c r="AD27" s="29"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B28" s="76">
+      <c r="B28" s="74">
         <v>90</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ref="C28:C33" si="19">B28/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="89">
         <f t="shared" ref="D28:D33" si="20">(C28-1)*180</f>
         <v>83.699999999999974</v>
       </c>
@@ -7354,10 +7433,10 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="AA28" s="67" t="s">
+      <c r="AA28" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AB28" s="68">
+      <c r="AB28" s="67">
         <f>AH21</f>
         <v>0</v>
       </c>
@@ -7365,14 +7444,14 @@
       <c r="AD28" s="31"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B29" s="76">
+      <c r="B29" s="74">
         <v>100</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="19"/>
         <v>1.568888888888889</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="89">
         <f t="shared" si="20"/>
         <v>102.40000000000002</v>
       </c>
@@ -7397,10 +7476,10 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="AA29" s="67" t="s">
+      <c r="AA29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AB29" s="68">
+      <c r="AB29" s="67">
         <f>AE14</f>
         <v>5</v>
       </c>
@@ -7408,14 +7487,14 @@
       <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B30" s="76">
+      <c r="B30" s="74">
         <v>110</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="19"/>
         <v>1.6727777777777779</v>
       </c>
-      <c r="D30" s="91">
+      <c r="D30" s="89">
         <f t="shared" si="20"/>
         <v>121.10000000000002</v>
       </c>
@@ -7438,10 +7517,10 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="AA30" s="67" t="s">
+      <c r="AA30" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AB30" s="68">
+      <c r="AB30" s="67">
         <f>AE13</f>
         <v>0</v>
       </c>
@@ -7449,21 +7528,21 @@
       <c r="AD30" s="31"/>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B31" s="76">
+      <c r="B31" s="74">
         <v>114</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="19"/>
         <v>1.7143333333333333</v>
       </c>
-      <c r="D31" s="91">
+      <c r="D31" s="89">
         <f t="shared" si="20"/>
         <v>128.57999999999998</v>
       </c>
-      <c r="AA31" s="67" t="s">
+      <c r="AA31" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="68">
+      <c r="AB31" s="67">
         <f>AB17/100</f>
         <v>221.53846153846152</v>
       </c>
@@ -7473,21 +7552,21 @@
       <c r="AO31" s="3"/>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B32" s="76">
+      <c r="B32" s="74">
         <v>127.5</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="19"/>
         <v>1.8545833333333333</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="89">
         <f t="shared" si="20"/>
         <v>153.82499999999999</v>
       </c>
-      <c r="AA32" s="67" t="s">
+      <c r="AA32" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AB32" s="68">
+      <c r="AB32" s="67">
         <f>AJ22</f>
         <v>180</v>
       </c>
@@ -7496,21 +7575,21 @@
       <c r="AM32" s="3"/>
     </row>
     <row r="33" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="83">
+      <c r="B33" s="81">
         <v>136.4</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="19"/>
         <v>1.9470444444444444</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="89">
         <f t="shared" si="20"/>
         <v>170.46799999999999</v>
       </c>
-      <c r="AA33" s="67" t="s">
+      <c r="AA33" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AB33" s="68">
+      <c r="AB33" s="67">
         <f>AJ21</f>
         <v>0</v>
       </c>
@@ -7519,31 +7598,31 @@
       <c r="AL33" s="3"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA34" s="67" t="s">
+      <c r="AA34" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AB34" s="68">
+      <c r="AB34" s="67">
         <f>AB22</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="69">
+      <c r="AC34" s="68">
         <f>AB21</f>
         <v>7227.227639740272</v>
       </c>
-      <c r="AD34" s="70">
+      <c r="AD34" s="69">
         <f>AB20</f>
         <v>-475.97454575994487</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA35" s="67" t="s">
+      <c r="AA35" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AB35" s="68">
+      <c r="AB35" s="67">
         <f>AB24</f>
         <v>-63471.680708889646</v>
       </c>
-      <c r="AC35" s="69">
+      <c r="AC35" s="68">
         <f>AB23</f>
         <v>16373.425300201903</v>
       </c>
@@ -7552,42 +7631,42 @@
       <c r="AK35" s="3"/>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA36" s="67" t="s">
+      <c r="AA36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AB36" s="68">
+      <c r="AB36" s="92">
         <f>AK24</f>
-        <v>-5</v>
-      </c>
-      <c r="AC36" s="71">
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AC36" s="93">
         <f>AK23</f>
-        <v>15</v>
+        <v>17.543917721038866</v>
       </c>
       <c r="AD36" s="31"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA37" s="67" t="s">
+      <c r="AA37" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AB37" s="68">
+      <c r="AB37" s="67">
         <f>AE23</f>
         <v>-3925.570398689204</v>
       </c>
-      <c r="AC37" s="72">
+      <c r="AC37" s="70">
         <f>AE22</f>
         <v>0.94199104022164515</v>
       </c>
       <c r="AD37" s="31"/>
     </row>
     <row r="38" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA38" s="73" t="s">
+      <c r="AA38" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AB38" s="74">
+      <c r="AB38" s="72">
         <f>AE21</f>
         <v>4180.4182204512181</v>
       </c>
-      <c r="AC38" s="75">
+      <c r="AC38" s="73">
         <f>AE20</f>
         <v>1.0602056822563426</v>
       </c>
@@ -7601,11 +7680,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH24" sqref="AH24"/>
+      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7630,7 +7709,7 @@
     <col min="22" max="22" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="6.109375" customWidth="1"/>
     <col min="27" max="27" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" customWidth="1"/>
     <col min="29" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.6640625" customWidth="1"/>
     <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -7645,28 +7724,28 @@
       <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="85" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -7718,39 +7797,30 @@
         <f t="shared" ref="Y1:Y8" si="0">J1</f>
         <v>Charger Pwr, W</v>
       </c>
-      <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="77">
+      <c r="B2" s="75">
         <v>1.1637222222222223</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="86">
         <v>29.47000000000002</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="86">
         <v>0.54</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="86">
         <v>12.15</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="86">
         <v>1.56</v>
       </c>
-      <c r="G2" s="88">
+      <c r="G2" s="86">
         <v>3810.7961637948006</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="86">
         <v>8615</v>
       </c>
-      <c r="I2" s="89">
+      <c r="I2" s="87">
         <v>2.88</v>
       </c>
       <c r="J2" s="2">
@@ -7774,96 +7844,77 @@
         <v>116.07661056297157</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:P8" si="3">M2*60/$AB$2</f>
+        <f>M2*60/$AB$12</f>
         <v>7872.3706833287897</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" si="3"/>
+        <f>N2*60/$AB$12</f>
         <v>3482.2983168891469</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:R8" si="4">O2/$AB$7*100</f>
+        <f>O2/$AB$17*100</f>
         <v>35.535006556692458</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="4"/>
+        <f>P2/$AB$17*100</f>
         <v>15.7187076804024</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S8" si="5">P2*$AE$10+$AE$11</f>
+        <f>P2*$AE$20+$AE$21</f>
         <v>7872.3706833287897</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T8" si="6">K2</f>
+        <f t="shared" ref="T2:T8" si="3">K2</f>
         <v>29.47000000000002</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U8" si="7">S2/$AB$7*100</f>
+        <f>S2/$AB$17*100</f>
         <v>35.535006556692458</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2:V8" si="8">$AB$13*LN(C2)+$AB$14</f>
+        <f>$AB$23*LN(C2)+$AB$24</f>
         <v>7254.3033712821489</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" ref="W2:W8" si="9">D2*D2*$AB$10+D2*$AB$11+$AB$12</f>
+        <f>D2*D2*$AB$20+D2*$AB$21+$AB$22</f>
         <v>3895.0045670565887</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:X8" si="10">W2/$AB$7*100</f>
+        <f>W2/$AB$17*100</f>
         <v>17.581617837408213</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
         <v>18.954000000000001</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
     </row>
     <row r="3" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80">
+      <c r="B3" s="78">
         <v>1.2052777777777779</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="74">
         <v>36.950000000000017</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="74">
         <v>0.68</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="74">
         <v>12.14</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="74">
         <v>1.9</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="74">
         <v>3247.7925769058029</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="74">
         <v>6290</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="79">
         <v>4.0199999999999996</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J7" si="11">E3*F3</f>
+        <f t="shared" ref="J3:J7" si="4">E3*F3</f>
         <v>23.065999999999999</v>
       </c>
       <c r="K3" s="1">
@@ -7871,7 +7922,7 @@
         <v>36.950000000000017</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L8" si="12">LN(K3)</f>
+        <f t="shared" ref="L3:L8" si="5">LN(K3)</f>
         <v>3.609565647394211</v>
       </c>
       <c r="M3" s="3">
@@ -7883,97 +7934,77 @@
         <v>158.98251192368841</v>
       </c>
       <c r="O3" s="3">
+        <f>M3*60/$AB$12</f>
+        <v>9237.0430960776539</v>
+      </c>
+      <c r="P3" s="3">
+        <f>N3*60/$AB$12</f>
+        <v>4769.4753577106521</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>O3/$AB$17*100</f>
+        <v>41.694986197572746</v>
+      </c>
+      <c r="R3" s="3">
+        <f>P3/$AB$17*100</f>
+        <v>21.528881822999473</v>
+      </c>
+      <c r="S3" s="3">
+        <f>P3*$AE$20+$AE$21</f>
+        <v>9237.0430960776539</v>
+      </c>
+      <c r="T3" s="3">
         <f t="shared" si="3"/>
-        <v>9237.0430960776539</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" si="3"/>
-        <v>4769.4753577106521</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" si="4"/>
+        <v>36.950000000000017</v>
+      </c>
+      <c r="U3" s="3">
+        <f>S3/$AB$17*100</f>
         <v>41.694986197572746</v>
       </c>
-      <c r="R3" s="3">
-        <f t="shared" si="4"/>
-        <v>21.528881822999473</v>
-      </c>
-      <c r="S3" s="3">
-        <f t="shared" si="5"/>
-        <v>9237.0430960776539</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" si="6"/>
-        <v>36.950000000000017</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" si="7"/>
-        <v>41.694986197572746</v>
-      </c>
       <c r="V3" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C3)+$AB$24</f>
         <v>9298.3552461146719</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" si="9"/>
+        <f>D3*D3*$AB$20+D3*$AB$21+$AB$22</f>
         <v>4863.4075129077619</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" si="10"/>
+        <f>W3/$AB$17*100</f>
         <v>21.952881134653094</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
         <v>23.065999999999999</v>
       </c>
-      <c r="AA3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="20">
-        <v>4800</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="80">
+    <row r="4" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="78">
         <v>1.3299444444444444</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="74">
         <v>59.389999999999986</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="74">
         <v>1.18</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="74">
         <v>12.07</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="74">
         <v>3.66</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="74">
         <v>2314.9259570838622</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="74">
         <v>3623</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="79">
         <v>7.4</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>44.176200000000001</v>
       </c>
       <c r="K4" s="1">
@@ -7981,7 +8012,7 @@
         <v>59.389999999999986</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>4.0841258620277685</v>
       </c>
       <c r="M4" s="3">
@@ -7993,97 +8024,77 @@
         <v>276.01435274634281</v>
       </c>
       <c r="O4" s="3">
+        <f>M4*60/$AB$12</f>
+        <v>12959.377775430594</v>
+      </c>
+      <c r="P4" s="3">
+        <f>N4*60/$AB$12</f>
+        <v>8280.4305823902851</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>O4/$AB$17*100</f>
+        <v>58.497191347429769</v>
+      </c>
+      <c r="R4" s="3">
+        <f>P4/$AB$17*100</f>
+        <v>37.376943601067261</v>
+      </c>
+      <c r="S4" s="3">
+        <f>P4*$AE$20+$AE$21</f>
+        <v>12959.377775430594</v>
+      </c>
+      <c r="T4" s="3">
         <f t="shared" si="3"/>
-        <v>12959.377775430594</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="3"/>
-        <v>8280.4305823902851</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" si="4"/>
+        <v>59.389999999999986</v>
+      </c>
+      <c r="U4" s="3">
+        <f>S4/$AB$17*100</f>
         <v>58.497191347429769</v>
       </c>
-      <c r="R4" s="3">
-        <f t="shared" si="4"/>
-        <v>37.376943601067261</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="5"/>
-        <v>12959.377775430594</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="6"/>
-        <v>59.389999999999986</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="7"/>
-        <v>58.497191347429769</v>
-      </c>
       <c r="V4" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C4)+$AB$24</f>
         <v>13586.844885279916</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="9"/>
+        <f>D4*D4*$AB$20+D4*$AB$21+$AB$22</f>
         <v>8182.7859228288444</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="10"/>
+        <f>W4/$AB$17*100</f>
         <v>36.936186457213537</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
         <v>44.176200000000001</v>
       </c>
-      <c r="AA4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="27">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="34"/>
     </row>
     <row r="5" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80">
+      <c r="B5" s="78">
         <v>1.4442222222222223</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="74">
         <v>79.960000000000008</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="74">
         <v>1.57</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="74">
         <v>11.96</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="74">
         <v>6.51</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="74">
         <v>1890.4108937169444</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="74">
         <v>2721</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="79">
         <v>9.5</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>77.8596</v>
       </c>
       <c r="K5" s="1">
@@ -8091,7 +8102,7 @@
         <v>79.960000000000008</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>4.3815265096321996</v>
       </c>
       <c r="M5" s="3">
@@ -8103,43 +8114,43 @@
         <v>367.51194413818456</v>
       </c>
       <c r="O5" s="3">
+        <f>M5*60/$AB$12</f>
+        <v>15869.565764622583</v>
+      </c>
+      <c r="P5" s="3">
+        <f>N5*60/$AB$12</f>
+        <v>11025.358324145536</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>O5/$AB$17*100</f>
+        <v>71.633456576421381</v>
+      </c>
+      <c r="R5" s="3">
+        <f>P5/$AB$17*100</f>
+        <v>49.76724243537916</v>
+      </c>
+      <c r="S5" s="3">
+        <f>P5*$AE$20+$AE$21</f>
+        <v>15869.565764622583</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="3"/>
-        <v>15869.565764622583</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="3"/>
-        <v>11025.358324145536</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" si="4"/>
+        <v>79.960000000000008</v>
+      </c>
+      <c r="U5" s="3">
+        <f>S5/$AB$17*100</f>
         <v>71.633456576421381</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" si="4"/>
-        <v>49.76724243537916</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="5"/>
-        <v>15869.565764622583</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="6"/>
-        <v>79.960000000000008</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="7"/>
-        <v>71.633456576421381</v>
-      </c>
       <c r="V5" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C5)+$AB$24</f>
         <v>16274.384962607019</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="9"/>
+        <f>D5*D5*$AB$20+D5*$AB$21+$AB$22</f>
         <v>10620.908743264476</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="10"/>
+        <f>W5/$AB$17*100</f>
         <v>47.941601966124367</v>
       </c>
       <c r="Y5" s="4">
@@ -8147,33 +8158,33 @@
         <v>77.8596</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="80">
+    <row r="6" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="78">
         <v>1.5169444444444444</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="74">
         <v>93.05</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="74">
         <v>1.88</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="74">
         <v>11.86</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="74">
         <v>8.49</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="74">
         <v>1735.553038041201</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="74">
         <v>2427</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="79">
         <v>10.5</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>100.6914</v>
       </c>
       <c r="K6" s="1">
@@ -8181,7 +8192,7 @@
         <v>93.05</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>4.5331369830882595</v>
       </c>
       <c r="M6" s="3">
@@ -8193,83 +8204,77 @@
         <v>412.03131437989288</v>
       </c>
       <c r="O6" s="3">
+        <f>M6*60/$AB$12</f>
+        <v>17285.556443644575</v>
+      </c>
+      <c r="P6" s="3">
+        <f>N6*60/$AB$12</f>
+        <v>12360.939431396786</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>O6/$AB$17*100</f>
+        <v>78.025081169228997</v>
+      </c>
+      <c r="R6" s="3">
+        <f>P6/$AB$17*100</f>
+        <v>55.795907155610493</v>
+      </c>
+      <c r="S6" s="3">
+        <f>P6*$AE$20+$AE$21</f>
+        <v>17285.556443644575</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="3"/>
-        <v>17285.556443644575</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="3"/>
-        <v>12360.939431396786</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="4"/>
+        <v>93.05</v>
+      </c>
+      <c r="U6" s="3">
+        <f>S6/$AB$17*100</f>
         <v>78.025081169228997</v>
       </c>
-      <c r="R6" s="3">
-        <f t="shared" si="4"/>
-        <v>55.795907155610493</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="5"/>
-        <v>17285.556443644575</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="6"/>
-        <v>93.05</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="7"/>
-        <v>78.025081169228997</v>
-      </c>
       <c r="V6" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C6)+$AB$24</f>
         <v>17644.453342880533</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="9"/>
+        <f>D6*D6*$AB$20+D6*$AB$21+$AB$22</f>
         <v>12464.506405406451</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="10"/>
+        <f>W6/$AB$17*100</f>
         <v>56.263396968848568</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="0"/>
         <v>100.6914</v>
       </c>
-      <c r="AA6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="7" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="80">
+    <row r="7" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="78">
         <v>1.6208333333333333</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="74">
         <v>111.75</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="74">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="74">
         <v>11.55</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="74">
         <v>13.48</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="74">
         <v>1544.1739275824405</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="74">
         <v>2086</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="79">
         <v>12.4</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>155.69400000000002</v>
       </c>
       <c r="K7" s="1">
@@ -8277,7 +8282,7 @@
         <v>111.75</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>4.7162642334936784</v>
       </c>
       <c r="M7" s="3">
@@ -8289,94 +8294,69 @@
         <v>479.38638542665387</v>
       </c>
       <c r="O7" s="3">
+        <f>M7*60/$AB$12</f>
+        <v>19427.863315221246</v>
+      </c>
+      <c r="P7" s="3">
+        <f>N7*60/$AB$12</f>
+        <v>14381.591562799616</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>O7/$AB$17*100</f>
+        <v>87.695216353429245</v>
+      </c>
+      <c r="R7" s="3">
+        <f>P7/$AB$17*100</f>
+        <v>64.916906359859382</v>
+      </c>
+      <c r="S7" s="3">
+        <f>P7*$AE$20+$AE$21</f>
+        <v>19427.863315221246</v>
+      </c>
+      <c r="T7" s="3">
         <f t="shared" si="3"/>
-        <v>19427.863315221246</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="3"/>
-        <v>14381.591562799616</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="4"/>
+        <v>111.75</v>
+      </c>
+      <c r="U7" s="3">
+        <f>S7/$AB$17*100</f>
         <v>87.695216353429245</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="4"/>
-        <v>64.916906359859382</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="5"/>
-        <v>19427.863315221246</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="6"/>
-        <v>111.75</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="7"/>
-        <v>87.695216353429245</v>
-      </c>
       <c r="V7" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C7)+$AB$24</f>
         <v>19299.331463286977</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="9"/>
+        <f>D7*D7*$AB$20+D7*$AB$21+$AB$22</f>
         <v>14500.533861250384</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="10"/>
+        <f>W7/$AB$17*100</f>
         <v>65.4537986792552</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
         <v>155.69400000000002</v>
       </c>
-      <c r="AA7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="40">
-        <f>AB3*AB4/AC7</f>
-        <v>22153.846153846152</v>
-      </c>
-      <c r="AC7" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="AD7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="35">
-        <v>210</v>
-      </c>
-      <c r="AH7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="38"/>
     </row>
     <row r="8" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="82">
+      <c r="B8" s="80">
         <v>1.7766666666666666</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="81">
         <v>139.79999999999998</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="81">
         <v>2.68</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81">
         <v>1361.8412878381814</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="81">
         <v>1782</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="82">
         <v>14.4</v>
       </c>
       <c r="J8" s="2"/>
@@ -8385,7 +8365,7 @@
         <v>139.79999999999998</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>4.9402128297997097</v>
       </c>
       <c r="M8" s="3">
@@ -8397,62 +8377,51 @@
         <v>561.16722783389457</v>
       </c>
       <c r="O8" s="3">
+        <f>M8*60/$AB$12</f>
+        <v>22028.998729817256</v>
+      </c>
+      <c r="P8" s="3">
+        <f>N8*60/$AB$12</f>
+        <v>16835.016835016839</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>O8/$AB$17*100</f>
+        <v>99.436452599869568</v>
+      </c>
+      <c r="R8" s="3">
+        <f>P8/$AB$17*100</f>
+        <v>75.991395435839905</v>
+      </c>
+      <c r="S8" s="3">
+        <f>P8*$AE$20+$AE$21</f>
+        <v>22028.99872981726</v>
+      </c>
+      <c r="T8" s="3">
         <f t="shared" si="3"/>
-        <v>22028.998729817256</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="3"/>
-        <v>16835.016835016839</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="4"/>
-        <v>99.436452599869568</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="4"/>
-        <v>75.991395435839905</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="5"/>
-        <v>22028.99872981726</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="6"/>
         <v>139.79999999999998</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="7"/>
+        <f>S8/$AB$17*100</f>
         <v>99.436452599869583</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$23*LN(C8)+$AB$24</f>
         <v>21323.102536691451</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="9"/>
+        <f>D8*D8*$AB$20+D8*$AB$21+$AB$22</f>
         <v>16835.887969335279</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="10"/>
+        <f>W8/$AB$17*100</f>
         <v>75.995327639360639</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
     </row>
-    <row r="9" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="9" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -8476,35 +8445,8 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="AA10" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB10" s="51">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
-        <v>-435.01106108560458</v>
-      </c>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE10" s="18">
-        <f>CalArduino!AE20</f>
-        <v>1.0602056822563426</v>
-      </c>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK10" s="29" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="11" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -8517,13 +8459,13 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -8533,41 +8475,25 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="54">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
-        <v>7447.8773934613901</v>
-      </c>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="20">
-        <f>CalArduino!AE21</f>
-        <v>4180.4182204512181</v>
-      </c>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH11" s="59">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ11" s="60">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="61">
-        <v>-5</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>59</v>
+      <c r="AA11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -8584,7 +8510,7 @@
         <v>7872.3706833287897</v>
       </c>
       <c r="Q12" s="3">
-        <f>P12/60*$AB$2</f>
+        <f>P12/60*$AB$12</f>
         <v>262.41235611095965</v>
       </c>
       <c r="R12" s="3">
@@ -8598,39 +8524,33 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE12" s="20">
-        <f>CalArduino!AE22</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AG12" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH12" s="59">
-        <v>3.3</v>
-      </c>
-      <c r="AI12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ12" s="60">
-        <v>180</v>
-      </c>
-      <c r="AK12" s="61">
-        <v>70</v>
-      </c>
+      <c r="AA12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="29"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -8647,11 +8567,11 @@
         <v>9237.0430960776539</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" ref="Q13:Q18" si="13">P13/60*$AB$2</f>
+        <f>P13/60*$AB$12</f>
         <v>307.90143653592179</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R13:R18" si="14">1/Q13/0.000001</f>
+        <f t="shared" ref="R13:R18" si="6">1/Q13/0.000001</f>
         <v>3247.7925769058029</v>
       </c>
       <c r="S13" s="3"/>
@@ -8661,34 +8581,34 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="AA13" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB13" s="55">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
-        <v>9036.7660560772038</v>
-      </c>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="20">
-        <f>CalArduino!AE23</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="20">
+        <v>4800</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63">
-        <f>(AK12-AK11)/(AH12-AH11)</f>
-        <v>22.72727272727273</v>
-      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
     </row>
     <row r="14" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -8705,42 +8625,38 @@
         <v>12959.377775430594</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="13"/>
+        <f>P14/60*$AB$12</f>
         <v>431.97925918101981</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>2314.9259570838622</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
       <c r="Y14" s="3"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
-        <v>-23320.445073439671</v>
-      </c>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="34"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="63">
-        <f>AK12-AK13*(AH12-AH11)</f>
-        <v>-5</v>
-      </c>
+      <c r="AA14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="34"/>
     </row>
-    <row r="15" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -8760,32 +8676,16 @@
         <v>15869.565764622583</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="13"/>
+        <f>P15/60*$AB$12</f>
         <v>528.98552548741941</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1890.4108937169444</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
       <c r="Y15" s="3"/>
-      <c r="AD15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="49" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
@@ -8807,29 +8707,24 @@
         <v>17285.556443644575</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="13"/>
+        <f>P16/60*$AB$12</f>
         <v>576.18521478815251</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1735.553038041201</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
       <c r="Y16" s="3"/>
-      <c r="AA16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AA16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -8849,11 +8744,11 @@
         <v>19427.863315221246</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="13"/>
+        <f>P17/60*$AB$12</f>
         <v>647.59544384070819</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1544.1739275824405</v>
       </c>
       <c r="S17" s="3"/>
@@ -8862,15 +8757,31 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="AA17" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="90">
-        <f>AH12</f>
-        <v>3.3</v>
-      </c>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="29"/>
+      <c r="AA17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="40">
+        <f>AB13*AB14/AC17</f>
+        <v>22153.846153846152</v>
+      </c>
+      <c r="AC17" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="AD17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="35">
+        <v>210</v>
+      </c>
+      <c r="AH17" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="38"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
@@ -8892,11 +8803,11 @@
         <v>22028.99872981726</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="13"/>
+        <f>P18/60*$AB$12</f>
         <v>734.29995766057539</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1361.8412878381814</v>
       </c>
       <c r="S18" s="3"/>
@@ -8906,17 +8817,12 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="AA18" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB18" s="68">
-        <f>AH11</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="31"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -8938,37 +8844,77 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="AA19" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="68">
-        <f>AE4</f>
-        <v>5</v>
-      </c>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="31"/>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="AA20" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="68">
-        <f>AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="31"/>
+    <row r="20" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA20" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="51">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
+        <v>-435.01106108560458</v>
+      </c>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="53">
+        <f>CalArduino!AE20</f>
+        <v>1.0602056822563426</v>
+      </c>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK20" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="AA21" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB21" s="68">
-        <f>AB7/100</f>
-        <v>221.53846153846152</v>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="54">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
+        <v>7447.8773934613901</v>
       </c>
       <c r="AC21" s="30"/>
-      <c r="AD21" s="31"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="47">
+        <f>CalArduino!AE21</f>
+        <v>4180.4182204512181</v>
+      </c>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH21" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ21" s="60">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="90">
+        <f>AE23/AB17*100</f>
+        <v>-17.719588605194325</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
@@ -8994,17 +8940,34 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="AA22" s="67" t="s">
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="45">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22" s="47">
+        <f>CalArduino!AE22</f>
+        <v>0.94199104022164515</v>
+      </c>
+      <c r="AG22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH22" s="59">
+        <v>3.3</v>
+      </c>
+      <c r="AI22" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AB22" s="68">
-        <f>AJ12</f>
+      <c r="AJ22" s="60">
         <v>180</v>
       </c>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="31"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
+      <c r="AK22" s="61">
+        <v>70</v>
+      </c>
       <c r="AO22" s="3"/>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.3">
@@ -9031,18 +8994,31 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="AA23" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB23" s="68">
-        <f>AJ11</f>
-        <v>0</v>
+      <c r="AA23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="55">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
+        <v>9036.7660560772038</v>
       </c>
       <c r="AC23" s="30"/>
-      <c r="AD23" s="31"/>
-      <c r="AL23" s="3"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="47">
+        <f>CalArduino!AE23</f>
+        <v>-3925.570398689204</v>
+      </c>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="90">
+        <f>(AK22-AK21)/(AH22-AH21)</f>
+        <v>26.581693516725558</v>
+      </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9066,23 +9042,24 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
-      <c r="AA24" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB24" s="68">
-        <f>AB12</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="69">
-        <f>AB11</f>
-        <v>7447.8773934613901</v>
-      </c>
-      <c r="AD24" s="70">
-        <f>AB10</f>
-        <v>-435.01106108560458</v>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="57">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
+        <v>-23320.445073439671</v>
+      </c>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="34"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="90">
+        <f>AK22-AK23*(AH22-AH21)</f>
+        <v>-17.719588605194332</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -9106,30 +9083,23 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="AA25" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB25" s="68">
-        <f>AB14</f>
-        <v>-23320.445073439671</v>
-      </c>
-      <c r="AC25" s="69">
-        <f>AB13</f>
-        <v>9036.7660560772038</v>
-      </c>
-      <c r="AD25" s="31"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="49" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -9152,28 +9122,21 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="AA26" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB26" s="68">
-        <f>AK14</f>
-        <v>-5</v>
-      </c>
-      <c r="AC26" s="71">
-        <f>AK13</f>
-        <v>22.72727272727273</v>
-      </c>
-      <c r="AD26" s="31"/>
+      <c r="AA26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B27" s="88">
+      <c r="B27" s="86">
         <v>61</v>
       </c>
       <c r="C27" s="6">
         <f>B27/180*(2.4-0.53)+0.53</f>
         <v>1.1637222222222223</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="89">
         <f>(C27-1)*180</f>
         <v>29.47000000000002</v>
       </c>
@@ -9198,29 +9161,26 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="AA27" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB27" s="68">
-        <f>AE13</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AC27" s="72">
-        <f>AE12</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AD27" s="31"/>
+      <c r="AA27" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB27" s="88">
+        <f>AH22</f>
+        <v>3.3</v>
+      </c>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="29"/>
     </row>
-    <row r="28" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="76">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B28" s="74">
         <v>65</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:C33" si="15">B28/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C28:C33" si="7">B28/180*(2.4-0.53)+0.53</f>
         <v>1.2052777777777779</v>
       </c>
-      <c r="D28" s="91">
-        <f t="shared" ref="D28:D33" si="16">(C28-1)*180</f>
+      <c r="D28" s="89">
+        <f t="shared" ref="D28:D33" si="8">(C28-1)*180</f>
         <v>36.950000000000017</v>
       </c>
       <c r="E28" s="6"/>
@@ -9244,29 +9204,26 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="AA28" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB28" s="74">
-        <f>AE11</f>
-        <v>4180.4182204512181</v>
-      </c>
-      <c r="AC28" s="75">
-        <f>AE10</f>
-        <v>1.0602056822563426</v>
-      </c>
-      <c r="AD28" s="34"/>
+      <c r="AA28" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="67">
+        <f>AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="31"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B29" s="76">
+      <c r="B29" s="74">
         <v>77</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.3299444444444444</v>
       </c>
-      <c r="D29" s="91">
-        <f t="shared" si="16"/>
+      <c r="D29" s="89">
+        <f t="shared" si="8"/>
         <v>59.389999999999986</v>
       </c>
       <c r="E29" s="6"/>
@@ -9290,17 +9247,26 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
+      <c r="AA29" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="67">
+        <f>AE14</f>
+        <v>5</v>
+      </c>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B30" s="76">
+      <c r="B30" s="74">
         <v>88</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.4442222222222223</v>
       </c>
-      <c r="D30" s="91">
-        <f t="shared" si="16"/>
+      <c r="D30" s="89">
+        <f t="shared" si="8"/>
         <v>79.960000000000008</v>
       </c>
       <c r="E30" s="6"/>
@@ -9322,45 +9288,159 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
+      <c r="AA30" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="67">
+        <f>AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="31"/>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B31" s="76">
+      <c r="B31" s="74">
         <v>95</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.5169444444444444</v>
       </c>
-      <c r="D31" s="91">
-        <f t="shared" si="16"/>
+      <c r="D31" s="89">
+        <f t="shared" si="8"/>
         <v>93.05</v>
       </c>
+      <c r="AA31" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="91">
+        <f>AB17/100</f>
+        <v>221.53846153846152</v>
+      </c>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="31"/>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B32" s="76">
+      <c r="B32" s="74">
         <v>105</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.6208333333333333</v>
       </c>
-      <c r="D32" s="91">
-        <f t="shared" si="16"/>
+      <c r="D32" s="89">
+        <f t="shared" si="8"/>
         <v>111.75</v>
       </c>
+      <c r="AA32" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="67">
+        <f>AJ22</f>
+        <v>180</v>
+      </c>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="31"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="83">
+    <row r="33" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="81">
         <v>120</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1.7766666666666666</v>
       </c>
-      <c r="D33" s="91">
-        <f t="shared" si="16"/>
+      <c r="D33" s="89">
+        <f t="shared" si="8"/>
         <v>139.79999999999998</v>
       </c>
+      <c r="AA33" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB33" s="67">
+        <f>AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="31"/>
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AA34" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB34" s="67">
+        <f>AB22</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="68">
+        <f>AB21</f>
+        <v>7447.8773934613901</v>
+      </c>
+      <c r="AD34" s="69">
+        <f>AB20</f>
+        <v>-435.01106108560458</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AA35" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="67">
+        <f>AB24</f>
+        <v>-23320.445073439671</v>
+      </c>
+      <c r="AC35" s="68">
+        <f>AB23</f>
+        <v>9036.7660560772038</v>
+      </c>
+      <c r="AD35" s="31"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AA36" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB36" s="92">
+        <f>AK24</f>
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AC36" s="93">
+        <f>AK23</f>
+        <v>26.581693516725558</v>
+      </c>
+      <c r="AD36" s="31"/>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AA37" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB37" s="67">
+        <f>AE23</f>
+        <v>-3925.570398689204</v>
+      </c>
+      <c r="AC37" s="70">
+        <f>AE22</f>
+        <v>0.94199104022164515</v>
+      </c>
+      <c r="AD37" s="31"/>
+    </row>
+    <row r="38" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA38" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB38" s="72">
+        <f>AE21</f>
+        <v>4180.4182204512181</v>
+      </c>
+      <c r="AC38" s="73">
+        <f>AE20</f>
+        <v>1.0602056822563426</v>
+      </c>
+      <c r="AD38" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="CalArduino" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -70,12 +70,6 @@
     <t>ln(throttle)</t>
   </si>
   <si>
-    <t>pot --&gt; pcnfRef</t>
-  </si>
-  <si>
-    <t>v4 --&gt; nf --&gt; pcnf</t>
-  </si>
-  <si>
     <t>Charger V, vdc</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>Charger Pwr, W</t>
-  </si>
-  <si>
-    <t>open loop: pot --&gt;  pcnfRef --&gt; nfRef --&gt; ngRef -ln-&gt; throttle</t>
   </si>
   <si>
     <t>P_V4_NF</t>
@@ -172,9 +163,6 @@
     <t>LM2907N Circuit</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>watts max ESC output</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
   </si>
   <si>
     <t>Computed Values</t>
-  </si>
-  <si>
-    <t>Entries for potESC.ino</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -252,6 +237,21 @@
   <si>
     <t>Nf for 0% Ng</t>
   </si>
+  <si>
+    <t>-----&gt;</t>
+  </si>
+  <si>
+    <t>10/13/2016 determined to scale deg throttle to 1000-2000 microseconds by setting in code for Servo</t>
+  </si>
+  <si>
+    <t>Nf, %</t>
+  </si>
+  <si>
+    <t>Entries for potESC.ino Arduino</t>
+  </si>
+  <si>
+    <t>Entries for potESC.ino Photon</t>
+  </si>
 </sst>
 </file>
 
@@ -261,9 +261,17 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -611,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,7 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -796,6 +803,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,7 +1743,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Log Throttle to Ng</a:t>
+              <a:t>Log Throttle Attempt by ESC to Reduce Power Slope At Max</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1829,8 +1838,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5478196039448559E-2"/>
-                  <c:y val="0.1523936574043947"/>
+                  <c:x val="-0.35323397075365581"/>
+                  <c:y val="0.12661041336775053"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1935,6 +1944,169 @@
         </c:dLbls>
         <c:axId val="193837512"/>
         <c:axId val="193838296"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduino!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charger Pwr, W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6373767232584297E-2"/>
+                  <c:y val="0.3571603652849179"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduino!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78.089999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.699999999999974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.46799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduino!$Y$2:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141291272"/>
+        <c:axId val="513800152"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="193837512"/>
@@ -2179,6 +2351,68 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="513800152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141291272"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141291272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="513800152"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2187,6 +2421,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3915115991666955E-2"/>
+          <c:y val="0.82389355699646971"/>
+          <c:w val="0.75743135247107563"/>
+          <c:h val="0.13927395036459092"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2264,7 +2539,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19088290380521447"/>
+          <c:y val="0.20268573725972114"/>
+          <c:w val="0.73720588399941778"/>
+          <c:h val="0.57449782288774598"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2290,10 +2575,16 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:forward val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1786916297490646E-2"/>
+                  <c:y val="8.5395829819055205E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2374,7 +2665,8 @@
         <c:axId val="193839864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2413,6 +2705,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power, W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2422,11 +2733,6 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2459,7 +2765,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10252674358798312"/>
+          <c:y val="0.24957033840520826"/>
+          <c:w val="0.85584877842541363"/>
+          <c:h val="0.60184334164635112"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2558,6 +2874,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2601,6 +2936,353 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduino!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calc Ng from Nf, %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="32"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduino!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.799635701275045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.345984598459847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.26475694444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.44183445190157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.064009661835762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.117737003058117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.030141843971634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduino!$U$2:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>34.560601222019052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.561283203103258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.257839052092237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.047634454261498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.887885193961779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.727521095750703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.236709032912501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560366232"/>
+        <c:axId val="560365840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560366232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560365840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560365840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560366232"/>
+        <c:crossesAt val="-20"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3264,6 +3946,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4813,6 +5535,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5393,15 +6631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22866</xdr:rowOff>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60966</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5423,15 +6661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177171</xdr:rowOff>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>40011</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5452,16 +6690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>167646</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>70491</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5475,6 +6713,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5807,11 +7075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5839,8 +7107,7 @@
     <col min="27" max="27" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.6640625" customWidth="1"/>
     <col min="29" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.6640625" customWidth="1"/>
     <col min="32" max="32" width="7.88671875" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
     <col min="34" max="34" width="11.5546875" customWidth="1"/>
@@ -5848,36 +7115,36 @@
     <col min="37" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -5886,22 +7153,22 @@
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>11</v>
@@ -5919,57 +7186,57 @@
         <v>9</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="4" t="str">
         <f t="shared" ref="Y1:Y8" si="0">J1</f>
         <v>Charger Pwr, W</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="78">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B2" s="77">
         <v>1.4338333333333333</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="73">
         <v>78.089999999999989</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="73">
         <v>0.5</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="73">
         <v>12</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="73">
         <v>0.97</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="73">
         <v>3840</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="73">
         <v>9150</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="78">
         <v>3.2</v>
       </c>
       <c r="J2" s="2">
@@ -6001,35 +7268,35 @@
         <v>3278.688524590164</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:R8" si="4">O2/$AB$17*100</f>
+        <f>O2/$AB$20*100</f>
         <v>35.26475694444445</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="4"/>
+        <f>P2/$AB$20*100</f>
         <v>14.799635701275045</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S8" si="5">P2*$AE$20+$AE$21</f>
+        <f>P2*$AE$31+$AE$32</f>
         <v>7656.5024245703744</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T8" si="6">K2</f>
+        <f t="shared" ref="T2:T8" si="4">K2</f>
         <v>78.089999999999989</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U8" si="7">S2/$AB$17*100</f>
+        <f>S2/$AB$20*100</f>
         <v>34.560601222019052</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2:V8" si="8">$AB$23*LN(C2)+$AB$24</f>
+        <f>$AB$34*LN(C2)+$AB$35</f>
         <v>7881.4473423580348</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" ref="W2:W8" si="9">D2*D2*$AB$20+D2*$AB$21+$AB$22</f>
+        <f>D2*D2*$AB$31+D2*$AB$32+$AB$33</f>
         <v>3494.6201834301496</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:X8" si="10">W2/$AB$17*100</f>
+        <f>W2/$AB$20*100</f>
         <v>15.774327216872205</v>
       </c>
       <c r="Y2" s="4">
@@ -6049,33 +7316,33 @@
         <v>-6.715889533924146E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78">
+    <row r="3" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77">
         <v>1.4649999999999999</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="73">
         <v>83.699999999999974</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="73">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>12</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="73">
         <v>1.51</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="73">
         <v>3180</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="73">
         <v>6060</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="78">
         <v>4.5999999999999996</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J8" si="11">E3*F3</f>
+        <f t="shared" ref="J3:J8" si="5">E3*F3</f>
         <v>18.12</v>
       </c>
       <c r="K3" s="1">
@@ -6083,7 +7350,7 @@
         <v>83.699999999999974</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L8" si="12">LN(K3)</f>
+        <f t="shared" ref="L3:L8" si="6">LN(K3)</f>
         <v>4.4272389774954295</v>
       </c>
       <c r="M3" s="3">
@@ -6103,35 +7370,35 @@
         <v>4950.4950495049507</v>
       </c>
       <c r="Q3" s="3">
+        <f>O3/$AB$20*100</f>
+        <v>42.58385744234802</v>
+      </c>
+      <c r="R3" s="3">
+        <f>P3/$AB$20*100</f>
+        <v>22.345984598459847</v>
+      </c>
+      <c r="S3" s="3">
+        <f>P3*$AE$31+$AE$32</f>
+        <v>9428.9612019182605</v>
+      </c>
+      <c r="T3" s="3">
         <f t="shared" si="4"/>
-        <v>42.58385744234802</v>
-      </c>
-      <c r="R3" s="3">
-        <f t="shared" si="4"/>
-        <v>22.345984598459847</v>
-      </c>
-      <c r="S3" s="3">
-        <f t="shared" si="5"/>
-        <v>9428.9612019182605</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" si="6"/>
         <v>83.699999999999974</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" si="7"/>
+        <f>S3/$AB$20*100</f>
         <v>42.561283203103258</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C3)+$AB$35</f>
         <v>9017.3859752740245</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" si="9"/>
+        <f>D3*D3*$AB$31+D3*$AB$32+$AB$33</f>
         <v>5100.5484588755035</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" si="10"/>
+        <f>W3/$AB$20*100</f>
         <v>23.02330901575748</v>
       </c>
       <c r="Y3" s="4">
@@ -6139,60 +7406,60 @@
         <v>18.12</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z8" si="13">Y3*0.001341022</f>
+        <f t="shared" ref="Z3:Z8" si="7">Y3*0.001341022</f>
         <v>2.4299318640000005E-2</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA8" si="14">Z3/O3*5252</f>
+        <f t="shared" ref="AA3:AA8" si="8">Z3/O3*5252</f>
         <v>1.3527722278711681E-2</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB8" si="15">-AA3/2/O3</f>
+        <f t="shared" ref="AB3:AB8" si="9">-AA3/2/O3</f>
         <v>-7.1696928077171894E-7</v>
       </c>
       <c r="AC3">
         <v>0.18</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD6" si="16">-AC3*AB3</f>
+        <f t="shared" ref="AD3:AD6" si="10">-AC3*AB3</f>
         <v>1.2905447053890941E-7</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE6" si="17">AD3/6.66*2048.5</f>
+        <f t="shared" ref="AE3:AE6" si="11">AD3/6.66*2048.5</f>
         <v>3.9694907342185574E-5</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF6" si="18">AE3*144</f>
+        <f t="shared" ref="AF3:AF6" si="12">AE3*144</f>
         <v>5.716066657274723E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78">
+    <row r="4" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="77">
         <v>1.568888888888889</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="73">
         <v>102.40000000000002</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="73">
         <v>1.17</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="73">
         <v>12</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="73">
         <v>3</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="73">
         <v>2450</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="73">
         <v>3840</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="78">
         <v>7.4</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K4" s="1">
@@ -6200,7 +7467,7 @@
         <v>102.40000000000002</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.6288867126054072</v>
       </c>
       <c r="M4" s="3">
@@ -6220,35 +7487,35 @@
         <v>7812.5000000000009</v>
       </c>
       <c r="Q4" s="3">
+        <f>O4/$AB$20*100</f>
+        <v>55.272108843537424</v>
+      </c>
+      <c r="R4" s="3">
+        <f>P4/$AB$20*100</f>
+        <v>35.26475694444445</v>
+      </c>
+      <c r="S4" s="3">
+        <f>P4*$AE$31+$AE$32</f>
+        <v>12463.275113078895</v>
+      </c>
+      <c r="T4" s="3">
         <f t="shared" si="4"/>
-        <v>55.272108843537424</v>
-      </c>
-      <c r="R4" s="3">
-        <f t="shared" si="4"/>
-        <v>35.26475694444445</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="5"/>
-        <v>12463.275113078895</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="6"/>
         <v>102.40000000000002</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="7"/>
+        <f>S4/$AB$20*100</f>
         <v>56.257839052092237</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C4)+$AB$35</f>
         <v>12319.050103052141</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="9"/>
+        <f>D4*D4*$AB$31+D4*$AB$32+$AB$33</f>
         <v>7804.2947828053293</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="10"/>
+        <f>W4/$AB$20*100</f>
         <v>35.227719505718504</v>
       </c>
       <c r="Y4" s="4">
@@ -6256,60 +7523,60 @@
         <v>36</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4.8276792000000006E-2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.070655977936E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-8.4551785765719992E-7</v>
       </c>
       <c r="AC4">
         <v>0.18</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.5219321437829598E-7</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.6811981930020919E-5</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>6.7409253979230123E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78">
+    <row r="5" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77">
         <v>1.6727777777777779</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="73">
         <v>121.10000000000002</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>1.52</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="73">
         <v>12</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="73">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="73">
         <v>2000</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="73">
         <v>2980</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="78">
         <v>9.4</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>55.199999999999996</v>
       </c>
       <c r="K5" s="1">
@@ -6317,7 +7584,7 @@
         <v>121.10000000000002</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.7966166505590468</v>
       </c>
       <c r="M5" s="3">
@@ -6337,35 +7604,35 @@
         <v>10067.114093959732</v>
       </c>
       <c r="Q5" s="3">
+        <f>O5/$AB$20*100</f>
+        <v>67.708333333333343</v>
+      </c>
+      <c r="R5" s="3">
+        <f>P5/$AB$20*100</f>
+        <v>45.44183445190157</v>
+      </c>
+      <c r="S5" s="3">
+        <f>P5*$AE$31+$AE$32</f>
+        <v>14853.629786790238</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="4"/>
-        <v>67.708333333333343</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="4"/>
-        <v>45.44183445190157</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="5"/>
-        <v>14853.629786790238</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="6"/>
         <v>121.10000000000002</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="7"/>
+        <f>S5/$AB$20*100</f>
         <v>67.047634454261498</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C5)+$AB$35</f>
         <v>15065.363712743565</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="9"/>
+        <f>D5*D5*$AB$31+D5*$AB$32+$AB$33</f>
         <v>9885.6944218814369</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="10"/>
+        <f>W5/$AB$20*100</f>
         <v>44.622926209881491</v>
       </c>
       <c r="Y5" s="4">
@@ -6373,60 +7640,60 @@
         <v>55.199999999999996</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.4024414400000002E-2</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.5918414961919996E-2</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-8.6394716539733309E-7</v>
       </c>
       <c r="AC5">
         <v>0.14000000000000001</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.2095260315562663E-7</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.7202914048693865E-5</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.3572196230119162E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78">
+    <row r="6" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="77">
         <v>1.7143333333333333</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="73">
         <v>128.57999999999998</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <v>1.7</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="73">
         <v>12</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <v>5.4</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="73">
         <v>1930</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="73">
         <v>2760</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="78">
         <v>10.4</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>64.800000000000011</v>
       </c>
       <c r="K6" s="1">
@@ -6434,7 +7701,7 @@
         <v>128.57999999999998</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.8565512787135408</v>
       </c>
       <c r="M6" s="3">
@@ -6454,35 +7721,35 @@
         <v>10869.565217391306</v>
       </c>
       <c r="Q6" s="3">
+        <f>O6/$AB$20*100</f>
+        <v>70.164075993091544</v>
+      </c>
+      <c r="R6" s="3">
+        <f>P6/$AB$20*100</f>
+        <v>49.064009661835762</v>
+      </c>
+      <c r="S6" s="3">
+        <f>P6*$AE$31+$AE$32</f>
+        <v>15704.393027585378</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="4"/>
-        <v>70.164075993091544</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="4"/>
-        <v>49.064009661835762</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="5"/>
-        <v>15704.393027585378</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="6"/>
         <v>128.57999999999998</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="7"/>
+        <f>S6/$AB$20*100</f>
         <v>70.887885193961779</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C6)+$AB$35</f>
         <v>16046.698869726548</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="9"/>
+        <f>D6*D6*$AB$31+D6*$AB$32+$AB$33</f>
         <v>10910.72055031222</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="10"/>
+        <f>W6/$AB$20*100</f>
         <v>49.249780261825997</v>
       </c>
       <c r="Y6" s="4">
@@ -6490,60 +7757,60 @@
         <v>64.800000000000011</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8.6898225600000017E-2</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.9361056601427207E-2</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-9.4444732067924179E-7</v>
       </c>
       <c r="AC6">
         <v>0.12</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.1333367848150901E-7</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.4859465520926602E-5</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.0197630350134305E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78">
+    <row r="7" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77">
         <v>1.8545833333333333</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <v>153.82499999999999</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="73">
         <v>12</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="73">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <v>1610</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="73">
         <v>2180</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="78">
         <v>13</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>104.39999999999999</v>
       </c>
       <c r="K7" s="1">
@@ -6551,7 +7818,7 @@
         <v>153.82499999999999</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>5.0358155926265535</v>
       </c>
       <c r="M7" s="3">
@@ -6571,35 +7838,35 @@
         <v>13761.467889908257</v>
       </c>
       <c r="Q7" s="3">
+        <f>O7/$AB$20*100</f>
+        <v>84.10973084886129</v>
+      </c>
+      <c r="R7" s="3">
+        <f>P7/$AB$20*100</f>
+        <v>62.117737003058117</v>
+      </c>
+      <c r="S7" s="3">
+        <f>P7*$AE$31+$AE$32</f>
+        <v>18770.404673520155</v>
+      </c>
+      <c r="T7" s="3">
         <f t="shared" si="4"/>
-        <v>84.10973084886129</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="4"/>
-        <v>62.117737003058117</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="5"/>
-        <v>18770.404673520155</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="6"/>
         <v>153.82499999999999</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="7"/>
+        <f>S7/$AB$20*100</f>
         <v>84.727521095750703</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C7)+$AB$35</f>
         <v>18981.869722573203</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="9"/>
+        <f>D7*D7*$AB$31+D7*$AB$32+$AB$33</f>
         <v>13596.184005950465</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="10"/>
+        <f>W7/$AB$20*100</f>
         <v>61.371663915748634</v>
       </c>
       <c r="Y7" s="4">
@@ -6607,45 +7874,45 @@
         <v>104.39999999999999</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.14000269679999999</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3.9460786779523201E-2</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-1.0588644452505392E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="80">
+    <row r="8" spans="1:36" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="79">
         <v>1.9470444444444444</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>170.46799999999999</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="80">
         <v>2.71</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="80">
         <v>12</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <v>13</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="80">
         <v>1408</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="80">
         <v>1880</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="81">
         <v>15</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="K8" s="1">
@@ -6653,7 +7920,7 @@
         <v>170.46799999999999</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>5.1385475958244022</v>
       </c>
       <c r="M8" s="3">
@@ -6673,35 +7940,35 @@
         <v>15957.44680851064</v>
       </c>
       <c r="Q8" s="3">
+        <f>O8/$AB$20*100</f>
+        <v>96.176609848484858</v>
+      </c>
+      <c r="R8" s="3">
+        <f>P8/$AB$20*100</f>
+        <v>72.030141843971634</v>
+      </c>
+      <c r="S8" s="3">
+        <f>P8*$AE$31+$AE$32</f>
+        <v>21098.594001137539</v>
+      </c>
+      <c r="T8" s="3">
         <f t="shared" si="4"/>
-        <v>96.176609848484858</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="4"/>
-        <v>72.030141843971634</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="5"/>
-        <v>21098.594001137539</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="6"/>
         <v>170.46799999999999</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="7"/>
+        <f>S8/$AB$20*100</f>
         <v>95.236709032912501</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="8"/>
+        <f>$AB$34*LN(C8)+$AB$35</f>
         <v>20663.944502873288</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="9"/>
+        <f>D8*D8*$AB$31+D8*$AB$32+$AB$33</f>
         <v>16090.182242180526</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="10"/>
+        <f>W8/$AB$20*100</f>
         <v>72.629294843175998</v>
       </c>
       <c r="Y8" s="4">
@@ -6709,21 +7976,21 @@
         <v>156</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.20919943200000002</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>5.1566376898150398E-2</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>-1.2100909778765959E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AC9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AD9">
         <f>AVERAGE(AD3:AD6)</f>
@@ -6738,7 +8005,7 @@
         <v>5.7084936783057703E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6762,7 +8029,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6786,21 +8053,19 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="AA11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AG11" s="30"/>
     </row>
-    <row r="12" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -6831,22 +8096,15 @@
       </c>
       <c r="AD12" s="17"/>
       <c r="AE12" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29"/>
+      <c r="AG12" s="30"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6876,24 +8134,17 @@
         <v>4800</v>
       </c>
       <c r="AD13" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE13" s="25">
         <v>0</v>
       </c>
-      <c r="AG13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="31"/>
+      <c r="AG13" s="30"/>
     </row>
-    <row r="14" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6919,21 +8170,14 @@
         <v>12</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE14" s="27">
         <v>5</v>
       </c>
-      <c r="AG14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="34"/>
+      <c r="AG14" s="30"/>
     </row>
-    <row r="15" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -6952,8 +8196,9 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="Y15" s="3"/>
+      <c r="AG15" s="30"/>
     </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6973,11 +8218,16 @@
       <c r="T16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="AA16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AG16" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
     </row>
     <row r="17" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -7001,31 +8251,25 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="AA17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" s="40">
-        <f>AB13*AB14/AC17</f>
-        <v>22153.846153846152</v>
-      </c>
-      <c r="AC17" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="AD17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="35">
+      <c r="AA17" s="34">
         <v>210</v>
       </c>
-      <c r="AH17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="38"/>
+      <c r="AB17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="37"/>
+      <c r="AH17" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="63">
+        <f>AB25</f>
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="29"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
@@ -7050,10 +8294,18 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AH18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI18" s="66">
+        <f>AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="31"/>
     </row>
     <row r="19" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6"/>
@@ -7078,75 +8330,55 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="AA19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AH19" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI19" s="66">
+        <f>AE14</f>
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="31"/>
     </row>
-    <row r="20" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="AA20" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB20" s="51">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
-        <v>-475.97454575994487</v>
-      </c>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" s="53">
-        <f>INDEX(LINEST($O$2:$O$8,$P$2:$P$8),1)</f>
-        <v>1.0602056822563426</v>
-      </c>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK20" s="29" t="s">
-        <v>55</v>
-      </c>
+    <row r="20" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="39">
+        <f>AB13*AB14/AC20</f>
+        <v>22153.846153846152</v>
+      </c>
+      <c r="AC20" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="AD20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="41"/>
+      <c r="AH20" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI20" s="66">
+        <f>AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="31"/>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="54">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
-        <v>7227.227639740272</v>
-      </c>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="47">
-        <f>INDEX(LINEST($O$2:$O$8,$P$2:$P$8),2)</f>
-        <v>4180.4182204512181</v>
-      </c>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ21" s="60">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="90">
-        <f>AE23/AB17*100</f>
-        <v>-17.719588605194325</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>76</v>
-      </c>
+      <c r="AH21" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI21" s="66">
+        <f>AB20/100</f>
+        <v>221.53846153846152</v>
+      </c>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="31"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -7170,36 +8402,20 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="45">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE22" s="47">
-        <f>INDEX(LINEST($P$2:$P$8,$O$2:$O$8),1)</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AG22" s="58" t="s">
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AH22" s="59">
-        <v>5</v>
-      </c>
-      <c r="AI22" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ22" s="60">
+      <c r="AI22" s="66">
+        <f>AD25</f>
         <v>180</v>
       </c>
-      <c r="AK22" s="61">
-        <v>70</v>
-      </c>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="31"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -7223,31 +8439,28 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="AA23" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB23" s="55">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
-        <v>16373.425300201903</v>
-      </c>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="47">
-        <f>INDEX(LINEST($P$2:$P$8,$O$2:$O$8),2)</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="90">
-        <f>(AK22-AK21)/(AH22-AH21)</f>
-        <v>17.543917721038866</v>
-      </c>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH23" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI23" s="66">
+        <f>AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="31"/>
     </row>
-    <row r="24" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7271,24 +8484,45 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="57">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
-        <v>-63471.680708889646</v>
-      </c>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="34"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="90">
-        <f>AK22-AK23*(AH22-AH21)</f>
-        <v>-17.719588605194332</v>
+      <c r="AA24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB24" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD24" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="89">
+        <f>AE34/AB20*100</f>
+        <v>-17.719588605194325</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI24" s="66">
+        <f>AB33</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="67">
+        <f>AB32</f>
+        <v>7227.227639740272</v>
+      </c>
+      <c r="AK24" s="68">
+        <f>AB31</f>
+        <v>-475.97454575994487</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7312,23 +8546,43 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="49" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA25" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="58">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="59">
+        <v>180</v>
+      </c>
+      <c r="AE25" s="60">
+        <v>77</v>
+      </c>
+      <c r="AH25" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI25" s="66">
+        <f>AB35</f>
+        <v>-63471.680708889646</v>
+      </c>
+      <c r="AJ25" s="67">
+        <f>AB34</f>
+        <v>16373.425300201903</v>
+      </c>
+      <c r="AK25" s="31"/>
     </row>
-    <row r="26" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -7351,21 +8605,38 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="AA26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="89">
+        <f>(AE25-AE24)/(AB25-AB24)</f>
+        <v>18.943917721038865</v>
+      </c>
+      <c r="AH26" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI26" s="91">
+        <f>AE27</f>
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AJ26" s="92">
+        <f>AE26</f>
+        <v>18.943917721038865</v>
+      </c>
+      <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B27" s="74">
+      <c r="B27" s="73">
         <v>87</v>
       </c>
       <c r="C27" s="6">
         <f>B27/180*(2.4-0.53)+0.53</f>
         <v>1.4338333333333333</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="88">
         <f>(C27-1)*180</f>
         <v>78.089999999999989</v>
       </c>
@@ -7390,26 +8661,37 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="AA27" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB27" s="64">
-        <f>AH22</f>
-        <v>5</v>
-      </c>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="29"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="89">
+        <f>AE25-AE26*(AB25-AB24)</f>
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AH27" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI27" s="66">
+        <f>AE34</f>
+        <v>-3925.570398689204</v>
+      </c>
+      <c r="AJ27" s="69">
+        <f>AE33</f>
+        <v>0.94199104022164515</v>
+      </c>
+      <c r="AK27" s="31"/>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B28" s="74">
+    <row r="28" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="73">
         <v>90</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:C33" si="19">B28/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C28:C33" si="13">B28/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
-      <c r="D28" s="89">
-        <f t="shared" ref="D28:D33" si="20">(C28-1)*180</f>
+      <c r="D28" s="88">
+        <f t="shared" ref="D28:D33" si="14">(C28-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E28" s="6"/>
@@ -7433,26 +8715,36 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="AA28" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB28" s="67">
-        <f>AH21</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="31"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH28" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI28" s="71">
+        <f>AE32</f>
+        <v>4180.4182204512181</v>
+      </c>
+      <c r="AJ28" s="72">
+        <f>AE31</f>
+        <v>1.0602056822563426</v>
+      </c>
+      <c r="AK28" s="33"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B29" s="74">
+      <c r="B29" s="73">
         <v>100</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1.568888888888889</v>
       </c>
-      <c r="D29" s="89">
-        <f t="shared" si="20"/>
+      <c r="D29" s="88">
+        <f t="shared" si="14"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E29" s="6"/>
@@ -7476,26 +8768,17 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="AA29" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB29" s="67">
-        <f>AE14</f>
-        <v>5</v>
-      </c>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="31"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B30" s="74">
+    <row r="30" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="73">
         <v>110</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1.6727777777777779</v>
       </c>
-      <c r="D30" s="89">
-        <f t="shared" si="20"/>
+      <c r="D30" s="88">
+        <f t="shared" si="14"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E30" s="6"/>
@@ -7517,160 +8800,114 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="AA30" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB30" s="67">
-        <f>AE13</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="31"/>
+      <c r="AA30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B31" s="74">
+      <c r="B31" s="73">
         <v>114</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1.7143333333333333</v>
       </c>
-      <c r="D31" s="89">
-        <f t="shared" si="20"/>
+      <c r="D31" s="88">
+        <f t="shared" si="14"/>
         <v>128.57999999999998</v>
       </c>
-      <c r="AA31" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="67">
-        <f>AB17/100</f>
-        <v>221.53846153846152</v>
-      </c>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="31"/>
+      <c r="AA31" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31" s="50">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
+        <v>-475.97454575994487</v>
+      </c>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="52">
+        <f>INDEX(LINEST($O$2:$O$8,$P$2:$P$8),1)</f>
+        <v>1.0602056822563426</v>
+      </c>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B32" s="74">
+      <c r="B32" s="73">
         <v>127.5</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1.8545833333333333</v>
       </c>
-      <c r="D32" s="89">
-        <f t="shared" si="20"/>
+      <c r="D32" s="88">
+        <f t="shared" si="14"/>
         <v>153.82499999999999</v>
       </c>
-      <c r="AA32" s="66" t="s">
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="53">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
+        <v>7227.227639740272</v>
+      </c>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="46">
+        <f>INDEX(LINEST($O$2:$O$8,$P$2:$P$8),2)</f>
+        <v>4180.4182204512181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="80">
+        <v>136.4</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="13"/>
+        <v>1.9470444444444444</v>
+      </c>
+      <c r="D33" s="88">
+        <f t="shared" si="14"/>
+        <v>170.46799999999999</v>
+      </c>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="44">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE33" s="46">
+        <f>INDEX(LINEST($P$2:$P$8,$O$2:$O$8),1)</f>
+        <v>0.94199104022164515</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AA34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AB32" s="67">
-        <f>AJ22</f>
-        <v>180</v>
-      </c>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="31"/>
-      <c r="AM32" s="3"/>
+      <c r="AB34" s="54">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
+        <v>16373.425300201903</v>
+      </c>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="46">
+        <f>INDEX(LINEST($P$2:$P$8,$O$2:$O$8),2)</f>
+        <v>-3925.570398689204</v>
+      </c>
     </row>
-    <row r="33" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="81">
-        <v>136.4</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="19"/>
-        <v>1.9470444444444444</v>
-      </c>
-      <c r="D33" s="89">
-        <f t="shared" si="20"/>
-        <v>170.46799999999999</v>
-      </c>
-      <c r="AA33" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB33" s="67">
-        <f>AJ21</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="31"/>
-      <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA34" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB34" s="67">
-        <f>AB22</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="68">
-        <f>AB21</f>
-        <v>7227.227639740272</v>
-      </c>
-      <c r="AD34" s="69">
-        <f>AB20</f>
-        <v>-475.97454575994487</v>
-      </c>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA35" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB35" s="67">
-        <f>AB24</f>
+    <row r="35" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="56">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
         <v>-63471.680708889646</v>
       </c>
-      <c r="AC35" s="68">
-        <f>AB23</f>
-        <v>16373.425300201903</v>
-      </c>
-      <c r="AD35" s="31"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA36" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB36" s="92">
-        <f>AK24</f>
-        <v>-17.719588605194332</v>
-      </c>
-      <c r="AC36" s="93">
-        <f>AK23</f>
-        <v>17.543917721038866</v>
-      </c>
-      <c r="AD36" s="31"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA37" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB37" s="67">
-        <f>AE23</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AC37" s="70">
-        <f>AE22</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AD37" s="31"/>
-    </row>
-    <row r="38" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA38" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB38" s="72">
-        <f>AE21</f>
-        <v>4180.4182204512181</v>
-      </c>
-      <c r="AC38" s="73">
-        <f>AE20</f>
-        <v>1.0602056822563426</v>
-      </c>
-      <c r="AD38" s="34"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7680,11 +8917,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7720,36 +8957,36 @@
     <col min="37" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -7758,19 +8995,19 @@
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>8</v>
@@ -7791,36 +9028,36 @@
         <v>9</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="4" t="str">
         <f t="shared" ref="Y1:Y8" si="0">J1</f>
         <v>Charger Pwr, W</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="75">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B2" s="74">
         <v>1.1637222222222223</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="85">
         <v>29.47000000000002</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="85">
         <v>0.54</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="85">
         <v>12.15</v>
       </c>
-      <c r="F2" s="86">
+      <c r="F2" s="85">
         <v>1.56</v>
       </c>
-      <c r="G2" s="86">
+      <c r="G2" s="85">
         <v>3810.7961637948006</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="85">
         <v>8615</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="86">
         <v>2.88</v>
       </c>
       <c r="J2" s="2">
@@ -7852,15 +9089,15 @@
         <v>3482.2983168891469</v>
       </c>
       <c r="Q2" s="3">
-        <f>O2/$AB$17*100</f>
+        <f>O2/$AB$20*100</f>
         <v>35.535006556692458</v>
       </c>
       <c r="R2" s="3">
-        <f>P2/$AB$17*100</f>
+        <f>P2/$AB$20*100</f>
         <v>15.7187076804024</v>
       </c>
       <c r="S2" s="3">
-        <f>P2*$AE$20+$AE$21</f>
+        <f>P2*$AE$31+$AE$32</f>
         <v>7872.3706833287897</v>
       </c>
       <c r="T2" s="3">
@@ -7868,19 +9105,19 @@
         <v>29.47000000000002</v>
       </c>
       <c r="U2" s="3">
-        <f>S2/$AB$17*100</f>
+        <f>S2/$AB$20*100</f>
         <v>35.535006556692458</v>
       </c>
       <c r="V2" s="3">
-        <f>$AB$23*LN(C2)+$AB$24</f>
+        <f>$AB$34*LN(C2)+$AB$35</f>
         <v>7254.3033712821489</v>
       </c>
       <c r="W2" s="3">
-        <f>D2*D2*$AB$20+D2*$AB$21+$AB$22</f>
+        <f>D2*D2*$AB$31+D2*$AB$32+$AB$33</f>
         <v>3895.0045670565887</v>
       </c>
       <c r="X2" s="3">
-        <f>W2/$AB$17*100</f>
+        <f>W2/$AB$20*100</f>
         <v>17.581617837408213</v>
       </c>
       <c r="Y2" s="4">
@@ -7888,29 +9125,29 @@
         <v>18.954000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78">
+    <row r="3" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77">
         <v>1.2052777777777779</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="73">
         <v>36.950000000000017</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="73">
         <v>0.68</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>12.14</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="73">
         <v>1.9</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="73">
         <v>3247.7925769058029</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="73">
         <v>6290</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="78">
         <v>4.0199999999999996</v>
       </c>
       <c r="J3" s="2">
@@ -7942,15 +9179,15 @@
         <v>4769.4753577106521</v>
       </c>
       <c r="Q3" s="3">
-        <f>O3/$AB$17*100</f>
+        <f>O3/$AB$20*100</f>
         <v>41.694986197572746</v>
       </c>
       <c r="R3" s="3">
-        <f>P3/$AB$17*100</f>
+        <f>P3/$AB$20*100</f>
         <v>21.528881822999473</v>
       </c>
       <c r="S3" s="3">
-        <f>P3*$AE$20+$AE$21</f>
+        <f>P3*$AE$31+$AE$32</f>
         <v>9237.0430960776539</v>
       </c>
       <c r="T3" s="3">
@@ -7958,19 +9195,19 @@
         <v>36.950000000000017</v>
       </c>
       <c r="U3" s="3">
-        <f>S3/$AB$17*100</f>
+        <f>S3/$AB$20*100</f>
         <v>41.694986197572746</v>
       </c>
       <c r="V3" s="3">
-        <f>$AB$23*LN(C3)+$AB$24</f>
+        <f>$AB$34*LN(C3)+$AB$35</f>
         <v>9298.3552461146719</v>
       </c>
       <c r="W3" s="3">
-        <f>D3*D3*$AB$20+D3*$AB$21+$AB$22</f>
+        <f>D3*D3*$AB$31+D3*$AB$32+$AB$33</f>
         <v>4863.4075129077619</v>
       </c>
       <c r="X3" s="3">
-        <f>W3/$AB$17*100</f>
+        <f>W3/$AB$20*100</f>
         <v>21.952881134653094</v>
       </c>
       <c r="Y3" s="4">
@@ -7978,29 +9215,29 @@
         <v>23.065999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78">
+    <row r="4" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="77">
         <v>1.3299444444444444</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="73">
         <v>59.389999999999986</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="73">
         <v>1.18</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="73">
         <v>12.07</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="73">
         <v>3.66</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="73">
         <v>2314.9259570838622</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="73">
         <v>3623</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="78">
         <v>7.4</v>
       </c>
       <c r="J4" s="2">
@@ -8032,15 +9269,15 @@
         <v>8280.4305823902851</v>
       </c>
       <c r="Q4" s="3">
-        <f>O4/$AB$17*100</f>
+        <f>O4/$AB$20*100</f>
         <v>58.497191347429769</v>
       </c>
       <c r="R4" s="3">
-        <f>P4/$AB$17*100</f>
+        <f>P4/$AB$20*100</f>
         <v>37.376943601067261</v>
       </c>
       <c r="S4" s="3">
-        <f>P4*$AE$20+$AE$21</f>
+        <f>P4*$AE$31+$AE$32</f>
         <v>12959.377775430594</v>
       </c>
       <c r="T4" s="3">
@@ -8048,19 +9285,19 @@
         <v>59.389999999999986</v>
       </c>
       <c r="U4" s="3">
-        <f>S4/$AB$17*100</f>
+        <f>S4/$AB$20*100</f>
         <v>58.497191347429769</v>
       </c>
       <c r="V4" s="3">
-        <f>$AB$23*LN(C4)+$AB$24</f>
+        <f>$AB$34*LN(C4)+$AB$35</f>
         <v>13586.844885279916</v>
       </c>
       <c r="W4" s="3">
-        <f>D4*D4*$AB$20+D4*$AB$21+$AB$22</f>
+        <f>D4*D4*$AB$31+D4*$AB$32+$AB$33</f>
         <v>8182.7859228288444</v>
       </c>
       <c r="X4" s="3">
-        <f>W4/$AB$17*100</f>
+        <f>W4/$AB$20*100</f>
         <v>36.936186457213537</v>
       </c>
       <c r="Y4" s="4">
@@ -8068,29 +9305,29 @@
         <v>44.176200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78">
+    <row r="5" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77">
         <v>1.4442222222222223</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="73">
         <v>79.960000000000008</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>1.57</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="73">
         <v>11.96</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="73">
         <v>6.51</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="73">
         <v>1890.4108937169444</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="73">
         <v>2721</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="78">
         <v>9.5</v>
       </c>
       <c r="J5" s="2">
@@ -8122,15 +9359,15 @@
         <v>11025.358324145536</v>
       </c>
       <c r="Q5" s="3">
-        <f>O5/$AB$17*100</f>
+        <f>O5/$AB$20*100</f>
         <v>71.633456576421381</v>
       </c>
       <c r="R5" s="3">
-        <f>P5/$AB$17*100</f>
+        <f>P5/$AB$20*100</f>
         <v>49.76724243537916</v>
       </c>
       <c r="S5" s="3">
-        <f>P5*$AE$20+$AE$21</f>
+        <f>P5*$AE$31+$AE$32</f>
         <v>15869.565764622583</v>
       </c>
       <c r="T5" s="3">
@@ -8138,19 +9375,19 @@
         <v>79.960000000000008</v>
       </c>
       <c r="U5" s="3">
-        <f>S5/$AB$17*100</f>
+        <f>S5/$AB$20*100</f>
         <v>71.633456576421381</v>
       </c>
       <c r="V5" s="3">
-        <f>$AB$23*LN(C5)+$AB$24</f>
+        <f>$AB$34*LN(C5)+$AB$35</f>
         <v>16274.384962607019</v>
       </c>
       <c r="W5" s="3">
-        <f>D5*D5*$AB$20+D5*$AB$21+$AB$22</f>
+        <f>D5*D5*$AB$31+D5*$AB$32+$AB$33</f>
         <v>10620.908743264476</v>
       </c>
       <c r="X5" s="3">
-        <f>W5/$AB$17*100</f>
+        <f>W5/$AB$20*100</f>
         <v>47.941601966124367</v>
       </c>
       <c r="Y5" s="4">
@@ -8158,29 +9395,29 @@
         <v>77.8596</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78">
+    <row r="6" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="77">
         <v>1.5169444444444444</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="73">
         <v>93.05</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <v>1.88</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="73">
         <v>11.86</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <v>8.49</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="73">
         <v>1735.553038041201</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="73">
         <v>2427</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="78">
         <v>10.5</v>
       </c>
       <c r="J6" s="2">
@@ -8212,15 +9449,15 @@
         <v>12360.939431396786</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6/$AB$17*100</f>
+        <f>O6/$AB$20*100</f>
         <v>78.025081169228997</v>
       </c>
       <c r="R6" s="3">
-        <f>P6/$AB$17*100</f>
+        <f>P6/$AB$20*100</f>
         <v>55.795907155610493</v>
       </c>
       <c r="S6" s="3">
-        <f>P6*$AE$20+$AE$21</f>
+        <f>P6*$AE$31+$AE$32</f>
         <v>17285.556443644575</v>
       </c>
       <c r="T6" s="3">
@@ -8228,19 +9465,19 @@
         <v>93.05</v>
       </c>
       <c r="U6" s="3">
-        <f>S6/$AB$17*100</f>
+        <f>S6/$AB$20*100</f>
         <v>78.025081169228997</v>
       </c>
       <c r="V6" s="3">
-        <f>$AB$23*LN(C6)+$AB$24</f>
+        <f>$AB$34*LN(C6)+$AB$35</f>
         <v>17644.453342880533</v>
       </c>
       <c r="W6" s="3">
-        <f>D6*D6*$AB$20+D6*$AB$21+$AB$22</f>
+        <f>D6*D6*$AB$31+D6*$AB$32+$AB$33</f>
         <v>12464.506405406451</v>
       </c>
       <c r="X6" s="3">
-        <f>W6/$AB$17*100</f>
+        <f>W6/$AB$20*100</f>
         <v>56.263396968848568</v>
       </c>
       <c r="Y6" s="4">
@@ -8248,29 +9485,29 @@
         <v>100.6914</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78">
+    <row r="7" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77">
         <v>1.6208333333333333</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <v>111.75</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="73">
         <v>11.55</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="73">
         <v>13.48</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <v>1544.1739275824405</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="73">
         <v>2086</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="78">
         <v>12.4</v>
       </c>
       <c r="J7" s="2">
@@ -8302,15 +9539,15 @@
         <v>14381.591562799616</v>
       </c>
       <c r="Q7" s="3">
-        <f>O7/$AB$17*100</f>
+        <f>O7/$AB$20*100</f>
         <v>87.695216353429245</v>
       </c>
       <c r="R7" s="3">
-        <f>P7/$AB$17*100</f>
+        <f>P7/$AB$20*100</f>
         <v>64.916906359859382</v>
       </c>
       <c r="S7" s="3">
-        <f>P7*$AE$20+$AE$21</f>
+        <f>P7*$AE$31+$AE$32</f>
         <v>19427.863315221246</v>
       </c>
       <c r="T7" s="3">
@@ -8318,19 +9555,19 @@
         <v>111.75</v>
       </c>
       <c r="U7" s="3">
-        <f>S7/$AB$17*100</f>
+        <f>S7/$AB$20*100</f>
         <v>87.695216353429245</v>
       </c>
       <c r="V7" s="3">
-        <f>$AB$23*LN(C7)+$AB$24</f>
+        <f>$AB$34*LN(C7)+$AB$35</f>
         <v>19299.331463286977</v>
       </c>
       <c r="W7" s="3">
-        <f>D7*D7*$AB$20+D7*$AB$21+$AB$22</f>
+        <f>D7*D7*$AB$31+D7*$AB$32+$AB$33</f>
         <v>14500.533861250384</v>
       </c>
       <c r="X7" s="3">
-        <f>W7/$AB$17*100</f>
+        <f>W7/$AB$20*100</f>
         <v>65.4537986792552</v>
       </c>
       <c r="Y7" s="4">
@@ -8338,25 +9575,25 @@
         <v>155.69400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="80">
+    <row r="8" spans="1:40" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="79">
         <v>1.7766666666666666</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>139.79999999999998</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="80">
         <v>2.68</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81">
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80">
         <v>1361.8412878381814</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="80">
         <v>1782</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="81">
         <v>14.4</v>
       </c>
       <c r="J8" s="2"/>
@@ -8385,15 +9622,15 @@
         <v>16835.016835016839</v>
       </c>
       <c r="Q8" s="3">
-        <f>O8/$AB$17*100</f>
+        <f>O8/$AB$20*100</f>
         <v>99.436452599869568</v>
       </c>
       <c r="R8" s="3">
-        <f>P8/$AB$17*100</f>
+        <f>P8/$AB$20*100</f>
         <v>75.991395435839905</v>
       </c>
       <c r="S8" s="3">
-        <f>P8*$AE$20+$AE$21</f>
+        <f>P8*$AE$31+$AE$32</f>
         <v>22028.99872981726</v>
       </c>
       <c r="T8" s="3">
@@ -8401,19 +9638,19 @@
         <v>139.79999999999998</v>
       </c>
       <c r="U8" s="3">
-        <f>S8/$AB$17*100</f>
+        <f>S8/$AB$20*100</f>
         <v>99.436452599869583</v>
       </c>
       <c r="V8" s="3">
-        <f>$AB$23*LN(C8)+$AB$24</f>
+        <f>$AB$34*LN(C8)+$AB$35</f>
         <v>21323.102536691451</v>
       </c>
       <c r="W8" s="3">
-        <f>D8*D8*$AB$20+D8*$AB$21+$AB$22</f>
+        <f>D8*D8*$AB$31+D8*$AB$32+$AB$33</f>
         <v>16835.887969335279</v>
       </c>
       <c r="X8" s="3">
-        <f>W8/$AB$17*100</f>
+        <f>W8/$AB$20*100</f>
         <v>75.995327639360639</v>
       </c>
       <c r="Y8" s="4">
@@ -8421,8 +9658,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -8446,7 +9683,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -8459,13 +9696,13 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -8476,21 +9713,26 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="AA11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
     </row>
-    <row r="12" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8506,7 +9748,7 @@
         <v>3482.2983168891469</v>
       </c>
       <c r="P12" s="3">
-        <f>O12*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O12*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>7872.3706833287897</v>
       </c>
       <c r="Q12" s="3">
@@ -8532,22 +9774,22 @@
       </c>
       <c r="AD12" s="17"/>
       <c r="AE12" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -8563,7 +9805,7 @@
         <v>4769.4753577106521</v>
       </c>
       <c r="P13" s="3">
-        <f>O13*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O13*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>9237.0430960776539</v>
       </c>
       <c r="Q13" s="3">
@@ -8588,24 +9830,24 @@
         <v>4800</v>
       </c>
       <c r="AD13" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE13" s="25">
         <v>0</v>
       </c>
-      <c r="AG13" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG13" s="30"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
-      <c r="AL13" s="31"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
     </row>
-    <row r="14" spans="1:38" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -8621,7 +9863,7 @@
         <v>8280.4305823902851</v>
       </c>
       <c r="P14" s="3">
-        <f>O14*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O14*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>12959.377775430594</v>
       </c>
       <c r="Q14" s="3">
@@ -8642,21 +9884,21 @@
         <v>12</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE14" s="27">
         <v>5</v>
       </c>
-      <c r="AG14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="34"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
     </row>
-    <row r="15" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -8672,7 +9914,7 @@
         <v>11025.358324145536</v>
       </c>
       <c r="P15" s="3">
-        <f>O15*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O15*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>15869.565764622583</v>
       </c>
       <c r="Q15" s="3">
@@ -8686,8 +9928,16 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="Y15" s="3"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
     </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -8703,7 +9953,7 @@
         <v>12360.939431396786</v>
       </c>
       <c r="P16" s="3">
-        <f>O16*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O16*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>17285.556443644575</v>
       </c>
       <c r="Q16" s="3">
@@ -8718,11 +9968,16 @@
       <c r="T16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="AA16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AG16" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
     </row>
     <row r="17" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -8740,7 +9995,7 @@
         <v>14381.591562799616</v>
       </c>
       <c r="P17" s="3">
-        <f>O17*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O17*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>19427.863315221246</v>
       </c>
       <c r="Q17" s="3">
@@ -8757,31 +10012,25 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="AA17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB17" s="40">
-        <f>AB13*AB14/AC17</f>
-        <v>22153.846153846152</v>
-      </c>
-      <c r="AC17" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="AD17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="35">
+      <c r="AA17" s="34">
         <v>210</v>
       </c>
-      <c r="AH17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="38"/>
+      <c r="AB17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="37"/>
+      <c r="AH17" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="87">
+        <f>AB25</f>
+        <v>3.3</v>
+      </c>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="29"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
@@ -8799,7 +10048,7 @@
         <v>16835.016835016839</v>
       </c>
       <c r="P18" s="3">
-        <f>O18*CalArduino!$AE$20+CalArduino!$AE$21</f>
+        <f>O18*CalArduino!$AE$31+CalArduino!$AE$32</f>
         <v>22028.99872981726</v>
       </c>
       <c r="Q18" s="3">
@@ -8817,10 +10066,18 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AH18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI18" s="66">
+        <f>AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="31"/>
     </row>
     <row r="19" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="6"/>
@@ -8845,78 +10102,57 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="AA19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AH19" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI19" s="66">
+        <f>AE14</f>
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="31"/>
     </row>
-    <row r="20" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="AA20" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB20" s="51">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
-        <v>-435.01106108560458</v>
-      </c>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" s="53">
-        <f>CalArduino!AE20</f>
-        <v>1.0602056822563426</v>
-      </c>
+    <row r="20" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="39">
+        <f>AB13*AB14/AC20</f>
+        <v>22153.846153846152</v>
+      </c>
+      <c r="AC20" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="AD20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK20" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="AH20" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI20" s="66">
+        <f>AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="31"/>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="54">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
-        <v>7447.8773934613901</v>
-      </c>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="47">
-        <f>CalArduino!AE21</f>
-        <v>4180.4182204512181</v>
-      </c>
       <c r="AF21" s="8"/>
-      <c r="AG21" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH21" s="59">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ21" s="60">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="90">
-        <f>AE23/AB17*100</f>
-        <v>-17.719588605194325</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>76</v>
-      </c>
+      <c r="AH21" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI21" s="90">
+        <f>AB20/100</f>
+        <v>221.53846153846152</v>
+      </c>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="31"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -8940,37 +10176,21 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="45">
-        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE22" s="47">
-        <f>CalArduino!AE22</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AG22" s="58" t="s">
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AH22" s="59">
-        <v>3.3</v>
-      </c>
-      <c r="AI22" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ22" s="60">
+      <c r="AI22" s="66">
+        <f>AD25</f>
         <v>180</v>
       </c>
-      <c r="AK22" s="61">
-        <v>70</v>
-      </c>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="31"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -8994,31 +10214,28 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="AA23" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB23" s="55">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
-        <v>9036.7660560772038</v>
-      </c>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="47">
-        <f>CalArduino!AE23</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="90">
-        <f>(AK22-AK21)/(AH22-AH21)</f>
-        <v>26.581693516725558</v>
-      </c>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH23" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI23" s="66">
+        <f>AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="31"/>
     </row>
-    <row r="24" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9042,24 +10259,45 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="57">
-        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
-        <v>-23320.445073439671</v>
-      </c>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="34"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="90">
-        <f>AK22-AK23*(AH22-AH21)</f>
-        <v>-17.719588605194332</v>
+      <c r="AA24" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB24" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD24" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="89">
+        <f>AE34/AB20*100</f>
+        <v>-17.719588605194325</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI24" s="66">
+        <f>AB33</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="67">
+        <f>AB32</f>
+        <v>7447.8773934613901</v>
+      </c>
+      <c r="AK24" s="68">
+        <f>AB31</f>
+        <v>-435.01106108560458</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -9083,23 +10321,43 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="49" t="s">
-        <v>23</v>
-      </c>
+      <c r="AA25" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="58">
+        <v>3.3</v>
+      </c>
+      <c r="AC25" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="59">
+        <v>180</v>
+      </c>
+      <c r="AE25" s="60">
+        <v>77</v>
+      </c>
+      <c r="AH25" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI25" s="66">
+        <f>AB35</f>
+        <v>-23320.445073439671</v>
+      </c>
+      <c r="AJ25" s="67">
+        <f>AB34</f>
+        <v>9036.7660560772038</v>
+      </c>
+      <c r="AK25" s="31"/>
     </row>
     <row r="26" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -9122,21 +10380,38 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
-      <c r="AA26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="89">
+        <f>(AE25-AE24)/(AB25-AB24)</f>
+        <v>28.702905637937679</v>
+      </c>
+      <c r="AH26" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI26" s="91">
+        <f>AE27</f>
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AJ26" s="92">
+        <f>AE26</f>
+        <v>28.702905637937679</v>
+      </c>
+      <c r="AK26" s="31"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B27" s="86">
+      <c r="B27" s="85">
         <v>61</v>
       </c>
       <c r="C27" s="6">
         <f>B27/180*(2.4-0.53)+0.53</f>
         <v>1.1637222222222223</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="88">
         <f>(C27-1)*180</f>
         <v>29.47000000000002</v>
       </c>
@@ -9161,25 +10436,36 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
-      <c r="AA27" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB27" s="88">
-        <f>AH22</f>
-        <v>3.3</v>
-      </c>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="29"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="89">
+        <f>AE25-AE26*(AB25-AB24)</f>
+        <v>-17.719588605194332</v>
+      </c>
+      <c r="AH27" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI27" s="66">
+        <f>AE34</f>
+        <v>-3925.570398689204</v>
+      </c>
+      <c r="AJ27" s="69">
+        <f>AE33</f>
+        <v>0.94199104022164515</v>
+      </c>
+      <c r="AK27" s="31"/>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B28" s="74">
+    <row r="28" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="73">
         <v>65</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ref="C28:C33" si="7">B28/180*(2.4-0.53)+0.53</f>
         <v>1.2052777777777779</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="88">
         <f t="shared" ref="D28:D33" si="8">(C28-1)*180</f>
         <v>36.950000000000017</v>
       </c>
@@ -9204,25 +10490,35 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
-      <c r="AA28" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB28" s="67">
-        <f>AH21</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="31"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH28" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI28" s="71">
+        <f>AE32</f>
+        <v>4180.4182204512181</v>
+      </c>
+      <c r="AJ28" s="72">
+        <f>AE31</f>
+        <v>1.0602056822563426</v>
+      </c>
+      <c r="AK28" s="33"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B29" s="74">
+      <c r="B29" s="73">
         <v>77</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="7"/>
         <v>1.3299444444444444</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="88">
         <f t="shared" si="8"/>
         <v>59.389999999999986</v>
       </c>
@@ -9247,25 +10543,16 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
-      <c r="AA29" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB29" s="67">
-        <f>AE14</f>
-        <v>5</v>
-      </c>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="31"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B30" s="74">
+    <row r="30" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="73">
         <v>88</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="7"/>
         <v>1.4442222222222223</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="88">
         <f t="shared" si="8"/>
         <v>79.960000000000008</v>
       </c>
@@ -9288,159 +10575,120 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="AA30" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB30" s="67">
-        <f>AE13</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="31"/>
+      <c r="AA30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B31" s="74">
+      <c r="B31" s="73">
         <v>95</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="7"/>
         <v>1.5169444444444444</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31" s="88">
         <f t="shared" si="8"/>
         <v>93.05</v>
       </c>
-      <c r="AA31" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="91">
-        <f>AB17/100</f>
-        <v>221.53846153846152</v>
-      </c>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="31"/>
+      <c r="AA31" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31" s="50">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),1)</f>
+        <v>-435.01106108560458</v>
+      </c>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="52">
+        <f>CalArduino!AE31</f>
+        <v>1.0602056822563426</v>
+      </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B32" s="74">
+      <c r="B32" s="73">
         <v>105</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="7"/>
         <v>1.6208333333333333</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D32" s="88">
         <f t="shared" si="8"/>
         <v>111.75</v>
       </c>
-      <c r="AA32" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="67">
-        <f>AJ22</f>
-        <v>180</v>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="53">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),2)</f>
+        <v>7447.8773934613901</v>
       </c>
       <c r="AC32" s="30"/>
-      <c r="AD32" s="31"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="46">
+        <f>CalArduino!AE32</f>
+        <v>4180.4182204512181</v>
+      </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
     </row>
     <row r="33" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="81">
+      <c r="B33" s="80">
         <v>120</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="7"/>
         <v>1.7766666666666666</v>
       </c>
-      <c r="D33" s="89">
+      <c r="D33" s="88">
         <f t="shared" si="8"/>
         <v>139.79999999999998</v>
       </c>
-      <c r="AA33" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB33" s="67">
-        <f>AJ21</f>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="44">
+        <f>INDEX(LINEST($P$2:$P$8,$D$2:$D$8^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="30"/>
-      <c r="AD33" s="31"/>
+      <c r="AD33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE33" s="46">
+        <f>CalArduino!AE33</f>
+        <v>0.94199104022164515</v>
+      </c>
       <c r="AL33" s="3"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA34" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB34" s="67">
-        <f>AB22</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="68">
-        <f>AB21</f>
-        <v>7447.8773934613901</v>
-      </c>
-      <c r="AD34" s="69">
-        <f>AB20</f>
-        <v>-435.01106108560458</v>
+      <c r="AA34" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB34" s="54">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),1)</f>
+        <v>9036.7660560772038</v>
+      </c>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="46">
+        <f>CalArduino!AE34</f>
+        <v>-3925.570398689204</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA35" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB35" s="67">
-        <f>AB24</f>
+    <row r="35" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="56">
+        <f>INDEX(LINEST($S$2:$S$8,$L$2:$L$8),2)</f>
         <v>-23320.445073439671</v>
       </c>
-      <c r="AC35" s="68">
-        <f>AB23</f>
-        <v>9036.7660560772038</v>
-      </c>
-      <c r="AD35" s="31"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="33"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA36" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB36" s="92">
-        <f>AK24</f>
-        <v>-17.719588605194332</v>
-      </c>
-      <c r="AC36" s="93">
-        <f>AK23</f>
-        <v>26.581693516725558</v>
-      </c>
-      <c r="AD36" s="31"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="AA37" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB37" s="67">
-        <f>AE23</f>
-        <v>-3925.570398689204</v>
-      </c>
-      <c r="AC37" s="70">
-        <f>AE22</f>
-        <v>0.94199104022164515</v>
-      </c>
-      <c r="AD37" s="31"/>
-    </row>
-    <row r="38" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA38" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB38" s="72">
-        <f>AE21</f>
-        <v>4180.4182204512181</v>
-      </c>
-      <c r="AC38" s="73">
-        <f>AE20</f>
-        <v>1.0602056822563426</v>
-      </c>
-      <c r="AD38" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,6 +865,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8748,16 +8751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30486</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9135,9 +9138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10997,6 +11000,7 @@
         <f>INDEX(LINEST($N$3:$N$9,$O$3:$O$9),1)</f>
         <v>1.0602056822563426</v>
       </c>
+      <c r="AG35" s="102"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -286,6 +286,9 @@
   <si>
     <t>simulate vpot from throttle</t>
   </si>
+  <si>
+    <t>Model Ng from Model Throttle, rpm</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -690,22 +693,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,24 +906,37 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,10 +1094,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$J$4:$J$34</c:f>
+              <c:f>CalArduinoTurnigy!$J$4:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5.9340000000000002</c:v>
                 </c:pt>
@@ -1100,15 +1105,24 @@
                   <c:v>7.3968000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.3796</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.981099999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>53.526600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.419400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>88.904499999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>169.11679999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>241.61249999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1116,10 +1130,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Q$4:$Q$34</c:f>
+              <c:f>CalArduinoTurnigy!$Q$4:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>19.278606965174134</c:v>
                 </c:pt>
@@ -1127,19 +1141,28 @@
                   <c:v>27.958152958152958</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39.621676891615543</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>48.196517412935322</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>60.077519379844965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.943894389438952</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>72.975517890772139</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>89.699074074074076</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>99.974200206398365</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.74123336675764</c:v>
+                <c:pt idx="9">
+                  <c:v>124.21849373922875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144909672"/>
-        <c:axId val="144908496"/>
+        <c:axId val="155322768"/>
+        <c:axId val="155317672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144909672"/>
+        <c:axId val="155322768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144908496"/>
+        <c:crossAx val="155317672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144908496"/>
+        <c:axId val="155317672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144909672"/>
+        <c:crossAx val="155322768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1687,8 +1710,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202937800"/>
-        <c:axId val="202938192"/>
+        <c:axId val="207202696"/>
+        <c:axId val="207197600"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1856,11 +1879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202938976"/>
-        <c:axId val="202938584"/>
+        <c:axId val="207200736"/>
+        <c:axId val="207200344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202937800"/>
+        <c:axId val="207202696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1979,12 +2002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202938192"/>
+        <c:crossAx val="207197600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202938192"/>
+        <c:axId val="207197600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,12 +2119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202937800"/>
+        <c:crossAx val="207202696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202938584"/>
+        <c:axId val="207200344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,12 +2167,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202938976"/>
+        <c:crossAx val="207200736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202938976"/>
+        <c:axId val="207200736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202938584"/>
+        <c:crossAx val="207200344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2413,11 +2436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147239528"/>
-        <c:axId val="147238744"/>
+        <c:axId val="207201520"/>
+        <c:axId val="207201912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147239528"/>
+        <c:axId val="207201520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2447,12 +2470,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147238744"/>
+        <c:crossAx val="207201912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147238744"/>
+        <c:axId val="207201912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147239528"/>
+        <c:crossAx val="207201520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2616,11 +2639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147241096"/>
-        <c:axId val="147243056"/>
+        <c:axId val="207203480"/>
+        <c:axId val="154957400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147241096"/>
+        <c:axId val="207203480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,12 +2671,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147243056"/>
+        <c:crossAx val="154957400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147243056"/>
+        <c:axId val="154957400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,7 +2687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147241096"/>
+        <c:crossAx val="207203480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2863,11 +2886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147236392"/>
-        <c:axId val="147242664"/>
+        <c:axId val="154957792"/>
+        <c:axId val="154955832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147236392"/>
+        <c:axId val="154957792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2926,12 +2949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147242664"/>
+        <c:crossAx val="154955832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147242664"/>
+        <c:axId val="154955832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2988,7 +3011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147236392"/>
+        <c:crossAx val="154957792"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3251,11 +3274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147238352"/>
-        <c:axId val="147237568"/>
+        <c:axId val="154958184"/>
+        <c:axId val="154954656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147238352"/>
+        <c:axId val="154958184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,12 +3335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147237568"/>
+        <c:crossAx val="154954656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147237568"/>
+        <c:axId val="154954656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +3397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147238352"/>
+        <c:crossAx val="154958184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3640,11 +3663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147243840"/>
-        <c:axId val="147240704"/>
+        <c:axId val="154957008"/>
+        <c:axId val="154955048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147243840"/>
+        <c:axId val="154957008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147240704"/>
+        <c:crossAx val="154955048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147240704"/>
+        <c:axId val="154955048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147243840"/>
+        <c:crossAx val="154957008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4036,11 +4059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147237176"/>
-        <c:axId val="147237960"/>
+        <c:axId val="207503912"/>
+        <c:axId val="207503128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147237176"/>
+        <c:axId val="207503912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,12 +4175,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147237960"/>
+        <c:crossAx val="207503128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147237960"/>
+        <c:axId val="207503128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4270,7 +4293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147237176"/>
+        <c:crossAx val="207503912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4364,6 +4387,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4449,6 +4473,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4481,23 +4506,32 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$O$5:$O$9</c:f>
+              <c:f>CalArduinoTurnigy!$O$5:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6493.5064935064938</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9202.4539877300613</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11194.029850746268</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>13953.488372093025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14851.485148514852</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16949.152542372882</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>20833.333333333332</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>23219.81424148607</c:v>
                 </c:pt>
               </c:numCache>
@@ -4505,23 +4539,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$P$5:$P$9</c:f>
+              <c:f>CalArduinoTurnigy!$P$5:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4680.1872074882995</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6619.5939982347754</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>9433.962264150945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10526.315789473683</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>16120.365394948954</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>18181.818181818184</c:v>
                 </c:pt>
               </c:numCache>
@@ -4537,11 +4580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144912808"/>
-        <c:axId val="144905360"/>
+        <c:axId val="155323160"/>
+        <c:axId val="155316888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144912808"/>
+        <c:axId val="155323160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,12 +4641,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144905360"/>
+        <c:crossAx val="155316888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144905360"/>
+        <c:axId val="155316888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4660,7 +4703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144912808"/>
+        <c:crossAx val="155323160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4885,10 +4928,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$K$4:$K$9</c:f>
+              <c:f>CalArduinoTurnigy!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -4896,15 +4939,24 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
@@ -4912,10 +4964,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Q$4:$Q$9</c:f>
+              <c:f>CalArduinoTurnigy!$Q$4:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>19.278606965174134</c:v>
                 </c:pt>
@@ -4923,15 +4975,24 @@
                   <c:v>27.958152958152958</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39.621676891615543</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>48.196517412935322</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>60.077519379844965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.943894389438952</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>72.975517890772139</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>89.699074074074076</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>99.974200206398365</c:v>
                 </c:pt>
               </c:numCache>
@@ -4947,8 +5008,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144910848"/>
-        <c:axId val="144906928"/>
+        <c:axId val="155320808"/>
+        <c:axId val="155320416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4958,7 +5019,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoTurnigy!$Y$1</c:f>
+              <c:f>CalArduinoTurnigy!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5042,10 +5103,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$K$4:$K$9</c:f>
+              <c:f>CalArduinoTurnigy!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -5053,15 +5114,24 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
@@ -5069,10 +5139,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Y$4:$Y$9</c:f>
+              <c:f>CalArduinoTurnigy!$T$4:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.9340000000000002</c:v>
                 </c:pt>
@@ -5080,15 +5150,24 @@
                   <c:v>7.3968000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.3796</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.981099999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>53.526600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.419400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>88.904499999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>169.11679999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>241.61249999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -5104,11 +5183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144906536"/>
-        <c:axId val="144906144"/>
+        <c:axId val="155318064"/>
+        <c:axId val="155317280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144910848"/>
+        <c:axId val="155320808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -5228,13 +5307,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144906928"/>
+        <c:crossAx val="155320416"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144906928"/>
+        <c:axId val="155320416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,12 +5426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144910848"/>
+        <c:crossAx val="155320808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144906144"/>
+        <c:axId val="155317280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="320"/>
@@ -5453,13 +5532,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144906536"/>
+        <c:crossAx val="155318064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144906536"/>
+        <c:axId val="155318064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144906144"/>
+        <c:crossAx val="155317280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5618,7 +5697,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoTurnigy!$Y$1</c:f>
+              <c:f>CalArduinoTurnigy!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5651,10 +5730,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Q$4:$Q$9</c:f>
+              <c:f>CalArduinoTurnigy!$Q$4:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>19.278606965174134</c:v>
                 </c:pt>
@@ -5662,15 +5741,24 @@
                   <c:v>27.958152958152958</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>39.621676891615543</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>48.196517412935322</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>60.077519379844965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.943894389438952</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>72.975517890772139</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>89.699074074074076</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>99.974200206398365</c:v>
                 </c:pt>
               </c:numCache>
@@ -5678,10 +5766,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Y$4:$Y$9</c:f>
+              <c:f>CalArduinoTurnigy!$T$4:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.9340000000000002</c:v>
                 </c:pt>
@@ -5689,15 +5777,24 @@
                   <c:v>7.3968000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.3796</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.981099999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>53.526600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.419400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>88.904499999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>169.11679999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>241.61249999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -5713,11 +5810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144910456"/>
-        <c:axId val="144911632"/>
+        <c:axId val="155322376"/>
+        <c:axId val="155321592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144910456"/>
+        <c:axId val="155322376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5748,12 +5845,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144911632"/>
+        <c:crossAx val="155321592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144911632"/>
+        <c:axId val="155321592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144910456"/>
+        <c:crossAx val="155322376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5839,7 +5936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoTurnigy!$AC$1</c:f>
+              <c:f>CalArduinoTurnigy!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5860,23 +5957,32 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Q$5:$Q$9</c:f>
+              <c:f>CalArduinoTurnigy!$Q$5:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>27.958152958152958</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>39.621676891615543</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>48.196517412935322</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>60.077519379844965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.943894389438952</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>72.975517890772139</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>89.699074074074076</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>99.974200206398365</c:v>
                 </c:pt>
               </c:numCache>
@@ -5884,17 +5990,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$AC$5:$AC$9</c:f>
+              <c:f>CalArduinoTurnigy!$X$5:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>0.18</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -5910,11 +6022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202934272"/>
-        <c:axId val="202933880"/>
+        <c:axId val="155321984"/>
+        <c:axId val="155318456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202934272"/>
+        <c:axId val="155321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5943,12 +6055,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202933880"/>
+        <c:crossAx val="155318456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202933880"/>
+        <c:axId val="155318456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +6071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202934272"/>
+        <c:crossAx val="155321984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6034,17 +6146,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CalArduinoTurnigy!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calc Ng from Nf, %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -6085,10 +6186,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$R$4:$R$9</c:f>
+              <c:f>CalArduinoTurnigy!$R$4:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.2916666666666669E-3</c:v>
                 </c:pt>
@@ -6096,15 +6197,24 @@
                   <c:v>1.2916666666666669E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.150806032241292</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28.50102971462195</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>40.618448637316575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.321637426900587</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>53.81944444444445</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>69.407128783808005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>78.282828282828305</c:v>
                 </c:pt>
               </c:numCache>
@@ -6112,32 +6222,40 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$U$4:$U$9</c:f>
+              <c:f>CalArduinoTurnigy!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.174295736640588</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.174295736640588</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.683008238485534</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73.89776923059263</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.037303389321181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.227228725780549</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CalArduinoTurnigy!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6147,11 +6265,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202935056"/>
-        <c:axId val="202935448"/>
+        <c:axId val="155320024"/>
+        <c:axId val="207198384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202935056"/>
+        <c:axId val="155320024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6210,12 +6328,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202935448"/>
+        <c:crossAx val="207198384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202935448"/>
+        <c:axId val="207198384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +6353,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6272,7 +6390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202935056"/>
+        <c:crossAx val="155320024"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6402,8 +6520,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6102533193122855E-2"/>
-          <c:y val="0.16245370370370371"/>
+          <c:x val="0.15610305656237417"/>
+          <c:y val="0.15815811245118475"/>
           <c:w val="0.90339588801399828"/>
           <c:h val="0.6399037528149325"/>
         </c:manualLayout>
@@ -6501,7 +6619,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:backward val="55"/>
+            <c:backward val="40"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6543,10 +6661,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$K$4:$K$9</c:f>
+              <c:f>CalArduinoTurnigy!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -6554,15 +6672,24 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
@@ -6570,10 +6697,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$O$4:$O$9</c:f>
+              <c:f>CalArduinoTurnigy!$O$4:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4477.6119402985078</c:v>
                 </c:pt>
@@ -6581,15 +6708,24 @@
                   <c:v>6493.5064935064938</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9202.4539877300613</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>11194.029850746268</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>13953.488372093025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14851.485148514852</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16949.152542372882</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>20833.333333333332</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>23219.81424148607</c:v>
                 </c:pt>
               </c:numCache>
@@ -6602,11 +6738,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoTurnigy!$V$1</c:f>
+              <c:f>CalArduinoTurnigy!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Calc Ng from Throttle, rpm</c:v>
+                  <c:v>Model Ng from Model Throttle, rpm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6679,10 +6815,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$C$4:$C$9</c:f>
+              <c:f>CalArduinoTurnigy!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -6690,15 +6826,24 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
@@ -6706,27 +6851,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$V$4:$V$9</c:f>
+              <c:f>CalArduinoTurnigy!$AE$4:$AE$12</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7405.3255760457178</c:v>
+                  <c:v>6029.7812001120037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8322.9960747101359</c:v>
+                  <c:v>7067.8931684231793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11293.097255819957</c:v>
+                  <c:v>8674.0144389134366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16662.311836048742</c:v>
+                  <c:v>10427.811121209787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21192.984528970075</c:v>
+                  <c:v>12941.983270479002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23047.936347099792</c:v>
+                  <c:v>14179.208117527873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16501.718830217011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21627.02857251282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23725.437190686353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6741,11 +6895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202935840"/>
-        <c:axId val="202933096"/>
+        <c:axId val="207202304"/>
+        <c:axId val="207197992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202935840"/>
+        <c:axId val="207202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,12 +7006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202933096"/>
+        <c:crossAx val="207197992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202933096"/>
+        <c:axId val="207197992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10000"/>
@@ -6909,7 +7063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202935840"/>
+        <c:crossAx val="207202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7202,11 +7356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202933488"/>
-        <c:axId val="202936232"/>
+        <c:axId val="207203872"/>
+        <c:axId val="207196424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202933488"/>
+        <c:axId val="207203872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7318,12 +7472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202936232"/>
+        <c:crossAx val="207196424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202936232"/>
+        <c:axId val="207196424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7435,7 +7589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202933488"/>
+        <c:crossAx val="207203872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7714,11 +7868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202932704"/>
-        <c:axId val="202937408"/>
+        <c:axId val="207197208"/>
+        <c:axId val="207199168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202932704"/>
+        <c:axId val="207197208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7775,12 +7929,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202937408"/>
+        <c:crossAx val="207199168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202937408"/>
+        <c:axId val="207199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7837,7 +7991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202932704"/>
+        <c:crossAx val="207197208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14550,13 +14704,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14582,13 +14736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14614,13 +14768,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14646,13 +14800,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>272415</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>146691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14676,15 +14830,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>634365</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>510541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14710,13 +14864,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14741,15 +14895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137166</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15342,11 +15496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15365,24 +15519,20 @@
     <col min="15" max="15" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="6.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.109375" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.6640625" customWidth="1"/>
-    <col min="32" max="32" width="7.88671875" customWidth="1"/>
-    <col min="33" max="36" width="10" customWidth="1"/>
-    <col min="37" max="38" width="11.5546875" customWidth="1"/>
-    <col min="39" max="39" width="8.6640625" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" customWidth="1"/>
+    <col min="28" max="32" width="10" customWidth="1"/>
+    <col min="33" max="34" width="11.5546875" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -15438,85 +15588,73 @@
         <v>73</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="4" t="str">
+      <c r="T1" s="4" t="str">
         <f>J1</f>
         <v>Charger Pwr, W</v>
       </c>
+      <c r="U1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="Z1" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AB1" s="4"/>
       <c r="AC1" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AH1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM1" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B2" s="110">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B2" s="113">
         <f t="shared" ref="B2" si="0">C2/180+1</f>
         <v>1.0000055555555556</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="110">
         <v>1E-3</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K10" si="1">C2</f>
+        <f t="shared" ref="K2:K13" si="1">C2</f>
         <v>1E-3</v>
       </c>
       <c r="L2" s="1">
@@ -15532,98 +15670,82 @@
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q3" si="3">O2/$AB$24*100</f>
+        <f>O2/$W$27*100</f>
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" ref="R2:R3" si="4">P2/$AB$24*100</f>
+        <f>P2/$W$27*100</f>
         <v>0</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S3" si="5">P2*$AE$35+$AE$36</f>
-        <v>4220.8161308545332</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2:T3" si="6">K2</f>
+        <f>K2</f>
         <v>1E-3</v>
       </c>
-      <c r="U2" s="3">
-        <f t="shared" ref="U2:U3" si="7">S2/$AB$24*100</f>
-        <v>18.172958341179239</v>
-      </c>
-      <c r="V2" s="3">
-        <f>MAX($AB$38*LN(C2)+$AB$39,0)</f>
+      <c r="T2" s="4">
+        <f>J2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="3">
-        <f t="shared" ref="W2:W3" si="8">D2*D2*$AB$35+D2*$AB$36+$AB$37</f>
+      <c r="U2">
+        <f t="shared" ref="U2:U3" si="3">T2*0.001341022</f>
         <v>0</v>
       </c>
-      <c r="X2" s="3">
-        <f t="shared" ref="X2:X3" si="9">W2/$AB$24*100</f>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="95">
+        <f>C2/$AD$24*$AD$19</f>
+        <v>2.7777777777777779E-5</v>
+      </c>
+      <c r="AD2" s="95">
+        <f>AC2/$AD$19*$AD$24</f>
+        <v>1E-3</v>
+      </c>
+      <c r="AE2" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD2)),0)</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y3" si="10">J2</f>
+      <c r="AF2" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD2))/$AD$23,0)</f>
         <v>0</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:Z3" si="11">Y2*0.001341022</f>
+      <c r="AG2" s="96">
+        <f>($AD$28+$AE$28*AF2*$AD$23)/$AD$23</f>
+        <v>-22.00681542170738</v>
+      </c>
+      <c r="AH2" s="96">
+        <f>($AD$29+$AE$29*AG2*$AD$23)/$AD$23</f>
+        <v>0.5898040793543039</v>
+      </c>
+      <c r="AI2">
+        <f>MAX(($AD$28+$AE$28*AF2*$AD$23)/$AD$23, 0)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="95">
-        <f t="shared" ref="AH2:AH10" si="12">C2/$AI$21*$AI$16</f>
-        <v>2.7777777777777779E-5</v>
-      </c>
-      <c r="AI2" s="95">
-        <f t="shared" ref="AI2:AI10" si="13">AH2/$AI$16*$AI$21</f>
-        <v>1E-3</v>
-      </c>
-      <c r="AJ2" s="96">
-        <f t="shared" ref="AJ2:AJ10" si="14">MAX(($AI$24+$AJ$24*LN(AI2))/$AI$20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="96">
-        <f t="shared" ref="AK2:AK10" si="15">($AI$25+$AJ$25*AJ2*$AI$20)/$AI$20</f>
-        <v>-17.464104311969095</v>
-      </c>
-      <c r="AL2" s="96">
-        <f t="shared" ref="AL2:AL10" si="16">($AI$26+$AJ$26*AK2*$AI$20)/$AI$20</f>
-        <v>9.0573430237926189E-2</v>
-      </c>
-      <c r="AM2">
-        <f t="shared" ref="AM2:AM10" si="17">MAX(($AI$25+$AJ$25*AJ2*$AI$20)/$AI$20, 0)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B3" s="110">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B3" s="113">
         <f>C3/180+1</f>
-        <v>1.1735748344058337</v>
+        <v>1.1980207165048649</v>
       </c>
       <c r="C3" s="111">
-        <f>EXP((0-$AI$24)/$AJ$24)</f>
-        <v>31.243470193050076</v>
-      </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
+        <f>EXP((0-$AD$27)/$AE$27)</f>
+        <v>35.643728970875671</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="4"/>
       <c r="K3" s="1">
         <f>C3</f>
-        <v>31.243470193050076</v>
+        <v>35.643728970875671</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="2"/>
-        <v>3.4418104005261214</v>
+        <v>3.5735732259418449</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
@@ -15634,99 +15756,83 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
+        <f>O3/$W$27*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f>P3/$W$27*100</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f>K3</f>
+        <v>35.643728970875671</v>
+      </c>
+      <c r="T3" s="4">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <f t="shared" si="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="95">
+        <f>C3/$AD$24*$AD$19</f>
+        <v>0.99010358252432418</v>
+      </c>
+      <c r="AD3" s="95">
+        <f>AC3/$AD$19*$AD$24</f>
+        <v>35.643728970875671</v>
+      </c>
+      <c r="AE3" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD3)),0)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="3">
-        <f t="shared" si="5"/>
-        <v>4220.8161308545332</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" si="6"/>
-        <v>31.243470193050076</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" si="7"/>
-        <v>18.172958341179239</v>
-      </c>
-      <c r="V3" s="3">
-        <f>MAX($AB$38*LN(C3)+$AB$39,0)</f>
+      <c r="AF3" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD3))/$AD$23,0)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="3">
-        <f t="shared" si="8"/>
+      <c r="AG3" s="96">
+        <f>($AD$28+$AE$28*AF3*$AD$23)/$AD$23</f>
+        <v>-22.00681542170738</v>
+      </c>
+      <c r="AH3" s="96">
+        <f>($AD$29+$AE$29*AG3*$AD$23)/$AD$23</f>
+        <v>0.5898040793543039</v>
+      </c>
+      <c r="AI3">
+        <f>MAX(($AD$28+$AE$28*AF3*$AD$23)/$AD$23, 0)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="95">
-        <f t="shared" si="12"/>
-        <v>0.86787417202916883</v>
-      </c>
-      <c r="AI3" s="95">
-        <f t="shared" si="13"/>
-        <v>31.243470193050079</v>
-      </c>
-      <c r="AJ3" s="96">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="96">
-        <f t="shared" si="15"/>
-        <v>-17.464104311969095</v>
-      </c>
-      <c r="AL3" s="96">
-        <f t="shared" si="16"/>
-        <v>9.0573430237926189E-2</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B4" s="98">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B4" s="77">
         <f>C4/180+1</f>
         <v>1.2777777777777777</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="109">
         <v>50</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="109">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="109">
         <v>13.8</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="112">
         <v>0.43</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="109">
         <v>6700</v>
       </c>
       <c r="H4" s="105">
         <v>100000000</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="115">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -15742,114 +15848,98 @@
         <v>3.912023005428146</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:N9" si="18">1/G4/0.000001</f>
+        <f t="shared" ref="M4:N12" si="4">1/G4/0.000001</f>
         <v>149.25373134328359</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:P9" si="19">M4*60/$AB$16</f>
+        <f>M4*60/$W$19</f>
         <v>4477.6119402985078</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="19"/>
+        <f>N4*60/$W$19</f>
         <v>0.3</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4:R10" si="20">O4/$AB$24*100</f>
+        <f>O4/$W$27*100</f>
         <v>19.278606965174134</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" si="20"/>
+        <f>P4/$W$27*100</f>
         <v>1.2916666666666669E-3</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S10" si="21">P4*$AE$35+$AE$36</f>
-        <v>4221.1267517358783</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:T10" si="22">K4</f>
+        <f>K4</f>
         <v>50</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4:U9" si="23">S4/$AB$24*100</f>
-        <v>18.174295736640588</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" ref="V4:V9" si="24">MAX($AB$38*LN(C4)+$AB$39,0)</f>
-        <v>7405.3255760457178</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" ref="W4:W10" si="25">D4*D4*$AB$35+D4*$AB$36+$AB$37</f>
-        <v>22.949927272213092</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" ref="X4:X10" si="26">W4/$AB$24*100</f>
-        <v>9.8812186866473042E-2</v>
-      </c>
-      <c r="Y4" s="4">
-        <f t="shared" ref="Y4:Y10" si="27">J4</f>
+      <c r="T4" s="4">
+        <f>J4</f>
         <v>5.9340000000000002</v>
       </c>
-      <c r="Z4">
-        <f>Y4*0.001341022</f>
+      <c r="U4">
+        <f>T4*0.001341022</f>
         <v>7.9576245480000012E-3</v>
       </c>
-      <c r="AA4">
-        <f>Z4/O4*5252</f>
+      <c r="V4">
+        <f>U4/O4*5252</f>
         <v>9.3338691881614411E-3</v>
       </c>
-      <c r="AB4">
-        <f>-AA4/2/O4</f>
+      <c r="W4">
+        <f>-V4/2/O4</f>
         <v>-1.0422820593446941E-6</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="95">
-        <f t="shared" si="12"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="95">
+        <f>C4/$AD$24*$AD$19</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="AI4" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD4" s="95">
+        <f>AC4/$AD$19*$AD$24</f>
         <v>50</v>
       </c>
-      <c r="AJ4" s="96">
-        <f t="shared" si="14"/>
-        <v>31.884040674641287</v>
-      </c>
-      <c r="AK4" s="96">
-        <f t="shared" si="15"/>
-        <v>13.293853099380838</v>
-      </c>
-      <c r="AL4" s="96">
-        <f t="shared" si="16"/>
-        <v>31.93745289517512</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="17"/>
-        <v>13.293853099380838</v>
+      <c r="AE4" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD4)),0)</f>
+        <v>6029.7812001120037</v>
+      </c>
+      <c r="AF4" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD4))/$AD$23,0)</f>
+        <v>25.961557944926682</v>
+      </c>
+      <c r="AG4" s="96">
+        <f>($AD$28+$AE$28*AF4*$AD$23)/$AD$23</f>
+        <v>4.5737734221623825</v>
+      </c>
+      <c r="AH4" s="96">
+        <f>($AD$29+$AE$29*AG4*$AD$23)/$AD$23</f>
+        <v>26.287218935999956</v>
+      </c>
+      <c r="AI4">
+        <f>MAX(($AD$28+$AE$28*AF4*$AD$23)/$AD$23, 0)</f>
+        <v>4.5737734221623825</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98">
-        <f t="shared" ref="B5:B10" si="28">C5/180+1</f>
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="77">
+        <f t="shared" ref="B5:B13" si="5">C5/180+1</f>
         <v>1.2944444444444445</v>
       </c>
       <c r="C5" s="73">
         <v>53</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="109">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E5" s="73">
         <v>13.8</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="106">
         <v>0.53600000000000003</v>
       </c>
       <c r="G5" s="73">
@@ -15870,886 +15960,1050 @@
         <v>53</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L10" si="29">LN(K5)</f>
+        <f t="shared" ref="L5:L13" si="6">LN(K5)</f>
         <v>3.970291913552122</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>216.45021645021646</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="19"/>
+        <f>M5*60/$W$19</f>
         <v>6493.5064935064938</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="19"/>
+        <f>N5*60/$W$19</f>
         <v>0.3</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="20"/>
+        <f>O5/$W$27*100</f>
         <v>27.958152958152958</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="20"/>
+        <f>P5/$W$27*100</f>
         <v>1.2916666666666669E-3</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="21"/>
-        <v>4221.1267517358783</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="22"/>
+        <f>K5</f>
         <v>53</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="23"/>
-        <v>18.174295736640588</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="24"/>
-        <v>8322.9960747101359</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="25"/>
-        <v>22.949927272213092</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="26"/>
-        <v>9.8812186866473042E-2</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" si="27"/>
+      <c r="T5" s="4">
+        <f>J5</f>
         <v>7.3968000000000007</v>
       </c>
-      <c r="Z5">
-        <f>Y5*0.001341022</f>
+      <c r="U5">
+        <f>T5*0.001341022</f>
         <v>9.9192715296000013E-3</v>
       </c>
-      <c r="AA5">
-        <f>Z5/O5*5252</f>
+      <c r="V5">
+        <f>U5/O5*5252</f>
         <v>8.022786167312718E-3</v>
       </c>
-      <c r="AB5">
-        <f>-AA5/2/O5</f>
+      <c r="W5">
+        <f>-V5/2/O5</f>
         <v>-6.1775453488307925E-7</v>
       </c>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="95">
-        <f t="shared" si="12"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="95">
+        <f>C5/$AD$24*$AD$19</f>
         <v>1.4722222222222223</v>
       </c>
-      <c r="AI5" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD5" s="95">
+        <f>AC5/$AD$19*$AD$24</f>
         <v>53</v>
       </c>
-      <c r="AJ5" s="96">
-        <f t="shared" si="14"/>
-        <v>35.83512198833531</v>
-      </c>
-      <c r="AK5" s="96">
-        <f t="shared" si="15"/>
-        <v>17.105389786825761</v>
-      </c>
-      <c r="AL5" s="96">
-        <f t="shared" si="16"/>
-        <v>35.883929178949813</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="17"/>
-        <v>17.105389786825761</v>
+      <c r="AE5" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD5)),0)</f>
+        <v>7067.8931684231793</v>
+      </c>
+      <c r="AF5" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD5))/$AD$23,0)</f>
+        <v>30.431206697377579</v>
+      </c>
+      <c r="AG5" s="96">
+        <f>($AD$28+$AE$28*AF5*$AD$23)/$AD$23</f>
+        <v>9.1499970839873175</v>
+      </c>
+      <c r="AH5" s="96">
+        <f>($AD$29+$AE$29*AG5*$AD$23)/$AD$23</f>
+        <v>30.711391726356883</v>
+      </c>
+      <c r="AI5">
+        <f>MAX(($AD$28+$AE$28*AF5*$AD$23)/$AD$23, 0)</f>
+        <v>9.1499970839873175</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98">
-        <f t="shared" si="28"/>
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="77">
+        <f t="shared" si="5"/>
+        <v>1.3222222222222222</v>
+      </c>
+      <c r="C6" s="73">
+        <v>58</v>
+      </c>
+      <c r="D6" s="109">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E6" s="73">
+        <v>13.77</v>
+      </c>
+      <c r="F6" s="106">
+        <v>1.48</v>
+      </c>
+      <c r="G6" s="73">
+        <v>3260</v>
+      </c>
+      <c r="H6" s="105">
+        <v>6410</v>
+      </c>
+      <c r="I6" s="78">
+        <v>4.08</v>
+      </c>
+      <c r="J6" s="2">
+        <f>E6*F6</f>
+        <v>20.3796</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6" si="7">C6</f>
+        <v>58</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6" si="8">LN(K6)</f>
+        <v>4.0604430105464191</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" ref="M6" si="9">1/G6/0.000001</f>
+        <v>306.74846625766872</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6" si="10">1/H6/0.000001</f>
+        <v>156.00624024960999</v>
+      </c>
+      <c r="O6" s="3">
+        <f>M6*60/$W$19</f>
+        <v>9202.4539877300613</v>
+      </c>
+      <c r="P6" s="3">
+        <f>N6*60/$W$19</f>
+        <v>4680.1872074882995</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>O6/$W$27*100</f>
+        <v>39.621676891615543</v>
+      </c>
+      <c r="R6" s="3">
+        <f>P6/$W$27*100</f>
+        <v>20.150806032241292</v>
+      </c>
+      <c r="S6" s="3">
+        <f>K6</f>
+        <v>58</v>
+      </c>
+      <c r="T6" s="4">
+        <f>J6</f>
+        <v>20.3796</v>
+      </c>
+      <c r="U6">
+        <f>T6*0.001341022</f>
+        <v>2.7329491951200002E-2</v>
+      </c>
+      <c r="V6">
+        <f>U6/O6*5252</f>
+        <v>1.5597414767743662E-2</v>
+      </c>
+      <c r="W6">
+        <f>-V6/2/O6</f>
+        <v>-8.4745953571407239E-7</v>
+      </c>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="95">
+        <f>C6/$AD$24*$AD$19</f>
+        <v>1.6111111111111112</v>
+      </c>
+      <c r="AD6" s="95">
+        <f>AC6/$AD$19*$AD$24</f>
+        <v>58.000000000000007</v>
+      </c>
+      <c r="AE6" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD6)),0)</f>
+        <v>8674.0144389134366</v>
+      </c>
+      <c r="AF6" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD6))/$AD$23,0)</f>
+        <v>37.346451056432855</v>
+      </c>
+      <c r="AG6" s="96">
+        <f>($AD$28+$AE$28*AF6*$AD$23)/$AD$23</f>
+        <v>16.230129464827645</v>
+      </c>
+      <c r="AH6" s="96">
+        <f>($AD$29+$AE$29*AG6*$AD$23)/$AD$23</f>
+        <v>37.556277672981992</v>
+      </c>
+      <c r="AI6">
+        <f>MAX(($AD$28+$AE$28*AF6*$AD$23)/$AD$23, 0)</f>
+        <v>16.230129464827645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77">
+        <f t="shared" si="5"/>
         <v>1.3555555555555556</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C7" s="73">
         <v>64</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D7" s="73">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E7" s="73">
         <v>13.69</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F7" s="73">
         <v>2.19</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G7" s="73">
         <v>2680</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H7" s="73">
         <v>4532</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I7" s="78">
         <v>6.04</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ref="J6:J9" si="30">E6*F6</f>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J12" si="11">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="29"/>
+      <c r="L7" s="1">
+        <f t="shared" si="6"/>
         <v>4.1588830833596715</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
+        <f t="shared" si="4"/>
+        <v>373.13432835820896</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="4"/>
+        <v>220.65313327449252</v>
+      </c>
+      <c r="O7" s="3">
+        <f>M7*60/$W$19</f>
+        <v>11194.029850746268</v>
+      </c>
+      <c r="P7" s="3">
+        <f>N7*60/$W$19</f>
+        <v>6619.5939982347754</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>O7/$W$27*100</f>
+        <v>48.196517412935322</v>
+      </c>
+      <c r="R7" s="3">
+        <f>P7/$W$27*100</f>
+        <v>28.50102971462195</v>
+      </c>
+      <c r="S7" s="3">
+        <f>K7</f>
+        <v>64</v>
+      </c>
+      <c r="T7" s="4">
+        <f>J7</f>
+        <v>29.981099999999998</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U12" si="12">T7*0.001341022</f>
+        <v>4.0205314684200001E-2</v>
+      </c>
+      <c r="V7">
+        <f>U7/O7*5252</f>
+        <v>1.8863475936446713E-2</v>
+      </c>
+      <c r="W7">
+        <f>-V7/2/O7</f>
+        <v>-8.4256859182795319E-7</v>
+      </c>
+      <c r="X7">
+        <v>0.18</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y11" si="13">-X7*W7</f>
+        <v>1.5166234652903156E-7</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:Z11" si="14">Y7/6.66*2048.5</f>
+        <v>4.6648696225934108E-5</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA11" si="15">Z7*144</f>
+        <v>6.7174122565345114E-3</v>
+      </c>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="95">
+        <f>C7/$AD$24*$AD$19</f>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="AD7" s="95">
+        <f>AC7/$AD$19*$AD$24</f>
+        <v>64</v>
+      </c>
+      <c r="AE7" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD7)),0)</f>
+        <v>10427.811121209787</v>
+      </c>
+      <c r="AF7" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD7))/$AD$23,0)</f>
+        <v>44.897520105208805</v>
+      </c>
+      <c r="AG7" s="96">
+        <f>($AD$28+$AE$28*AF7*$AD$23)/$AD$23</f>
+        <v>23.961247225285735</v>
+      </c>
+      <c r="AH7" s="96">
+        <f>($AD$29+$AE$29*AG7*$AD$23)/$AD$23</f>
+        <v>45.030519179181418</v>
+      </c>
+      <c r="AI7">
+        <f>MAX(($AD$28+$AE$28*AF7*$AD$23)/$AD$23, 0)</f>
+        <v>23.961247225285735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="77">
+        <f t="shared" ref="B8:B9" si="16">C8/180+1</f>
+        <v>1.4094444444444445</v>
+      </c>
+      <c r="C8" s="73">
+        <v>73.7</v>
+      </c>
+      <c r="D8" s="73">
+        <v>1.375</v>
+      </c>
+      <c r="E8" s="73">
+        <v>13.62</v>
+      </c>
+      <c r="F8" s="73">
+        <v>3.93</v>
+      </c>
+      <c r="G8" s="73">
+        <v>2150</v>
+      </c>
+      <c r="H8" s="73">
+        <v>3180</v>
+      </c>
+      <c r="I8" s="78">
+        <v>8.24</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J9" si="17">E8*F8</f>
+        <v>53.526600000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K9" si="18">C8</f>
+        <v>73.7</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L9" si="19">LN(K8)</f>
+        <v>4.3000027991952914</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:M9" si="20">1/G8/0.000001</f>
+        <v>465.11627906976747</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N9" si="21">1/H8/0.000001</f>
+        <v>314.46540880503147</v>
+      </c>
+      <c r="O8" s="3">
+        <f>M8*60/$W$19</f>
+        <v>13953.488372093025</v>
+      </c>
+      <c r="P8" s="3">
+        <f>N8*60/$W$19</f>
+        <v>9433.962264150945</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>O8/$W$27*100</f>
+        <v>60.077519379844965</v>
+      </c>
+      <c r="R8" s="3">
+        <f>P8/$W$27*100</f>
+        <v>40.618448637316575</v>
+      </c>
+      <c r="S8" s="3">
+        <f>K8</f>
+        <v>73.7</v>
+      </c>
+      <c r="T8" s="4">
+        <f>J8</f>
+        <v>53.526600000000002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U9" si="22">T8*0.001341022</f>
+        <v>7.1780348185200002E-2</v>
+      </c>
+      <c r="V8">
+        <f>U8/O8*5252</f>
+        <v>2.7017644521254706E-2</v>
+      </c>
+      <c r="W8">
+        <f>-V8/2/O8</f>
+        <v>-9.6813226201162682E-7</v>
+      </c>
+      <c r="X8">
+        <v>0.18</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:Y9" si="23">-X8*W8</f>
+        <v>1.7426380716209282E-7</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z9" si="24">Y8/6.66*2048.5</f>
+        <v>5.3600511857589661E-5</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA9" si="25">Z8*144</f>
+        <v>7.7184737074929115E-3</v>
+      </c>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="95">
+        <f>C8/$AD$24*$AD$19</f>
+        <v>2.0472222222222221</v>
+      </c>
+      <c r="AD8" s="95">
+        <f>AC8/$AD$19*$AD$24</f>
+        <v>73.699999999999989</v>
+      </c>
+      <c r="AE8" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD8)),0)</f>
+        <v>12941.983270479002</v>
+      </c>
+      <c r="AF8" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD8))/$AD$23,0)</f>
+        <v>55.722427970117927</v>
+      </c>
+      <c r="AG8" s="96">
+        <f>($AD$28+$AE$28*AF8*$AD$23)/$AD$23</f>
+        <v>35.044265657396004</v>
+      </c>
+      <c r="AH8" s="96">
+        <f>($AD$29+$AE$29*AG8*$AD$23)/$AD$23</f>
+        <v>55.745290179428544</v>
+      </c>
+      <c r="AI8">
+        <f>MAX(($AD$28+$AE$28*AF8*$AD$23)/$AD$23, 0)</f>
+        <v>35.044265657396004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="77">
+        <f t="shared" si="16"/>
+        <v>1.4388888888888889</v>
+      </c>
+      <c r="C9" s="73">
+        <v>79</v>
+      </c>
+      <c r="D9" s="73">
+        <v>1.49</v>
+      </c>
+      <c r="E9" s="73">
+        <v>13.54</v>
+      </c>
+      <c r="F9" s="73">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G9" s="73">
+        <v>2020</v>
+      </c>
+      <c r="H9" s="73">
+        <v>2850</v>
+      </c>
+      <c r="I9" s="78">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="17"/>
+        <v>62.419400000000003</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="18"/>
-        <v>373.13432835820896</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="18"/>
-        <v>220.65313327449252</v>
-      </c>
-      <c r="O6" s="3">
+        <v>79</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="19"/>
-        <v>11194.029850746268</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="19"/>
-        <v>6619.5939982347754</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>4.3694478524670215</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="20"/>
-        <v>48.196517412935322</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="20"/>
-        <v>28.50102971462195</v>
-      </c>
-      <c r="S6" s="3">
+        <v>495.04950495049508</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="21"/>
-        <v>11074.763203777286</v>
-      </c>
-      <c r="T6" s="3">
+        <v>350.87719298245611</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M9*60/$W$19</f>
+        <v>14851.485148514852</v>
+      </c>
+      <c r="P9" s="3">
+        <f>N9*60/$W$19</f>
+        <v>10526.315789473683</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>O9/$W$27*100</f>
+        <v>63.943894389438952</v>
+      </c>
+      <c r="R9" s="3">
+        <f>P9/$W$27*100</f>
+        <v>45.321637426900587</v>
+      </c>
+      <c r="S9" s="3">
+        <f>K9</f>
+        <v>79</v>
+      </c>
+      <c r="T9" s="4">
+        <f>J9</f>
+        <v>62.419400000000003</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="22"/>
-        <v>64</v>
-      </c>
-      <c r="U6" s="3">
+        <v>8.3705788626800004E-2</v>
+      </c>
+      <c r="V9">
+        <f>U9/O9*5252</f>
+        <v>2.9601268659108879E-2</v>
+      </c>
+      <c r="W9">
+        <f>-V9/2/O9</f>
+        <v>-9.9657604485666545E-7</v>
+      </c>
+      <c r="X9">
+        <v>0.18</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="23"/>
-        <v>47.683008238485534</v>
-      </c>
-      <c r="V6" s="3">
+        <v>1.7938368807419976E-7</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="24"/>
-        <v>11293.097255819957</v>
-      </c>
-      <c r="W6" s="3">
+        <v>5.5175298051050779E-5</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="25"/>
-        <v>7115.8960653612357</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="26"/>
-        <v>30.637885836971989</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="27"/>
-        <v>29.981099999999998</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ref="Z6:Z9" si="31">Y6*0.001341022</f>
-        <v>4.0205314684200001E-2</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ref="AA6:AA9" si="32">Z6/O6*5252</f>
-        <v>1.8863475936446713E-2</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB9" si="33">-AA6/2/O6</f>
-        <v>-8.4256859182795319E-7</v>
-      </c>
-      <c r="AC6">
-        <v>0.18</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ref="AD6:AD8" si="34">-AC6*AB6</f>
-        <v>1.5166234652903156E-7</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ref="AE6:AE8" si="35">AD6/6.66*2048.5</f>
-        <v>4.6648696225934108E-5</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" ref="AF6:AF8" si="36">AE6*144</f>
-        <v>6.7174122565345114E-3</v>
-      </c>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="95">
-        <f t="shared" si="12"/>
-        <v>1.7777777777777779</v>
-      </c>
-      <c r="AI6" s="95">
-        <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="AJ6" s="96">
-        <f t="shared" si="14"/>
-        <v>48.623057629224817</v>
-      </c>
-      <c r="AK6" s="96">
-        <f t="shared" si="15"/>
-        <v>29.441680027930484</v>
-      </c>
-      <c r="AL6" s="96">
-        <f t="shared" si="16"/>
-        <v>48.65696033634292</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="17"/>
-        <v>29.441680027930484</v>
+        <v>7.945242919351312E-3</v>
+      </c>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="95">
+        <f>C9/$AD$24*$AD$19</f>
+        <v>2.1944444444444446</v>
+      </c>
+      <c r="AD9" s="95">
+        <f>AC9/$AD$19*$AD$24</f>
+        <v>79.000000000000014</v>
+      </c>
+      <c r="AE9" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD9)),0)</f>
+        <v>14179.208117527873</v>
+      </c>
+      <c r="AF9" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD9))/$AD$23,0)</f>
+        <v>61.049368283800568</v>
+      </c>
+      <c r="AG9" s="96">
+        <f>($AD$28+$AE$28*AF9*$AD$23)/$AD$23</f>
+        <v>40.4982222563875</v>
+      </c>
+      <c r="AH9" s="96">
+        <f>($AD$29+$AE$29*AG9*$AD$23)/$AD$23</f>
+        <v>61.018032109927496</v>
+      </c>
+      <c r="AI9">
+        <f>MAX(($AD$28+$AE$28*AF9*$AD$23)/$AD$23, 0)</f>
+        <v>40.4982222563875</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98">
-        <f t="shared" si="28"/>
+    <row r="10" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="77">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C10" s="73">
         <v>90</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D10" s="73">
         <v>1.81</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E10" s="73">
         <v>13.45</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F10" s="73">
         <v>6.61</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G10" s="73">
         <v>1770</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H10" s="73">
         <v>2400</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I10" s="78">
         <v>10.8</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="30"/>
+      <c r="J10" s="2">
+        <f t="shared" si="11"/>
         <v>88.904499999999999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="29"/>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
         <v>4.499809670330265</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="18"/>
+      <c r="M10" s="3">
+        <f t="shared" si="4"/>
         <v>564.9717514124294</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" si="18"/>
+      <c r="N10" s="3">
+        <f t="shared" si="4"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="19"/>
+      <c r="O10" s="3">
+        <f>M10*60/$W$19</f>
         <v>16949.152542372882</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" si="19"/>
+      <c r="P10" s="3">
+        <f>N10*60/$W$19</f>
         <v>12500</v>
       </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="20"/>
+      <c r="Q10" s="3">
+        <f>O10/$W$27*100</f>
         <v>72.975517890772139</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="20"/>
+      <c r="R10" s="3">
+        <f>P10/$W$27*100</f>
         <v>53.81944444444445</v>
       </c>
-      <c r="S7" s="3">
-        <f t="shared" si="21"/>
-        <v>17163.352853556997</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="22"/>
+      <c r="S10" s="3">
+        <f>K10</f>
         <v>90</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="23"/>
-        <v>73.89776923059263</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="24"/>
-        <v>16662.311836048742</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="25"/>
-        <v>12405.622415013229</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="26"/>
-        <v>53.413096509084745</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="27"/>
+      <c r="T10" s="4">
+        <f>J10</f>
         <v>88.904499999999999</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="31"/>
+      <c r="U10">
+        <f t="shared" si="12"/>
         <v>0.11922289039900001</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="32"/>
+      <c r="V10">
+        <f>U10/O10*5252</f>
         <v>3.6943358602157333E-2</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="33"/>
+      <c r="W10">
+        <f>-V10/2/O10</f>
         <v>-1.0898290787636412E-6</v>
       </c>
-      <c r="AC7">
+      <c r="X10">
         <v>0.18</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="34"/>
+      <c r="Y10">
+        <f t="shared" si="13"/>
         <v>1.961692341774554E-7</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="35"/>
+      <c r="Z10">
+        <f t="shared" si="14"/>
         <v>6.0338239671549158E-5</v>
       </c>
-      <c r="AF7">
-        <f t="shared" si="36"/>
+      <c r="AA10">
+        <f t="shared" si="15"/>
         <v>8.6887065127030788E-3</v>
       </c>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="95">
-        <f t="shared" si="12"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="95">
+        <f>C10/$AD$24*$AD$19</f>
         <v>2.5</v>
       </c>
-      <c r="AI7" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD10" s="95">
+        <f>AC10/$AD$19*$AD$24</f>
         <v>90</v>
       </c>
-      <c r="AJ7" s="96">
-        <f t="shared" si="14"/>
-        <v>71.740509294098757</v>
-      </c>
-      <c r="AK7" s="96">
-        <f t="shared" si="15"/>
-        <v>51.742667566585126</v>
-      </c>
-      <c r="AL7" s="96">
-        <f t="shared" si="16"/>
-        <v>71.747468350068345</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" si="17"/>
-        <v>51.742667566585126</v>
+      <c r="AE10" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD10)),0)</f>
+        <v>16501.718830217011</v>
+      </c>
+      <c r="AF10" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD10))/$AD$23,0)</f>
+        <v>71.049067185656583</v>
+      </c>
+      <c r="AG10" s="96">
+        <f>($AD$28+$AE$28*AF10*$AD$23)/$AD$23</f>
+        <v>50.736355331319999</v>
+      </c>
+      <c r="AH10" s="96">
+        <f>($AD$29+$AE$29*AG10*$AD$23)/$AD$23</f>
+        <v>70.915990147255272</v>
+      </c>
+      <c r="AI10">
+        <f>MAX(($AD$28+$AE$28*AF10*$AD$23)/$AD$23, 0)</f>
+        <v>50.736355331319999</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98">
-        <f t="shared" si="28"/>
+    <row r="11" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="77">
+        <f t="shared" si="5"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C11" s="73">
         <v>120</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D11" s="73">
         <v>2.35</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E11" s="73">
         <v>13.12</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F11" s="73">
         <v>12.89</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G11" s="73">
         <v>1440</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H11" s="73">
         <v>1861</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I11" s="78">
         <v>14.4</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="30"/>
+      <c r="J11" s="2">
+        <f t="shared" si="11"/>
         <v>169.11679999999998</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="29"/>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
         <v>4.7874917427820458</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="18"/>
+      <c r="M11" s="3">
+        <f t="shared" si="4"/>
         <v>694.44444444444446</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" si="18"/>
+      <c r="N11" s="3">
+        <f t="shared" si="4"/>
         <v>537.34551316496515</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="19"/>
+      <c r="O11" s="3">
+        <f>M11*60/$W$19</f>
         <v>20833.333333333332</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="19"/>
+      <c r="P11" s="3">
+        <f>N11*60/$W$19</f>
         <v>16120.365394948954</v>
       </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="20"/>
+      <c r="Q11" s="3">
+        <f>O11/$W$27*100</f>
         <v>89.699074074074076</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" si="20"/>
+      <c r="R11" s="3">
+        <f>P11/$W$27*100</f>
         <v>69.407128783808005</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" si="21"/>
-        <v>20911.889819455238</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="22"/>
+      <c r="S11" s="3">
+        <f>K11</f>
         <v>120</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="23"/>
-        <v>90.037303389321181</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="24"/>
-        <v>21192.984528970075</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="25"/>
-        <v>15547.712649536703</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="26"/>
-        <v>66.941540574394139</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="27"/>
+      <c r="T11" s="4">
+        <f>J11</f>
         <v>169.11679999999998</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="31"/>
+      <c r="U11">
+        <f t="shared" si="12"/>
         <v>0.22678934936959999</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="32"/>
+      <c r="V11">
+        <f>U11/O11*5252</f>
         <v>5.717268781867868E-2</v>
       </c>
-      <c r="AB8">
-        <f t="shared" si="33"/>
+      <c r="W11">
+        <f>-V11/2/O11</f>
         <v>-1.3721445076482885E-6</v>
       </c>
-      <c r="AC8">
+      <c r="X11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="34"/>
+      <c r="Y11">
+        <f t="shared" si="13"/>
         <v>1.9210023107076041E-7</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="35"/>
+      <c r="Z11">
+        <f t="shared" si="14"/>
         <v>5.9086685187455361E-5</v>
       </c>
-      <c r="AF8">
-        <f t="shared" si="36"/>
+      <c r="AA11">
+        <f t="shared" si="15"/>
         <v>8.5084826669935727E-3</v>
       </c>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="95">
-        <f t="shared" si="12"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="95">
+        <f>C11/$AD$24*$AD$19</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="AI8" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD11" s="95">
+        <f>AC11/$AD$19*$AD$24</f>
         <v>120</v>
       </c>
-      <c r="AJ8" s="96">
-        <f t="shared" si="14"/>
-        <v>91.247572277510045</v>
-      </c>
-      <c r="AK8" s="96">
-        <f t="shared" si="15"/>
-        <v>70.560778438633051</v>
-      </c>
-      <c r="AL8" s="96">
-        <f t="shared" si="16"/>
-        <v>91.231795631137672</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="17"/>
-        <v>70.560778438633051</v>
+      <c r="AE11" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD11)),0)</f>
+        <v>21627.02857251282</v>
+      </c>
+      <c r="AF11" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD11))/$AD$23,0)</f>
+        <v>93.116373020541303</v>
+      </c>
+      <c r="AG11" s="96">
+        <f>($AD$28+$AE$28*AF11*$AD$23)/$AD$23</f>
+        <v>73.329836991137853</v>
+      </c>
+      <c r="AH11" s="96">
+        <f>($AD$29+$AE$29*AG11*$AD$23)/$AD$23</f>
+        <v>92.758774544496191</v>
+      </c>
+      <c r="AI11">
+        <f>MAX(($AD$28+$AE$28*AF11*$AD$23)/$AD$23, 0)</f>
+        <v>73.329836991137853</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="98">
-        <f t="shared" si="28"/>
+    <row r="12" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="77">
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C12" s="73">
         <v>135</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D12" s="73">
         <v>2.91</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E12" s="73">
         <v>12.75</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F12" s="73">
         <v>18.95</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G12" s="73">
         <v>1292</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H12" s="73">
         <v>1650</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I12" s="78">
         <v>15.8</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="30"/>
+      <c r="J12" s="2">
+        <f t="shared" si="11"/>
         <v>241.61249999999998</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="29"/>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
         <v>4.9052747784384296</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="18"/>
+      <c r="M12" s="3">
+        <f t="shared" si="4"/>
         <v>773.99380804953569</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="18"/>
+      <c r="N12" s="3">
+        <f t="shared" si="4"/>
         <v>606.06060606060612</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="19"/>
+      <c r="O12" s="3">
+        <f>M12*60/$W$19</f>
         <v>23219.81424148607</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="19"/>
+      <c r="P12" s="3">
+        <f>N12*60/$W$19</f>
         <v>18181.818181818184</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="20"/>
+      <c r="Q12" s="3">
+        <f>O12/$W$27*100</f>
         <v>99.974200206398365</v>
       </c>
-      <c r="R9" s="3">
-        <f t="shared" si="20"/>
+      <c r="R12" s="3">
+        <f>P12/$W$27*100</f>
         <v>78.282828282828305</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="21"/>
-        <v>23046.324091149028</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" si="22"/>
+      <c r="S12" s="3">
+        <f>K12</f>
         <v>135</v>
       </c>
-      <c r="U9" s="3">
-        <f t="shared" si="23"/>
-        <v>99.227228725780549</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="24"/>
-        <v>23047.936347099792</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="25"/>
-        <v>18534.809089845043</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="26"/>
-        <v>79.802650247943944</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="27"/>
+      <c r="T12" s="4">
+        <f>J12</f>
         <v>241.61249999999998</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="31"/>
+      <c r="U12">
+        <f t="shared" si="12"/>
         <v>0.32400767797500002</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="32"/>
+      <c r="V12">
+        <f>U12/O12*5252</f>
         <v>7.3286043851477078E-2</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="33"/>
+      <c r="W12">
+        <f>-V12/2/O12</f>
         <v>-1.5780928109351396E-6</v>
       </c>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="95">
-        <f t="shared" si="12"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="95">
+        <f>C12/$AD$24*$AD$19</f>
         <v>3.75</v>
       </c>
-      <c r="AI9" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD12" s="95">
+        <f>AC12/$AD$19*$AD$24</f>
         <v>135</v>
       </c>
-      <c r="AJ9" s="96">
-        <f t="shared" si="14"/>
-        <v>99.234170383346324</v>
-      </c>
-      <c r="AK9" s="96">
-        <f t="shared" si="15"/>
-        <v>78.265305192554095</v>
-      </c>
-      <c r="AL9" s="96">
-        <f t="shared" si="16"/>
-        <v>99.209085266631007</v>
-      </c>
-      <c r="AM9">
-        <f t="shared" si="17"/>
-        <v>78.265305192554095</v>
+      <c r="AE12" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD12)),0)</f>
+        <v>23725.437190686353</v>
+      </c>
+      <c r="AF12" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD12))/$AD$23,0)</f>
+        <v>102.15118790434403</v>
+      </c>
+      <c r="AG12" s="96">
+        <f>($AD$28+$AE$28*AF12*$AD$23)/$AD$23</f>
+        <v>82.580079222989909</v>
+      </c>
+      <c r="AH12" s="96">
+        <f>($AD$29+$AE$29*AG12*$AD$23)/$AD$23</f>
+        <v>101.70166567277863</v>
+      </c>
+      <c r="AI12">
+        <f>MAX(($AD$28+$AE$28*AF12*$AD$23)/$AD$23, 0)</f>
+        <v>82.580079222989909</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="110">
-        <f t="shared" si="28"/>
+    <row r="13" spans="1:35" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="116">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C13" s="117">
         <v>180</v>
       </c>
-      <c r="K10" s="1">
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
+      <c r="K13" s="1">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="29"/>
+      <c r="L13" s="1">
+        <f t="shared" si="6"/>
         <v>5.1929568508902104</v>
       </c>
-      <c r="O10" s="3">
-        <f>AJ10*$AI$20</f>
-        <v>27578.609040021125</v>
-      </c>
-      <c r="P10" s="3">
-        <f>N10*60/$AB$16</f>
+      <c r="O13" s="3">
+        <f>AF13*$AD$23</f>
+        <v>28850.746932982162</v>
+      </c>
+      <c r="P13" s="3">
+        <f>N13*60/$W$19</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="20"/>
-        <v>118.74123336675764</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="20"/>
+      <c r="Q13" s="3">
+        <f>O13/$W$27*100</f>
+        <v>124.21849373922875</v>
+      </c>
+      <c r="R13" s="3">
+        <f>P13/$W$27*100</f>
         <v>0</v>
       </c>
-      <c r="S10" s="3">
-        <f t="shared" si="21"/>
-        <v>4220.8161308545332</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="22"/>
+      <c r="S13" s="1">
+        <f>K13</f>
         <v>180</v>
       </c>
-      <c r="V10" s="1">
-        <f>$AB$38*LN(C10)+$AB$39</f>
-        <v>27578.609040021125</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="25"/>
+      <c r="T13" s="4">
+        <f>J13</f>
         <v>0</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" si="26"/>
+      <c r="U13">
+        <f t="shared" ref="U13" si="26">T13*0.001341022</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ref="Z10" si="37">Y10*0.001341022</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="95">
-        <f t="shared" si="12"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="95">
+        <f>C13/$AD$24*$AD$19</f>
         <v>5</v>
       </c>
-      <c r="AI10" s="95">
-        <f t="shared" si="13"/>
+      <c r="AD13" s="95">
+        <f>AC13/$AD$19*$AD$24</f>
         <v>180</v>
       </c>
-      <c r="AJ10" s="96">
-        <f t="shared" si="14"/>
-        <v>118.74123336675763</v>
-      </c>
-      <c r="AK10" s="96">
-        <f t="shared" si="15"/>
-        <v>97.083416064602019</v>
-      </c>
-      <c r="AL10" s="96">
-        <f t="shared" si="16"/>
-        <v>118.69341254770035</v>
-      </c>
-      <c r="AM10">
-        <f t="shared" si="17"/>
-        <v>97.083416064602019</v>
+      <c r="AE13" s="96">
+        <f>MAX(($AD$27+$AE$27*LN($AD13)),0)</f>
+        <v>28850.746932982162</v>
+      </c>
+      <c r="AF13" s="96">
+        <f>MAX(($AD$27+$AE$27*LN(AD13))/$AD$23,0)</f>
+        <v>124.21849373922875</v>
+      </c>
+      <c r="AG13" s="96">
+        <f>($AD$28+$AE$28*AF13*$AD$23)/$AD$23</f>
+        <v>105.17356088280772</v>
+      </c>
+      <c r="AH13" s="96">
+        <f>($AD$29+$AE$29*AG13*$AD$23)/$AD$23</f>
+        <v>123.54445007001949</v>
+      </c>
+      <c r="AI13">
+        <f>MAX(($AD$28+$AE$28*AF13*$AD$23)/$AD$23, 0)</f>
+        <v>105.17356088280772</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+    <row r="14" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15">
+        <f>AVERAGE(Y7:Y11)</f>
+        <v>1.7871586140270802E-7</v>
+      </c>
+      <c r="Z15">
+        <f>AVERAGE(Z7:Z11)</f>
+        <v>5.4969886198715812E-5</v>
+      </c>
+      <c r="AA15">
+        <f>AVERAGE(AA7:AA11)</f>
+        <v>7.9156636126150766E-3</v>
+      </c>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
     </row>
-    <row r="12" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AC12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD12">
-        <f>AVERAGE(AD6:AD8)</f>
-        <v>1.7997727059241579E-7</v>
-      </c>
-      <c r="AE12">
-        <f>AVERAGE(AE6:AE8)</f>
-        <v>5.5357873694979535E-5</v>
-      </c>
-      <c r="AF12">
-        <f>AVERAGE(AF6:AF8)</f>
-        <v>7.9715338120770543E-3</v>
-      </c>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-    </row>
-    <row r="13" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:39" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="AA15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-    </row>
-    <row r="16" spans="1:39" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="AA16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="18">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI16" s="63">
-        <f>AB29</f>
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="29"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+    <row r="16" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -16764,41 +17018,11 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="AA17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="20">
-        <v>4800</v>
-      </c>
-      <c r="AD17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI17" s="66">
-        <f>AB28</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="31"/>
     </row>
-    <row r="18" spans="1:37" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+    <row r="18" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -16808,39 +17032,34 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="AA18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="22">
-        <v>12</v>
-      </c>
-      <c r="AD18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE18" s="27">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI18" s="66">
-        <f>AE18</f>
-        <v>5</v>
-      </c>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
+      <c r="V18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+    <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -16855,22 +17074,35 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI19" s="66">
-        <f>AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="31"/>
+      <c r="V19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD19" s="63">
+        <f>W32</f>
+        <v>5</v>
+      </c>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="29"/>
     </row>
-    <row r="20" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -16885,27 +17117,36 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="AA20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG20" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH20" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI20" s="66">
-        <f>AB24/100</f>
-        <v>232.25806451612902</v>
-      </c>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
+      <c r="V20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="20">
+        <v>4800</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" s="66">
+        <f>W31</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="31"/>
     </row>
-    <row r="21" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+    <row r="21" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -16915,36 +17156,35 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="AA21" s="34">
-        <v>240</v>
-      </c>
-      <c r="AB21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="37"/>
-      <c r="AH21" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI21" s="66">
-        <f>AD29</f>
-        <v>180</v>
-      </c>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="31"/>
+      <c r="V21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="22">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD21" s="66">
+        <f>Z21</f>
+        <v>5</v>
+      </c>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="31"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -16962,25 +17202,19 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="AA22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AH22" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI22" s="66">
-        <f>AD28</f>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD22" s="66">
+        <f>Z20</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="31"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="31"/>
     </row>
-    <row r="23" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -16997,73 +17231,92 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="AA23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH23" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI23" s="66">
-        <f>AB37</f>
+      <c r="V23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="66">
+        <f>W27/100</f>
+        <v>232.25806451612902</v>
+      </c>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="31"/>
+    </row>
+    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="34">
+        <v>240</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="37"/>
+      <c r="AC24" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="66">
+        <f>Y32</f>
+        <v>180</v>
+      </c>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="31"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="AC25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD25" s="66">
+        <f>Y31</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="67">
-        <f>AB36</f>
-        <v>7651.2973524040635</v>
-      </c>
-      <c r="AK23" s="68">
-        <f>AB35</f>
-        <v>-440.53166656638234</v>
-      </c>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="31"/>
     </row>
-    <row r="24" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA24" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="39">
-        <f>AB17*AB18/AC24</f>
-        <v>23225.806451612902</v>
-      </c>
-      <c r="AC24" s="40">
-        <v>2.48</v>
-      </c>
-      <c r="AD24" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE24" s="41"/>
-      <c r="AH24" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI24" s="66">
-        <f>AB39</f>
-        <v>-54204.685968014324</v>
-      </c>
-      <c r="AJ24" s="67">
-        <f>AB38</f>
-        <v>15748.887841041011</v>
-      </c>
-      <c r="AK24" s="31"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AH25" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI25" s="66">
-        <f>AE38</f>
-        <v>-4056.179066005725</v>
-      </c>
-      <c r="AJ25" s="69">
-        <f>AE37</f>
-        <v>0.96468191485569854</v>
-      </c>
-      <c r="AK25" s="31"/>
-    </row>
-    <row r="26" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -17071,122 +17324,77 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="AA26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH26" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI26" s="71">
-        <f>AE36</f>
-        <v>4220.8161308545332</v>
-      </c>
-      <c r="AJ26" s="72">
-        <f>AE35</f>
-        <v>1.0354029378161971</v>
-      </c>
-      <c r="AK26" s="33"/>
+      <c r="J26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="V26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC26" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD26" s="66">
+        <f>W40</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="67">
+        <f>W39</f>
+        <v>7538.711197196546</v>
+      </c>
+      <c r="AF26" s="68">
+        <f>W38</f>
+        <v>-396.83873454558267</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE27" s="29" t="s">
-        <v>50</v>
-      </c>
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V27" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="39">
+        <f>W20*W21/X27</f>
+        <v>23225.806451612902</v>
+      </c>
+      <c r="X27" s="40">
+        <v>2.48</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z27" s="41"/>
+      <c r="AC27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="66">
+        <f>W42</f>
+        <v>-63666.357495381133</v>
+      </c>
+      <c r="AE27" s="67">
+        <f>W41</f>
+        <v>17815.881603657734</v>
+      </c>
+      <c r="AF27" s="31"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="AA28" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB28" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD28" s="59">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="89">
-        <f>AE38/AB24*100</f>
-        <v>-17.464104311969095</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>70</v>
-      </c>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC28" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="66">
+        <f>Z41</f>
+        <v>-5111.2603560094558</v>
+      </c>
+      <c r="AE28" s="69">
+        <f>Z40</f>
+        <v>1.0238441352501362</v>
+      </c>
+      <c r="AF28" s="31"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -17205,37 +17413,25 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="AA29" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB29" s="58">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD29" s="59">
-        <v>180</v>
-      </c>
-      <c r="AE29" s="60">
-        <v>77</v>
-      </c>
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC29" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD29" s="71">
+        <f>Z39</f>
+        <v>5078.4189614630086</v>
+      </c>
+      <c r="AE29" s="72">
+        <f>Z38</f>
+        <v>0.96677372377219584</v>
+      </c>
+      <c r="AF29" s="33"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -17252,34 +17448,21 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="89">
-        <f>(AE29-AE28)/(AB29-AB28)</f>
-        <v>18.892820862393819</v>
+      <c r="V30" s="17"/>
+      <c r="W30" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z30" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B31" s="73">
-        <v>87</v>
-      </c>
-      <c r="C31" s="6">
-        <f>B31/180*(2.4-0.53)+0.53</f>
-        <v>1.4338333333333333</v>
-      </c>
-      <c r="D31" s="88">
-        <f>(C31-1)*180</f>
-        <v>78.089999999999989</v>
-      </c>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -17296,32 +17479,32 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="89">
-        <f>AE29-AE30*(AB29-AB28)</f>
-        <v>-17.464104311969095</v>
+      <c r="V31" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" s="58">
+        <v>0</v>
+      </c>
+      <c r="X31" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y31" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="89">
+        <f>Z41/W27*100</f>
+        <v>-22.006815421707383</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="73">
-        <v>90</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" ref="C32:C37" si="38">B32/180*(2.4-0.53)+0.53</f>
-        <v>1.4649999999999999</v>
-      </c>
-      <c r="D32" s="88">
-        <f t="shared" ref="D32:D37" si="39">(C32-1)*180</f>
-        <v>83.699999999999974</v>
-      </c>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -17338,30 +17521,31 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48" t="s">
-        <v>19</v>
+      <c r="V32" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="W32" s="58">
+        <v>5</v>
+      </c>
+      <c r="X32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="59">
+        <v>180</v>
+      </c>
+      <c r="Z32" s="60">
+        <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B33" s="73">
-        <v>100</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="38"/>
-        <v>1.568888888888889</v>
-      </c>
-      <c r="D33" s="88">
-        <f t="shared" si="39"/>
-        <v>102.40000000000002</v>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -17379,176 +17563,278 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="89">
+        <f>(Z32-Z31)/(W32-W31)</f>
+        <v>19.801363084341478</v>
+      </c>
     </row>
-    <row r="34" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B34" s="73">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="38"/>
-        <v>1.6727777777777779</v>
+        <f>B34/180*(2.4-0.53)+0.53</f>
+        <v>1.4338333333333333</v>
       </c>
       <c r="D34" s="88">
-        <f t="shared" si="39"/>
-        <v>121.10000000000002</v>
+        <f>(C34-1)*180</f>
+        <v>78.089999999999989</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="AA34" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="89">
+        <f>Z32-Z33*(W32-W31)</f>
+        <v>-22.006815421707387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="73">
+        <v>90</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:C40" si="27">B35/180*(2.4-0.53)+0.53</f>
+        <v>1.4649999999999999</v>
+      </c>
+      <c r="D35" s="88">
+        <f t="shared" ref="D35:D40" si="28">(C35-1)*180</f>
+        <v>83.699999999999974</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B36" s="73">
+        <v>100</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="27"/>
+        <v>1.568888888888889</v>
+      </c>
+      <c r="D36" s="88">
+        <f t="shared" si="28"/>
+        <v>102.40000000000002</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="73">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="27"/>
+        <v>1.6727777777777779</v>
+      </c>
+      <c r="D37" s="88">
+        <f t="shared" si="28"/>
+        <v>121.10000000000002</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B35" s="73">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B38" s="73">
         <v>114</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="38"/>
+      <c r="C38" s="6">
+        <f t="shared" si="27"/>
         <v>1.7143333333333333</v>
       </c>
-      <c r="D35" s="88">
-        <f t="shared" si="39"/>
+      <c r="D38" s="88">
+        <f t="shared" si="28"/>
         <v>128.57999999999998</v>
       </c>
-      <c r="AA35" s="49" t="s">
+      <c r="V38" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AB35" s="50">
-        <f>INDEX(LINEST($P$6:$P$9,$D$6:$D$9^{1,2},FALSE,FALSE),1)</f>
-        <v>-440.53166656638234</v>
-      </c>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="51" t="s">
+      <c r="W38" s="50">
+        <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),1)</f>
+        <v>-396.83873454558267</v>
+      </c>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AE35" s="52">
-        <f>INDEX(LINEST($O$6:$O$9,$P$6:$P$9),1)</f>
-        <v>1.0354029378161971</v>
-      </c>
-      <c r="AK35" s="104"/>
-      <c r="AL35" s="104"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
+      <c r="Z38" s="52">
+        <f>INDEX(LINEST($O$4:$O$12,$P$4:$P$12),1)</f>
+        <v>0.96677372377219584</v>
+      </c>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="104"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B36" s="73">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B39" s="73">
         <v>127.5</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="38"/>
+      <c r="C39" s="6">
+        <f t="shared" si="27"/>
         <v>1.8545833333333333</v>
       </c>
-      <c r="D36" s="88">
-        <f t="shared" si="39"/>
+      <c r="D39" s="88">
+        <f t="shared" si="28"/>
         <v>153.82499999999999</v>
       </c>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="54">
-        <f>INDEX(LINEST($P$6:$P$9,$D$6:$D$9^{1,2},FALSE,FALSE),2)</f>
-        <v>7651.2973524040635</v>
-      </c>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="46">
-        <f>INDEX(LINEST($O$6:$O$9,$P$6:$P$9),2)</f>
-        <v>4220.8161308545332</v>
+      <c r="V39" s="43"/>
+      <c r="W39" s="54">
+        <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),2)</f>
+        <v>7538.711197196546</v>
+      </c>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="46">
+        <f>INDEX(LINEST($O$4:$O$12,$P$4:$P$12),2)</f>
+        <v>5078.4189614630086</v>
       </c>
     </row>
-    <row r="37" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="80">
+    <row r="40" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="80">
         <v>136.4</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" si="38"/>
+      <c r="C40" s="6">
+        <f t="shared" si="27"/>
         <v>1.9470444444444444</v>
       </c>
-      <c r="D37" s="88">
-        <f t="shared" si="39"/>
+      <c r="D40" s="88">
+        <f t="shared" si="28"/>
         <v>170.46799999999999</v>
       </c>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="54">
-        <f>INDEX(LINEST($P$6:$P$9,$D$6:$D$9^{1,2},FALSE,FALSE),3)</f>
+      <c r="V40" s="43"/>
+      <c r="W40" s="54">
+        <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="44" t="s">
+      <c r="X40" s="30"/>
+      <c r="Y40" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AE37" s="46">
-        <f>INDEX(LINEST($P$6:$P$9,$O$6:$O$9),1)</f>
-        <v>0.96468191485569854</v>
+      <c r="Z40" s="46">
+        <f>INDEX(LINEST($P$4:$P$12,$O$4:$O$12),1)</f>
+        <v>1.0238441352501362</v>
       </c>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="AA38" s="43" t="s">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="V41" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AB38" s="54">
-        <f>INDEX(LINEST($O$6:$O$9,$L$6:$L$9),1)</f>
-        <v>15748.887841041011</v>
-      </c>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="46">
-        <f>INDEX(LINEST($P$6:$P$9,$O$6:$O$9),2)</f>
-        <v>-4056.179066005725</v>
-      </c>
-      <c r="AF38" t="s">
+      <c r="W41" s="54">
+        <f>INDEX(LINEST($O$4:$O$12,$L$4:$L$12),1)</f>
+        <v>17815.881603657734</v>
+      </c>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="46">
+        <f>INDEX(LINEST($P$4:$P$12,$O$4:$O$12),2)</f>
+        <v>-5111.2603560094558</v>
+      </c>
+      <c r="AA41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="54">
-        <f>INDEX(LINEST($O$6:$O$9,$L$6:$L$9),2)</f>
-        <v>-54204.685968014324</v>
-      </c>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="31"/>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="V42" s="43"/>
+      <c r="W42" s="54">
+        <f>INDEX(LINEST($O$4:$O$12,$L$4:$L$12),2)</f>
+        <v>-63666.357495381133</v>
+      </c>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="31"/>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="31"/>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="V43" s="19"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="31"/>
     </row>
-    <row r="41" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AA41" s="112" t="s">
+    <row r="44" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V44" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="AB41" s="113">
-        <f>EXP((0-$AI$24)/$AJ$24)</f>
-        <v>31.243470193050076</v>
-      </c>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" t="s">
+      <c r="W44" s="108">
+        <f>EXP((0-$AD$27)/$AE$27)</f>
+        <v>35.643728970875671</v>
+      </c>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" t="s">
         <v>86</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,6 +937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,10 +1098,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$J$4:$J$37</c:f>
+              <c:f>CalArduinoTurnigy!$J$4:$J$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>5.9340000000000002</c:v>
                 </c:pt>
@@ -1124,16 +1128,43 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>241.61249999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8512000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.516800000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.349000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153.26999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214.45920000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoTurnigy!$Q$4:$Q$37</c:f>
+              <c:f>CalArduinoTurnigy!$Q$4:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>19.278606965174134</c:v>
                 </c:pt>
@@ -1162,7 +1193,34 @@
                   <c:v>99.974200206398365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.21849373922875</c:v>
+                  <c:v>93.964640386803595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.96861471861472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.426509186351709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.618448637316575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.742138364779883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.399355877616756</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.583333333333343</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.390151515151516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.326340326340329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.91145833333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,11 +1235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155322768"/>
-        <c:axId val="155317672"/>
+        <c:axId val="137647952"/>
+        <c:axId val="137646776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155322768"/>
+        <c:axId val="137647952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,12 +1352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155317672"/>
+        <c:crossAx val="137646776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155317672"/>
+        <c:axId val="137646776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155322768"/>
+        <c:crossAx val="137647952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,8 +1768,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207202696"/>
-        <c:axId val="207197600"/>
+        <c:axId val="209161400"/>
+        <c:axId val="209159048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1879,11 +1937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207200736"/>
-        <c:axId val="207200344"/>
+        <c:axId val="209155520"/>
+        <c:axId val="209160616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207202696"/>
+        <c:axId val="209161400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2002,12 +2060,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207197600"/>
+        <c:crossAx val="209159048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207197600"/>
+        <c:axId val="209159048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207202696"/>
+        <c:crossAx val="209161400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207200344"/>
+        <c:axId val="209160616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2225,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207200736"/>
+        <c:crossAx val="209155520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207200736"/>
+        <c:axId val="209155520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207200344"/>
+        <c:crossAx val="209160616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2436,11 +2494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207201520"/>
-        <c:axId val="207201912"/>
+        <c:axId val="209156696"/>
+        <c:axId val="209158264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207201520"/>
+        <c:axId val="209156696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2470,12 +2528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207201912"/>
+        <c:crossAx val="209158264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207201912"/>
+        <c:axId val="209158264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207201520"/>
+        <c:crossAx val="209156696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2639,11 +2697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207203480"/>
-        <c:axId val="154957400"/>
+        <c:axId val="209161008"/>
+        <c:axId val="208967784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207203480"/>
+        <c:axId val="209161008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,12 +2729,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154957400"/>
+        <c:crossAx val="208967784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154957400"/>
+        <c:axId val="208967784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207203480"/>
+        <c:crossAx val="209161008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,11 +2944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154957792"/>
-        <c:axId val="154955832"/>
+        <c:axId val="208971312"/>
+        <c:axId val="208970920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154957792"/>
+        <c:axId val="208971312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2949,12 +3007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154955832"/>
+        <c:crossAx val="208970920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154955832"/>
+        <c:axId val="208970920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +3069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154957792"/>
+        <c:crossAx val="208971312"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3274,11 +3332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154958184"/>
-        <c:axId val="154954656"/>
+        <c:axId val="208969352"/>
+        <c:axId val="208963864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154958184"/>
+        <c:axId val="208969352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,12 +3393,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154954656"/>
+        <c:crossAx val="208963864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154954656"/>
+        <c:axId val="208963864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154958184"/>
+        <c:crossAx val="208969352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3663,11 +3721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154957008"/>
-        <c:axId val="154955048"/>
+        <c:axId val="208964648"/>
+        <c:axId val="208968568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154957008"/>
+        <c:axId val="208964648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3724,12 +3782,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154955048"/>
+        <c:crossAx val="208968568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154955048"/>
+        <c:axId val="208968568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154957008"/>
+        <c:crossAx val="208964648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4059,11 +4117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207503912"/>
-        <c:axId val="207503128"/>
+        <c:axId val="208965040"/>
+        <c:axId val="208967392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207503912"/>
+        <c:axId val="208965040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,12 +4233,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207503128"/>
+        <c:crossAx val="208967392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207503128"/>
+        <c:axId val="208967392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4293,7 +4351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207503912"/>
+        <c:crossAx val="208965040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4580,11 +4638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155323160"/>
-        <c:axId val="155316888"/>
+        <c:axId val="137647168"/>
+        <c:axId val="137647560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155323160"/>
+        <c:axId val="137647168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,12 +4699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155316888"/>
+        <c:crossAx val="137647560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155316888"/>
+        <c:axId val="137647560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,7 +4761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155323160"/>
+        <c:crossAx val="137647168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4933,31 +4991,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,8 +5066,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155320808"/>
-        <c:axId val="155320416"/>
+        <c:axId val="137646384"/>
+        <c:axId val="137651872"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5108,31 +5166,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,15 +5241,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155318064"/>
-        <c:axId val="155317280"/>
+        <c:axId val="137650696"/>
+        <c:axId val="137651088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155320808"/>
+        <c:axId val="137646384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
-          <c:min val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5307,13 +5365,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155320416"/>
+        <c:crossAx val="137651872"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155320416"/>
+        <c:axId val="137651872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,12 +5484,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155320808"/>
+        <c:crossAx val="137646384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155317280"/>
+        <c:axId val="137651088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="320"/>
@@ -5532,13 +5590,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155318064"/>
+        <c:crossAx val="137650696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155318064"/>
+        <c:axId val="137650696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,7 +5606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155317280"/>
+        <c:crossAx val="137651088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5810,11 +5868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155322376"/>
-        <c:axId val="155321592"/>
+        <c:axId val="137651480"/>
+        <c:axId val="137648736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155322376"/>
+        <c:axId val="137651480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5845,12 +5903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155321592"/>
+        <c:crossAx val="137648736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155321592"/>
+        <c:axId val="137648736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +5938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155322376"/>
+        <c:crossAx val="137651480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6022,11 +6080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155321984"/>
-        <c:axId val="155318456"/>
+        <c:axId val="137652656"/>
+        <c:axId val="137649912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155321984"/>
+        <c:axId val="137652656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,12 +6113,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155318456"/>
+        <c:crossAx val="137649912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155318456"/>
+        <c:axId val="137649912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6071,7 +6129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155321984"/>
+        <c:crossAx val="137652656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6265,11 +6323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155320024"/>
-        <c:axId val="207198384"/>
+        <c:axId val="137653048"/>
+        <c:axId val="137653440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155320024"/>
+        <c:axId val="137653048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6328,12 +6386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207198384"/>
+        <c:crossAx val="137653440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207198384"/>
+        <c:axId val="137653440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,7 +6448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155320024"/>
+        <c:crossAx val="137653048"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6619,16 +6677,10 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:backward val="40"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1784534120734908"/>
-                  <c:y val="-2.8194444444444446E-2"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6666,31 +6718,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,31 +6872,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6856,31 +6908,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6029.7812001120037</c:v>
+                  <c:v>3219.6332251576841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7067.8931684231793</c:v>
+                  <c:v>6120.723046429528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8674.0144389134366</c:v>
+                  <c:v>10028.176967432357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10427.811121209787</c:v>
+                  <c:v>12038.723757973157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12941.983270479002</c:v>
+                  <c:v>14629.860093054345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14179.208117527873</c:v>
+                  <c:v>15645.070044921804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16501.718830217011</c:v>
+                  <c:v>17615.468608096002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21627.02857251282</c:v>
+                  <c:v>20573.100005910928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23725.437190686353</c:v>
+                  <c:v>21304.120161105675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,11 +6947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207202304"/>
-        <c:axId val="207197992"/>
+        <c:axId val="209157088"/>
+        <c:axId val="209156304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207202304"/>
+        <c:axId val="209157088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7006,12 +7058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207197992"/>
+        <c:crossAx val="209156304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207197992"/>
+        <c:axId val="209156304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10000"/>
@@ -7063,7 +7115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207202304"/>
+        <c:crossAx val="209157088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7356,11 +7408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207203872"/>
-        <c:axId val="207196424"/>
+        <c:axId val="209162576"/>
+        <c:axId val="209158656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207203872"/>
+        <c:axId val="209162576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7472,12 +7524,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207196424"/>
+        <c:crossAx val="209158656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207196424"/>
+        <c:axId val="209158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7589,7 +7641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207203872"/>
+        <c:crossAx val="209162576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7868,11 +7920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207197208"/>
-        <c:axId val="207199168"/>
+        <c:axId val="209161792"/>
+        <c:axId val="209157872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207197208"/>
+        <c:axId val="209161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,12 +7981,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207199168"/>
+        <c:crossAx val="209157872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207199168"/>
+        <c:axId val="209157872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7991,7 +8043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207197208"/>
+        <c:crossAx val="209161792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14704,13 +14756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14736,13 +14788,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14768,13 +14820,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14800,13 +14852,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>272415</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>146691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14838,7 +14890,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14864,13 +14916,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14896,14 +14948,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>144786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15496,11 +15548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15591,7 +15643,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="4" t="str">
-        <f>J1</f>
+        <f t="shared" ref="T1:T13" si="0">J1</f>
         <v>Charger Pwr, W</v>
       </c>
       <c r="U1" s="4" t="s">
@@ -15640,7 +15692,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="113">
-        <f t="shared" ref="B2" si="0">C2/180+1</f>
+        <f t="shared" ref="B2" si="1">C2/180+1</f>
         <v>1.0000055555555556</v>
       </c>
       <c r="C2" s="110">
@@ -15654,11 +15706,11 @@
       <c r="I2" s="114"/>
       <c r="J2" s="4"/>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K13" si="1">C2</f>
+        <f t="shared" ref="K2:K13" si="2">C2</f>
         <v>1E-3</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L3" si="2">LN(K2)</f>
+        <f t="shared" ref="L2:L3" si="3">LN(K2)</f>
         <v>-6.9077552789821368</v>
       </c>
       <c r="M2" s="3"/>
@@ -15670,23 +15722,23 @@
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <f>O2/$W$27*100</f>
+        <f t="shared" ref="Q2:Q13" si="4">O2/$W$34*100</f>
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <f>P2/$W$27*100</f>
+        <f t="shared" ref="R2:R13" si="5">P2/$W$34*100</f>
         <v>0</v>
       </c>
       <c r="S2" s="3">
-        <f>K2</f>
+        <f t="shared" ref="S2:S13" si="6">K2</f>
         <v>1E-3</v>
       </c>
       <c r="T2" s="4">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U3" si="3">T2*0.001341022</f>
+        <f t="shared" ref="U2:U3" si="7">T2*0.001341022</f>
         <v>0</v>
       </c>
       <c r="X2" s="4"/>
@@ -15695,42 +15747,42 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="97"/>
       <c r="AC2" s="95">
-        <f>C2/$AD$24*$AD$19</f>
+        <f t="shared" ref="AC2:AC13" si="8">C2/$AD$31*$AD$26</f>
         <v>2.7777777777777779E-5</v>
       </c>
       <c r="AD2" s="95">
-        <f>AC2/$AD$19*$AD$24</f>
+        <f t="shared" ref="AD2:AD13" si="9">AC2/$AD$26*$AD$31</f>
         <v>1E-3</v>
       </c>
       <c r="AE2" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD2)),0)</f>
+        <f t="shared" ref="AE2:AE13" si="10">MAX(($AD$34+$AE$34*LN($AD2)),0)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD2))/$AD$23,0)</f>
+        <f>MAX(($AD$34+$AE$34*LN($AD2))/$AD$30,0)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="96">
-        <f>($AD$28+$AE$28*AF2*$AD$23)/$AD$23</f>
+        <f t="shared" ref="AG2:AG13" si="11">($AD$35+$AE$35*AF2*$AD$30)/$AD$30</f>
         <v>-22.00681542170738</v>
       </c>
       <c r="AH2" s="96">
-        <f>($AD$29+$AE$29*AG2*$AD$23)/$AD$23</f>
+        <f t="shared" ref="AH2:AH13" si="12">($AD$36+$AE$36*AG2*$AD$30)/$AD$30</f>
         <v>0.5898040793543039</v>
       </c>
       <c r="AI2">
-        <f>MAX(($AD$28+$AE$28*AF2*$AD$23)/$AD$23, 0)</f>
+        <f t="shared" ref="AI2:AI13" si="13">MAX(($AD$35+$AE$35*AF2*$AD$30)/$AD$30, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B3" s="113">
         <f>C3/180+1</f>
-        <v>1.1980207165048649</v>
+        <v>1.0259305748773628</v>
       </c>
       <c r="C3" s="111">
-        <f>EXP((0-$AD$27)/$AE$27)</f>
-        <v>35.643728970875671</v>
+        <f>EXP((0-$AD$34)/$AE$34)</f>
+        <v>4.6675034779253295</v>
       </c>
       <c r="D3" s="110"/>
       <c r="E3" s="110"/>
@@ -15741,11 +15793,11 @@
       <c r="J3" s="4"/>
       <c r="K3" s="1">
         <f>C3</f>
-        <v>35.643728970875671</v>
+        <v>4.6675034779253295</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5735732259418449</v>
+        <f t="shared" si="3"/>
+        <v>1.5406243415701164</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
@@ -15756,23 +15808,23 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f>O3/$W$27*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f>P3/$W$27*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S3" s="3">
-        <f>K3</f>
-        <v>35.643728970875671</v>
+        <f t="shared" si="6"/>
+        <v>4.6675034779253295</v>
       </c>
       <c r="T3" s="4">
-        <f>J3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X3" s="4"/>
@@ -15781,41 +15833,41 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="97"/>
       <c r="AC3" s="95">
-        <f>C3/$AD$24*$AD$19</f>
-        <v>0.99010358252432418</v>
+        <f t="shared" si="8"/>
+        <v>0.12965287438681469</v>
       </c>
       <c r="AD3" s="95">
-        <f>AC3/$AD$19*$AD$24</f>
-        <v>35.643728970875671</v>
+        <f t="shared" si="9"/>
+        <v>4.6675034779253286</v>
       </c>
       <c r="AE3" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD3)),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF3" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD3))/$AD$23,0)</f>
+        <f t="shared" ref="AF3:AF13" si="14">MAX(($AD$34+$AE$34*LN(AD3))/$AD$30,0)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="96">
-        <f>($AD$28+$AE$28*AF3*$AD$23)/$AD$23</f>
+        <f t="shared" si="11"/>
         <v>-22.00681542170738</v>
       </c>
       <c r="AH3" s="96">
-        <f>($AD$29+$AE$29*AG3*$AD$23)/$AD$23</f>
+        <f t="shared" si="12"/>
         <v>0.5898040793543039</v>
       </c>
       <c r="AI3">
-        <f>MAX(($AD$28+$AE$28*AF3*$AD$23)/$AD$23, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="77">
+      <c r="B4" s="113">
         <f>C4/180+1</f>
-        <v>1.2777777777777777</v>
+        <v>1.0444444444444445</v>
       </c>
       <c r="C4" s="109">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D4" s="109">
         <v>3.0000000000000001E-3</v>
@@ -15840,43 +15892,43 @@
         <v>5.9340000000000002</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="L4" s="1">
         <f>LN(K4)</f>
-        <v>3.912023005428146</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:N12" si="4">1/G4/0.000001</f>
+        <f t="shared" ref="M4:N12" si="15">1/G4/0.000001</f>
         <v>149.25373134328359</v>
       </c>
       <c r="N4" s="3">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O12" si="16">M4*60/$W$26</f>
+        <v>4477.6119402985078</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P12" si="17">N4*60/$W$26</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="3">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="3">
-        <f>M4*60/$W$19</f>
-        <v>4477.6119402985078</v>
-      </c>
-      <c r="P4" s="3">
-        <f>N4*60/$W$19</f>
-        <v>0.3</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>O4/$W$27*100</f>
         <v>19.278606965174134</v>
       </c>
       <c r="R4" s="3">
-        <f>P4/$W$27*100</f>
+        <f t="shared" si="5"/>
         <v>1.2916666666666669E-3</v>
       </c>
       <c r="S4" s="3">
-        <f>K4</f>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="T4" s="4">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>5.9340000000000002</v>
       </c>
       <c r="U4">
@@ -15884,11 +15936,11 @@
         <v>7.9576245480000012E-3</v>
       </c>
       <c r="V4">
-        <f>U4/O4*5252</f>
+        <f t="shared" ref="V4:V12" si="18">U4/O4*5252</f>
         <v>9.3338691881614411E-3</v>
       </c>
       <c r="W4">
-        <f>-V4/2/O4</f>
+        <f t="shared" ref="W4:W12" si="19">-V4/2/O4</f>
         <v>-1.0422820593446941E-6</v>
       </c>
       <c r="X4" s="4"/>
@@ -15897,41 +15949,41 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="97"/>
       <c r="AC4" s="95">
-        <f>C4/$AD$24*$AD$19</f>
-        <v>1.3888888888888888</v>
+        <f t="shared" si="8"/>
+        <v>0.22222222222222224</v>
       </c>
       <c r="AD4" s="95">
-        <f>AC4/$AD$19*$AD$24</f>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="AE4" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD4)),0)</f>
-        <v>6029.7812001120037</v>
+        <f t="shared" si="10"/>
+        <v>3219.6332251576841</v>
       </c>
       <c r="AF4" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD4))/$AD$23,0)</f>
-        <v>25.961557944926682</v>
+        <f t="shared" si="14"/>
+        <v>13.862309719428918</v>
       </c>
       <c r="AG4" s="96">
-        <f>($AD$28+$AE$28*AF4*$AD$23)/$AD$23</f>
-        <v>4.5737734221623825</v>
+        <f t="shared" si="11"/>
+        <v>-7.8139709144491221</v>
       </c>
       <c r="AH4" s="96">
-        <f>($AD$29+$AE$29*AG4*$AD$23)/$AD$23</f>
-        <v>26.287218935999956</v>
+        <f t="shared" si="12"/>
+        <v>14.311073214556124</v>
       </c>
       <c r="AI4">
-        <f>MAX(($AD$28+$AE$28*AF4*$AD$23)/$AD$23, 0)</f>
-        <v>4.5737734221623825</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77">
-        <f t="shared" ref="B5:B13" si="5">C5/180+1</f>
-        <v>1.2944444444444445</v>
+      <c r="B5" s="113">
+        <f t="shared" ref="B5:B23" si="20">C5/180+1</f>
+        <v>1.0722222222222222</v>
       </c>
       <c r="C5" s="73">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D5" s="109">
         <v>3.0000000000000001E-3</v>
@@ -15956,43 +16008,43 @@
         <v>7.3968000000000007</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L13" si="6">LN(K5)</f>
-        <v>3.970291913552122</v>
+        <f t="shared" ref="L5:L13" si="21">LN(K5)</f>
+        <v>2.5649493574615367</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" si="15"/>
+        <v>216.45021645021646</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="16"/>
+        <v>6493.5064935064938</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q5" s="3">
         <f t="shared" si="4"/>
-        <v>216.45021645021646</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="O5" s="3">
-        <f>M5*60/$W$19</f>
-        <v>6493.5064935064938</v>
-      </c>
-      <c r="P5" s="3">
-        <f>N5*60/$W$19</f>
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="3">
-        <f>O5/$W$27*100</f>
         <v>27.958152958152958</v>
       </c>
       <c r="R5" s="3">
-        <f>P5/$W$27*100</f>
+        <f t="shared" si="5"/>
         <v>1.2916666666666669E-3</v>
       </c>
       <c r="S5" s="3">
-        <f>K5</f>
-        <v>53</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="T5" s="4">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>7.3968000000000007</v>
       </c>
       <c r="U5">
@@ -16000,50 +16052,50 @@
         <v>9.9192715296000013E-3</v>
       </c>
       <c r="V5">
-        <f>U5/O5*5252</f>
+        <f t="shared" si="18"/>
         <v>8.022786167312718E-3</v>
       </c>
       <c r="W5">
-        <f>-V5/2/O5</f>
+        <f t="shared" si="19"/>
         <v>-6.1775453488307925E-7</v>
       </c>
       <c r="AB5" s="97"/>
       <c r="AC5" s="95">
-        <f>C5/$AD$24*$AD$19</f>
-        <v>1.4722222222222223</v>
+        <f t="shared" si="8"/>
+        <v>0.36111111111111105</v>
       </c>
       <c r="AD5" s="95">
-        <f>AC5/$AD$19*$AD$24</f>
-        <v>53</v>
+        <f t="shared" si="9"/>
+        <v>12.999999999999998</v>
       </c>
       <c r="AE5" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD5)),0)</f>
-        <v>7067.8931684231793</v>
+        <f t="shared" si="10"/>
+        <v>6120.723046429528</v>
       </c>
       <c r="AF5" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD5))/$AD$23,0)</f>
-        <v>30.431206697377579</v>
+        <f t="shared" si="14"/>
+        <v>26.353113116571581</v>
       </c>
       <c r="AG5" s="96">
-        <f>($AD$28+$AE$28*AF5*$AD$23)/$AD$23</f>
-        <v>9.1499970839873175</v>
+        <f t="shared" si="11"/>
+        <v>4.9746648882778732</v>
       </c>
       <c r="AH5" s="96">
-        <f>($AD$29+$AE$29*AG5*$AD$23)/$AD$23</f>
-        <v>30.711391726356883</v>
+        <f t="shared" si="12"/>
+        <v>26.674790271524927</v>
       </c>
       <c r="AI5">
-        <f>MAX(($AD$28+$AE$28*AF5*$AD$23)/$AD$23, 0)</f>
-        <v>9.1499970839873175</v>
+        <f t="shared" si="13"/>
+        <v>4.9746648882778732</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="77">
-        <f t="shared" si="5"/>
-        <v>1.3222222222222222</v>
+      <c r="B6" s="113">
+        <f t="shared" si="20"/>
+        <v>1.1388888888888888</v>
       </c>
       <c r="C6" s="73">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D6" s="109">
         <v>0.66800000000000004</v>
@@ -16068,43 +16120,43 @@
         <v>20.3796</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6" si="7">C6</f>
-        <v>58</v>
+        <f t="shared" ref="K6" si="22">C6</f>
+        <v>25</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6" si="8">LN(K6)</f>
-        <v>4.0604430105464191</v>
+        <f t="shared" ref="L6" si="23">LN(K6)</f>
+        <v>3.2188758248682006</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6" si="9">1/G6/0.000001</f>
+        <f t="shared" ref="M6" si="24">1/G6/0.000001</f>
         <v>306.74846625766872</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6" si="10">1/H6/0.000001</f>
+        <f t="shared" ref="N6" si="25">1/H6/0.000001</f>
         <v>156.00624024960999</v>
       </c>
       <c r="O6" s="3">
-        <f>M6*60/$W$19</f>
+        <f t="shared" si="16"/>
         <v>9202.4539877300613</v>
       </c>
       <c r="P6" s="3">
-        <f>N6*60/$W$19</f>
+        <f t="shared" si="17"/>
         <v>4680.1872074882995</v>
       </c>
       <c r="Q6" s="3">
-        <f>O6/$W$27*100</f>
+        <f t="shared" si="4"/>
         <v>39.621676891615543</v>
       </c>
       <c r="R6" s="3">
-        <f>P6/$W$27*100</f>
+        <f t="shared" si="5"/>
         <v>20.150806032241292</v>
       </c>
       <c r="S6" s="3">
-        <f>K6</f>
-        <v>58</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="T6" s="4">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>20.3796</v>
       </c>
       <c r="U6">
@@ -16112,50 +16164,50 @@
         <v>2.7329491951200002E-2</v>
       </c>
       <c r="V6">
-        <f>U6/O6*5252</f>
+        <f t="shared" si="18"/>
         <v>1.5597414767743662E-2</v>
       </c>
       <c r="W6">
-        <f>-V6/2/O6</f>
+        <f t="shared" si="19"/>
         <v>-8.4745953571407239E-7</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="95">
-        <f>C6/$AD$24*$AD$19</f>
-        <v>1.6111111111111112</v>
+        <f t="shared" si="8"/>
+        <v>0.69444444444444442</v>
       </c>
       <c r="AD6" s="95">
-        <f>AC6/$AD$19*$AD$24</f>
-        <v>58.000000000000007</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="AE6" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD6)),0)</f>
-        <v>8674.0144389134366</v>
+        <f t="shared" si="10"/>
+        <v>10028.176967432357</v>
       </c>
       <c r="AF6" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD6))/$AD$23,0)</f>
-        <v>37.346451056432855</v>
+        <f t="shared" si="14"/>
+        <v>43.176873054222646</v>
       </c>
       <c r="AG6" s="96">
-        <f>($AD$28+$AE$28*AF6*$AD$23)/$AD$23</f>
-        <v>16.230129464827645</v>
+        <f t="shared" si="11"/>
+        <v>22.199572833298117</v>
       </c>
       <c r="AH6" s="96">
-        <f>($AD$29+$AE$29*AG6*$AD$23)/$AD$23</f>
-        <v>37.556277672981992</v>
+        <f t="shared" si="12"/>
+        <v>43.327378667165426</v>
       </c>
       <c r="AI6">
-        <f>MAX(($AD$28+$AE$28*AF6*$AD$23)/$AD$23, 0)</f>
-        <v>16.230129464827645</v>
+        <f t="shared" si="13"/>
+        <v>22.199572833298117</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77">
-        <f t="shared" si="5"/>
-        <v>1.3555555555555556</v>
+      <c r="B7" s="113">
+        <f t="shared" si="20"/>
+        <v>1.1944444444444444</v>
       </c>
       <c r="C7" s="73">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D7" s="73">
         <v>0.98599999999999999</v>
@@ -16176,113 +16228,113 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J12" si="11">E7*F7</f>
+        <f t="shared" ref="J7:J12" si="26">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="21"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="15"/>
+        <v>373.13432835820896</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="15"/>
+        <v>220.65313327449252</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="16"/>
+        <v>11194.029850746268</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="17"/>
+        <v>6619.5939982347754</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="4"/>
+        <v>48.196517412935322</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="5"/>
+        <v>28.50102971462195</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="6"/>
-        <v>4.1588830833596715</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="4"/>
-        <v>373.13432835820896</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="4"/>
-        <v>220.65313327449252</v>
-      </c>
-      <c r="O7" s="3">
-        <f>M7*60/$W$19</f>
-        <v>11194.029850746268</v>
-      </c>
-      <c r="P7" s="3">
-        <f>N7*60/$W$19</f>
-        <v>6619.5939982347754</v>
-      </c>
-      <c r="Q7" s="3">
-        <f>O7/$W$27*100</f>
-        <v>48.196517412935322</v>
-      </c>
-      <c r="R7" s="3">
-        <f>P7/$W$27*100</f>
-        <v>28.50102971462195</v>
-      </c>
-      <c r="S7" s="3">
-        <f>K7</f>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="T7" s="4">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U12" si="12">T7*0.001341022</f>
+        <f t="shared" ref="U7:U12" si="27">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7">
-        <f>U7/O7*5252</f>
+        <f t="shared" si="18"/>
         <v>1.8863475936446713E-2</v>
       </c>
       <c r="W7">
-        <f>-V7/2/O7</f>
+        <f t="shared" si="19"/>
         <v>-8.4256859182795319E-7</v>
       </c>
       <c r="X7">
         <v>0.18</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y11" si="13">-X7*W7</f>
+        <f t="shared" ref="Y7:Y11" si="28">-X7*W7</f>
         <v>1.5166234652903156E-7</v>
       </c>
       <c r="Z7">
-        <f t="shared" ref="Z7:Z11" si="14">Y7/6.66*2048.5</f>
+        <f t="shared" ref="Z7:Z11" si="29">Y7/6.66*2048.5</f>
         <v>4.6648696225934108E-5</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA11" si="15">Z7*144</f>
+        <f t="shared" ref="AA7:AA11" si="30">Z7*144</f>
         <v>6.7174122565345114E-3</v>
       </c>
       <c r="AB7" s="97"/>
       <c r="AC7" s="95">
-        <f>C7/$AD$24*$AD$19</f>
-        <v>1.7777777777777779</v>
+        <f t="shared" si="8"/>
+        <v>0.97222222222222221</v>
       </c>
       <c r="AD7" s="95">
-        <f>AC7/$AD$19*$AD$24</f>
-        <v>64</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
       <c r="AE7" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD7)),0)</f>
-        <v>10427.811121209787</v>
+        <f t="shared" si="10"/>
+        <v>12038.723757973157</v>
       </c>
       <c r="AF7" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD7))/$AD$23,0)</f>
-        <v>44.897520105208805</v>
+        <f t="shared" si="14"/>
+        <v>51.833393957939982</v>
       </c>
       <c r="AG7" s="96">
-        <f>($AD$28+$AE$28*AF7*$AD$23)/$AD$23</f>
-        <v>23.961247225285735</v>
+        <f t="shared" si="11"/>
+        <v>31.062500992239318</v>
       </c>
       <c r="AH7" s="96">
-        <f>($AD$29+$AE$29*AG7*$AD$23)/$AD$23</f>
-        <v>45.030519179181418</v>
+        <f t="shared" si="12"/>
+        <v>51.895824726910469</v>
       </c>
       <c r="AI7">
-        <f>MAX(($AD$28+$AE$28*AF7*$AD$23)/$AD$23, 0)</f>
-        <v>23.961247225285735</v>
+        <f t="shared" si="13"/>
+        <v>31.062500992239318</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77">
-        <f t="shared" ref="B8:B9" si="16">C8/180+1</f>
-        <v>1.4094444444444445</v>
+      <c r="B8" s="113">
+        <f t="shared" ref="B8:B9" si="31">C8/180+1</f>
+        <v>1.3</v>
       </c>
       <c r="C8" s="73">
-        <v>73.7</v>
+        <v>54</v>
       </c>
       <c r="D8" s="73">
         <v>1.375</v>
@@ -16303,113 +16355,113 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J9" si="17">E8*F8</f>
+        <f t="shared" ref="J8:J9" si="32">E8*F8</f>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K9" si="18">C8</f>
-        <v>73.7</v>
+        <f t="shared" ref="K8:K9" si="33">C8</f>
+        <v>54</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L9" si="19">LN(K8)</f>
-        <v>4.3000027991952914</v>
+        <f t="shared" ref="L8:L9" si="34">LN(K8)</f>
+        <v>3.9889840465642745</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:M9" si="20">1/G8/0.000001</f>
+        <f t="shared" ref="M8:M9" si="35">1/G8/0.000001</f>
         <v>465.11627906976747</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N9" si="21">1/H8/0.000001</f>
+        <f t="shared" ref="N8:N9" si="36">1/H8/0.000001</f>
         <v>314.46540880503147</v>
       </c>
       <c r="O8" s="3">
-        <f>M8*60/$W$19</f>
+        <f t="shared" si="16"/>
         <v>13953.488372093025</v>
       </c>
       <c r="P8" s="3">
-        <f>N8*60/$W$19</f>
+        <f t="shared" si="17"/>
         <v>9433.962264150945</v>
       </c>
       <c r="Q8" s="3">
-        <f>O8/$W$27*100</f>
+        <f t="shared" si="4"/>
         <v>60.077519379844965</v>
       </c>
       <c r="R8" s="3">
-        <f>P8/$W$27*100</f>
+        <f t="shared" si="5"/>
         <v>40.618448637316575</v>
       </c>
       <c r="S8" s="3">
-        <f>K8</f>
-        <v>73.7</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="T8" s="4">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U9" si="22">T8*0.001341022</f>
+        <f t="shared" ref="U8:U9" si="37">T8*0.001341022</f>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8">
-        <f>U8/O8*5252</f>
+        <f t="shared" si="18"/>
         <v>2.7017644521254706E-2</v>
       </c>
       <c r="W8">
-        <f>-V8/2/O8</f>
+        <f t="shared" si="19"/>
         <v>-9.6813226201162682E-7</v>
       </c>
       <c r="X8">
         <v>0.18</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y9" si="23">-X8*W8</f>
+        <f t="shared" ref="Y8:Y9" si="38">-X8*W8</f>
         <v>1.7426380716209282E-7</v>
       </c>
       <c r="Z8">
-        <f t="shared" ref="Z8:Z9" si="24">Y8/6.66*2048.5</f>
+        <f t="shared" ref="Z8:Z9" si="39">Y8/6.66*2048.5</f>
         <v>5.3600511857589661E-5</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA9" si="25">Z8*144</f>
+        <f t="shared" ref="AA8:AA9" si="40">Z8*144</f>
         <v>7.7184737074929115E-3</v>
       </c>
       <c r="AB8" s="97"/>
       <c r="AC8" s="95">
-        <f>C8/$AD$24*$AD$19</f>
-        <v>2.0472222222222221</v>
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
       <c r="AD8" s="95">
-        <f>AC8/$AD$19*$AD$24</f>
-        <v>73.699999999999989</v>
+        <f t="shared" si="9"/>
+        <v>54</v>
       </c>
       <c r="AE8" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD8)),0)</f>
-        <v>12941.983270479002</v>
+        <f t="shared" si="10"/>
+        <v>14629.860093054345</v>
       </c>
       <c r="AF8" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD8))/$AD$23,0)</f>
-        <v>55.722427970117927</v>
+        <f t="shared" si="14"/>
+        <v>62.989675400650654</v>
       </c>
       <c r="AG8" s="96">
-        <f>($AD$28+$AE$28*AF8*$AD$23)/$AD$23</f>
-        <v>35.044265657396004</v>
+        <f t="shared" si="11"/>
+        <v>42.484794318558556</v>
       </c>
       <c r="AH8" s="96">
-        <f>($AD$29+$AE$29*AG8*$AD$23)/$AD$23</f>
-        <v>55.745290179428544</v>
+        <f t="shared" si="12"/>
+        <v>62.938597780014412</v>
       </c>
       <c r="AI8">
-        <f>MAX(($AD$28+$AE$28*AF8*$AD$23)/$AD$23, 0)</f>
-        <v>35.044265657396004</v>
+        <f t="shared" si="13"/>
+        <v>42.484794318558556</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77">
-        <f t="shared" si="16"/>
-        <v>1.4388888888888889</v>
+      <c r="B9" s="113">
+        <f t="shared" si="31"/>
+        <v>1.3555555555555556</v>
       </c>
       <c r="C9" s="73">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D9" s="73">
         <v>1.49</v>
@@ -16430,113 +16482,113 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="32"/>
+        <v>62.419400000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="34"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="35"/>
+        <v>495.04950495049508</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="36"/>
+        <v>350.87719298245611</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="16"/>
+        <v>14851.485148514852</v>
+      </c>
+      <c r="P9" s="3">
         <f t="shared" si="17"/>
+        <v>10526.315789473683</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="4"/>
+        <v>63.943894389438952</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="5"/>
+        <v>45.321637426900587</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
         <v>62.419400000000003</v>
       </c>
-      <c r="K9" s="1">
+      <c r="U9">
+        <f t="shared" si="37"/>
+        <v>8.3705788626800004E-2</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="18"/>
-        <v>79</v>
-      </c>
-      <c r="L9" s="1">
+        <v>2.9601268659108879E-2</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="19"/>
-        <v>4.3694478524670215</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="20"/>
-        <v>495.04950495049508</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="21"/>
-        <v>350.87719298245611</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M9*60/$W$19</f>
-        <v>14851.485148514852</v>
-      </c>
-      <c r="P9" s="3">
-        <f>N9*60/$W$19</f>
-        <v>10526.315789473683</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>O9/$W$27*100</f>
-        <v>63.943894389438952</v>
-      </c>
-      <c r="R9" s="3">
-        <f>P9/$W$27*100</f>
-        <v>45.321637426900587</v>
-      </c>
-      <c r="S9" s="3">
-        <f>K9</f>
-        <v>79</v>
-      </c>
-      <c r="T9" s="4">
-        <f>J9</f>
-        <v>62.419400000000003</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="22"/>
-        <v>8.3705788626800004E-2</v>
-      </c>
-      <c r="V9">
-        <f>U9/O9*5252</f>
-        <v>2.9601268659108879E-2</v>
-      </c>
-      <c r="W9">
-        <f>-V9/2/O9</f>
         <v>-9.9657604485666545E-7</v>
       </c>
       <c r="X9">
         <v>0.18</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>1.7938368807419976E-7</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="39"/>
         <v>5.5175298051050779E-5</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="40"/>
         <v>7.945242919351312E-3</v>
       </c>
       <c r="AB9" s="97"/>
       <c r="AC9" s="95">
-        <f>C9/$AD$24*$AD$19</f>
-        <v>2.1944444444444446</v>
+        <f t="shared" si="8"/>
+        <v>1.7777777777777779</v>
       </c>
       <c r="AD9" s="95">
-        <f>AC9/$AD$19*$AD$24</f>
-        <v>79.000000000000014</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="AE9" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD9)),0)</f>
-        <v>14179.208117527873</v>
+        <f t="shared" si="10"/>
+        <v>15645.070044921804</v>
       </c>
       <c r="AF9" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD9))/$AD$23,0)</f>
-        <v>61.049368283800568</v>
+        <f t="shared" si="14"/>
+        <v>67.36071824896888</v>
       </c>
       <c r="AG9" s="96">
-        <f>($AD$28+$AE$28*AF9*$AD$23)/$AD$23</f>
-        <v>40.4982222563875</v>
+        <f t="shared" si="11"/>
+        <v>46.960060903736228</v>
       </c>
       <c r="AH9" s="96">
-        <f>($AD$29+$AE$29*AG9*$AD$23)/$AD$23</f>
-        <v>61.018032109927496</v>
+        <f t="shared" si="12"/>
+        <v>67.265167921439911</v>
       </c>
       <c r="AI9">
-        <f>MAX(($AD$28+$AE$28*AF9*$AD$23)/$AD$23, 0)</f>
-        <v>40.4982222563875</v>
+        <f t="shared" si="13"/>
+        <v>46.960060903736228</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+      <c r="B10" s="113">
+        <f t="shared" si="20"/>
+        <v>1.4944444444444445</v>
       </c>
       <c r="C10" s="73">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="73">
         <v>1.81</v>
@@ -16557,113 +16609,113 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4886363697321396</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="15"/>
+        <v>564.9717514124294</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="15"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="16"/>
+        <v>16949.152542372882</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="17"/>
+        <v>12500</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="4"/>
+        <v>72.975517890772139</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="5"/>
+        <v>53.81944444444445</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="6"/>
-        <v>4.499809670330265</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="4"/>
-        <v>564.9717514124294</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>416.66666666666669</v>
-      </c>
-      <c r="O10" s="3">
-        <f>M10*60/$W$19</f>
-        <v>16949.152542372882</v>
-      </c>
-      <c r="P10" s="3">
-        <f>N10*60/$W$19</f>
-        <v>12500</v>
-      </c>
-      <c r="Q10" s="3">
-        <f>O10/$W$27*100</f>
-        <v>72.975517890772139</v>
-      </c>
-      <c r="R10" s="3">
-        <f>P10/$W$27*100</f>
-        <v>53.81944444444445</v>
-      </c>
-      <c r="S10" s="3">
-        <f>K10</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T10" s="4">
-        <f>J10</f>
+        <f t="shared" si="0"/>
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10">
-        <f>U10/O10*5252</f>
+        <f t="shared" si="18"/>
         <v>3.6943358602157333E-2</v>
       </c>
       <c r="W10">
-        <f>-V10/2/O10</f>
+        <f t="shared" si="19"/>
         <v>-1.0898290787636412E-6</v>
       </c>
       <c r="X10">
         <v>0.18</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>1.961692341774554E-7</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>6.0338239671549158E-5</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>8.6887065127030788E-3</v>
       </c>
       <c r="AB10" s="97"/>
       <c r="AC10" s="95">
-        <f>C10/$AD$24*$AD$19</f>
-        <v>2.5</v>
+        <f t="shared" si="8"/>
+        <v>2.4722222222222223</v>
       </c>
       <c r="AD10" s="95">
-        <f>AC10/$AD$19*$AD$24</f>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>89</v>
       </c>
       <c r="AE10" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD10)),0)</f>
-        <v>16501.718830217011</v>
+        <f t="shared" si="10"/>
+        <v>17615.468608096002</v>
       </c>
       <c r="AF10" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD10))/$AD$23,0)</f>
-        <v>71.049067185656583</v>
+        <f t="shared" si="14"/>
+        <v>75.844378729302235</v>
       </c>
       <c r="AG10" s="96">
-        <f>($AD$28+$AE$28*AF10*$AD$23)/$AD$23</f>
-        <v>50.736355331319999</v>
+        <f t="shared" si="11"/>
+        <v>55.646006931978896</v>
       </c>
       <c r="AH10" s="96">
-        <f>($AD$29+$AE$29*AG10*$AD$23)/$AD$23</f>
-        <v>70.915990147255272</v>
+        <f t="shared" si="12"/>
+        <v>75.662512307648399</v>
       </c>
       <c r="AI10">
-        <f>MAX(($AD$28+$AE$28*AF10*$AD$23)/$AD$23, 0)</f>
-        <v>50.736355331319999</v>
+        <f t="shared" si="13"/>
+        <v>55.646006931978896</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77">
-        <f t="shared" si="5"/>
-        <v>1.6666666666666665</v>
+      <c r="B11" s="113">
+        <f t="shared" si="20"/>
+        <v>1.8111111111111111</v>
       </c>
       <c r="C11" s="73">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D11" s="73">
         <v>2.35</v>
@@ -16684,113 +16736,113 @@
         <v>14.4</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>169.11679999999998</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>146</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="21"/>
+        <v>4.9836066217083363</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="15"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="15"/>
+        <v>537.34551316496515</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="16"/>
+        <v>20833.333333333332</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="17"/>
+        <v>16120.365394948954</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="4"/>
+        <v>89.699074074074076</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="5"/>
+        <v>69.407128783808005</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="6"/>
-        <v>4.7874917427820458</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="4"/>
-        <v>694.44444444444446</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="4"/>
-        <v>537.34551316496515</v>
-      </c>
-      <c r="O11" s="3">
-        <f>M11*60/$W$19</f>
-        <v>20833.333333333332</v>
-      </c>
-      <c r="P11" s="3">
-        <f>N11*60/$W$19</f>
-        <v>16120.365394948954</v>
-      </c>
-      <c r="Q11" s="3">
-        <f>O11/$W$27*100</f>
-        <v>89.699074074074076</v>
-      </c>
-      <c r="R11" s="3">
-        <f>P11/$W$27*100</f>
-        <v>69.407128783808005</v>
-      </c>
-      <c r="S11" s="3">
-        <f>K11</f>
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="T11" s="4">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>169.11679999999998</v>
       </c>
       <c r="U11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0.22678934936959999</v>
       </c>
       <c r="V11">
-        <f>U11/O11*5252</f>
+        <f t="shared" si="18"/>
         <v>5.717268781867868E-2</v>
       </c>
       <c r="W11">
-        <f>-V11/2/O11</f>
+        <f t="shared" si="19"/>
         <v>-1.3721445076482885E-6</v>
       </c>
       <c r="X11">
         <v>0.14000000000000001</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>1.9210023107076041E-7</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>5.9086685187455361E-5</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>8.5084826669935727E-3</v>
       </c>
       <c r="AB11" s="97"/>
       <c r="AC11" s="95">
-        <f>C11/$AD$24*$AD$19</f>
-        <v>3.333333333333333</v>
+        <f t="shared" si="8"/>
+        <v>4.0555555555555554</v>
       </c>
       <c r="AD11" s="95">
-        <f>AC11/$AD$19*$AD$24</f>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>146</v>
       </c>
       <c r="AE11" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD11)),0)</f>
-        <v>21627.02857251282</v>
+        <f t="shared" si="10"/>
+        <v>20573.100005910928</v>
       </c>
       <c r="AF11" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD11))/$AD$23,0)</f>
-        <v>93.116373020541303</v>
+        <f t="shared" si="14"/>
+        <v>88.578625025449838</v>
       </c>
       <c r="AG11" s="96">
-        <f>($AD$28+$AE$28*AF11*$AD$23)/$AD$23</f>
-        <v>73.329836991137853</v>
+        <f t="shared" si="11"/>
+        <v>68.68389031912038</v>
       </c>
       <c r="AH11" s="96">
-        <f>($AD$29+$AE$29*AG11*$AD$23)/$AD$23</f>
-        <v>92.758774544496191</v>
+        <f t="shared" si="12"/>
+        <v>88.267195379942819</v>
       </c>
       <c r="AI11">
-        <f>MAX(($AD$28+$AE$28*AF11*$AD$23)/$AD$23, 0)</f>
-        <v>73.329836991137853</v>
+        <f t="shared" si="13"/>
+        <v>68.68389031912038</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="77">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
+      <c r="B12" s="113">
+        <f t="shared" si="20"/>
+        <v>1.9166666666666665</v>
       </c>
       <c r="C12" s="73">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D12" s="73">
         <v>2.91</v>
@@ -16811,94 +16863,94 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>241.61249999999998</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1059454739005803</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="15"/>
+        <v>773.99380804953569</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="15"/>
+        <v>606.06060606060612</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="16"/>
+        <v>23219.81424148607</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="17"/>
+        <v>18181.818181818184</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="4"/>
+        <v>99.974200206398365</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="5"/>
+        <v>78.282828282828305</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="6"/>
-        <v>4.9052747784384296</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="4"/>
-        <v>773.99380804953569</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="4"/>
-        <v>606.06060606060612</v>
-      </c>
-      <c r="O12" s="3">
-        <f>M12*60/$W$19</f>
-        <v>23219.81424148607</v>
-      </c>
-      <c r="P12" s="3">
-        <f>N12*60/$W$19</f>
-        <v>18181.818181818184</v>
-      </c>
-      <c r="Q12" s="3">
-        <f>O12/$W$27*100</f>
-        <v>99.974200206398365</v>
-      </c>
-      <c r="R12" s="3">
-        <f>P12/$W$27*100</f>
-        <v>78.282828282828305</v>
-      </c>
-      <c r="S12" s="3">
-        <f>K12</f>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="T12" s="4">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>241.61249999999998</v>
       </c>
       <c r="U12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>0.32400767797500002</v>
       </c>
       <c r="V12">
-        <f>U12/O12*5252</f>
+        <f t="shared" si="18"/>
         <v>7.3286043851477078E-2</v>
       </c>
       <c r="W12">
-        <f>-V12/2/O12</f>
+        <f t="shared" si="19"/>
         <v>-1.5780928109351396E-6</v>
       </c>
       <c r="AB12" s="97"/>
       <c r="AC12" s="95">
-        <f>C12/$AD$24*$AD$19</f>
-        <v>3.75</v>
+        <f t="shared" si="8"/>
+        <v>4.583333333333333</v>
       </c>
       <c r="AD12" s="95">
-        <f>AC12/$AD$19*$AD$24</f>
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>165</v>
       </c>
       <c r="AE12" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD12)),0)</f>
-        <v>23725.437190686353</v>
+        <f t="shared" si="10"/>
+        <v>21304.120161105675</v>
       </c>
       <c r="AF12" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD12))/$AD$23,0)</f>
-        <v>102.15118790434403</v>
+        <f t="shared" si="14"/>
+        <v>91.726072915871654</v>
       </c>
       <c r="AG12" s="96">
-        <f>($AD$28+$AE$28*AF12*$AD$23)/$AD$23</f>
-        <v>82.580079222989909</v>
+        <f t="shared" si="11"/>
+        <v>71.906386382734198</v>
       </c>
       <c r="AH12" s="96">
-        <f>($AD$29+$AE$29*AG12*$AD$23)/$AD$23</f>
-        <v>101.70166567277863</v>
+        <f t="shared" si="12"/>
+        <v>91.382619899203988</v>
       </c>
       <c r="AI12">
-        <f>MAX(($AD$28+$AE$28*AF12*$AD$23)/$AD$23, 0)</f>
-        <v>82.580079222989909</v>
+        <f t="shared" si="13"/>
+        <v>71.906386382734198</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="C13" s="117">
@@ -16911,343 +16963,825 @@
       <c r="H13" s="117"/>
       <c r="I13" s="118"/>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1929568508902104</v>
+      </c>
+      <c r="O13" s="3">
+        <f>AF13*$AD$30</f>
+        <v>21824.045509193093</v>
+      </c>
+      <c r="P13" s="3">
+        <f>N13*60/$W$26</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="4"/>
+        <v>93.964640386803595</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="6"/>
-        <v>5.1929568508902104</v>
-      </c>
-      <c r="O13" s="3">
-        <f>AF13*$AD$23</f>
-        <v>28850.746932982162</v>
-      </c>
-      <c r="P13" s="3">
-        <f>N13*60/$W$19</f>
+        <v>180</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
-        <f>O13/$W$27*100</f>
-        <v>124.21849373922875</v>
-      </c>
-      <c r="R13" s="3">
-        <f>P13/$W$27*100</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <f>K13</f>
-        <v>180</v>
-      </c>
-      <c r="T13" s="4">
-        <f>J13</f>
-        <v>0</v>
-      </c>
       <c r="U13">
-        <f t="shared" ref="U13" si="26">T13*0.001341022</f>
+        <f t="shared" ref="U13" si="41">T13*0.001341022</f>
         <v>0</v>
       </c>
       <c r="AB13" s="97"/>
       <c r="AC13" s="95">
-        <f>C13/$AD$24*$AD$19</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AD13" s="95">
-        <f>AC13/$AD$19*$AD$24</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="AE13" s="96">
-        <f>MAX(($AD$27+$AE$27*LN($AD13)),0)</f>
-        <v>28850.746932982162</v>
+        <f t="shared" si="10"/>
+        <v>21824.045509193093</v>
       </c>
       <c r="AF13" s="96">
-        <f>MAX(($AD$27+$AE$27*LN(AD13))/$AD$23,0)</f>
-        <v>124.21849373922875</v>
+        <f t="shared" si="14"/>
+        <v>93.964640386803595</v>
       </c>
       <c r="AG13" s="96">
-        <f>($AD$28+$AE$28*AF13*$AD$23)/$AD$23</f>
-        <v>105.17356088280772</v>
+        <f t="shared" si="11"/>
+        <v>74.198330559209566</v>
       </c>
       <c r="AH13" s="96">
-        <f>($AD$29+$AE$29*AG13*$AD$23)/$AD$23</f>
-        <v>123.54445007001949</v>
+        <f t="shared" si="12"/>
+        <v>93.598411305373091</v>
       </c>
       <c r="AI13">
-        <f>MAX(($AD$28+$AE$28*AF13*$AD$23)/$AD$23, 0)</f>
-        <v>105.17356088280772</v>
+        <f t="shared" si="13"/>
+        <v>74.198330559209566</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X15" t="s">
-        <v>65</v>
+      <c r="B15" s="120">
+        <f t="shared" si="20"/>
+        <v>1.05</v>
+      </c>
+      <c r="C15" s="73">
+        <v>9</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="73">
+        <v>13.8</v>
+      </c>
+      <c r="F15" s="73">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G15" s="73">
+        <v>6160</v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15" si="42">E15*F15</f>
+        <v>5.8512000000000004</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15" si="43">C15</f>
+        <v>9</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15" si="44">LN(K15)</f>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15" si="45">1/G15/0.000001</f>
+        <v>162.33766233766235</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <f t="shared" ref="O15" si="46">M15*60/$W$26</f>
+        <v>4870.1298701298701</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
+        <f t="shared" ref="Q15" si="47">O15/$W$34*100</f>
+        <v>20.96861471861472</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <f t="shared" ref="S15" si="48">K15</f>
+        <v>9</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" ref="T15" si="49">J15</f>
+        <v>5.8512000000000004</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15" si="50">T15*0.001341022</f>
+        <v>7.8465879264000005E-3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15" si="51">U15/O15*5252</f>
+        <v>8.461844116767642E-3</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15" si="52">-V15/2/O15</f>
+        <v>-8.6874932932147796E-7</v>
+      </c>
+      <c r="X15">
+        <v>0.18</v>
       </c>
       <c r="Y15">
-        <f>AVERAGE(Y7:Y11)</f>
-        <v>1.7871586140270802E-7</v>
+        <f t="shared" ref="Y15" si="53">-X15*W15</f>
+        <v>1.5637487927786602E-7</v>
       </c>
       <c r="Z15">
-        <f>AVERAGE(Z7:Z11)</f>
-        <v>5.4969886198715812E-5</v>
+        <f t="shared" ref="Z15" si="54">Y15/6.66*2048.5</f>
+        <v>4.8098189219325605E-5</v>
       </c>
       <c r="AA15">
-        <f>AVERAGE(AA7:AA11)</f>
-        <v>7.9156636126150766E-3</v>
-      </c>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
+        <f t="shared" ref="AA15" si="55">Z15*144</f>
+        <v>6.9261392475828869E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="120">
+        <f t="shared" si="20"/>
+        <v>1.0722222222222222</v>
+      </c>
+      <c r="C16" s="73">
+        <v>13</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="73">
+        <v>13.8</v>
+      </c>
+      <c r="F16" s="73">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G16" s="73">
+        <v>5080</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16:J24" si="56">E16*F16</f>
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:K24" si="57">C16</f>
+        <v>13</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16:L24" si="58">LN(K16)</f>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ref="M16:M24" si="59">1/G16/0.000001</f>
+        <v>196.85039370078741</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <f t="shared" ref="O16:O24" si="60">M16*60/$W$26</f>
+        <v>5905.5118110236226</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16:Q24" si="61">O16/$W$34*100</f>
+        <v>25.426509186351709</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <f t="shared" ref="S16:S24" si="62">K16</f>
+        <v>13</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16:T24" si="63">J16</f>
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U24" si="64">T16*0.001341022</f>
+        <v>1.0455948534E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V24" si="65">U16/O16*5252</f>
+        <v>9.2988793279628473E-3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:W24" si="66">-V16/2/O16</f>
+        <v>-7.873051164341877E-7</v>
+      </c>
+      <c r="X16">
+        <v>0.18</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ref="Y16:Y24" si="67">-X16*W16</f>
+        <v>1.4171492095815379E-7</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ref="Z16:Z24" si="68">Y16/6.66*2048.5</f>
+        <v>4.3589041378795503E-5</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16:AA24" si="69">Z16*144</f>
+        <v>6.2768219585465522E-3</v>
+      </c>
+    </row>
     <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-      <c r="M17" s="3"/>
+      <c r="B17" s="120">
+        <f t="shared" si="20"/>
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="C17" s="73">
+        <v>26</v>
+      </c>
+      <c r="D17" s="119"/>
+      <c r="E17" s="73">
+        <v>13.75</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1.32</v>
+      </c>
+      <c r="G17" s="73">
+        <v>3180</v>
+      </c>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="2">
+        <f t="shared" si="56"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="57"/>
+        <v>26</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="58"/>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="59"/>
+        <v>314.46540880503147</v>
+      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <f t="shared" si="60"/>
+        <v>9433.962264150945</v>
+      </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="61"/>
+        <v>40.618448637316575</v>
+      </c>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3">
+        <f t="shared" si="62"/>
+        <v>26</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="63"/>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="64"/>
+        <v>2.4339549300000006E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="65"/>
+        <v>1.3550119169901601E-2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="66"/>
+        <v>-7.1815631600478467E-7</v>
+      </c>
+      <c r="X17">
+        <v>0.18</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="67"/>
+        <v>1.2926813688086123E-7</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="68"/>
+        <v>3.9760627387454087E-5</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="69"/>
+        <v>5.7255303437933882E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="M18" s="3"/>
+    <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="120">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="73">
+        <v>36</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="73">
+        <v>13.71</v>
+      </c>
+      <c r="F18" s="73">
+        <v>2.08</v>
+      </c>
+      <c r="G18" s="73">
+        <v>2650</v>
+      </c>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="2">
+        <f t="shared" si="56"/>
+        <v>28.516800000000003</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="57"/>
+        <v>36</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="58"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="59"/>
+        <v>377.35849056603774</v>
+      </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3">
+        <f t="shared" si="60"/>
+        <v>11320.754716981133</v>
+      </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="61"/>
+        <v>48.742138364779883</v>
+      </c>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="S18" s="3">
+        <f t="shared" si="62"/>
+        <v>36</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="63"/>
+        <v>28.516800000000003</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="64"/>
+        <v>3.8241656169600007E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="65"/>
+        <v>1.7741324074575297E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="66"/>
+        <v>-7.8357514662707549E-7</v>
+      </c>
+      <c r="X18">
+        <v>0.18</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="67"/>
+        <v>1.4104352639287358E-7</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="68"/>
+        <v>4.3382532104474698E-5</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="69"/>
+        <v>6.2470846230443565E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="B19" s="120">
+        <f t="shared" si="20"/>
+        <v>1.3111111111111111</v>
+      </c>
+      <c r="C19" s="73">
+        <v>56</v>
+      </c>
+      <c r="D19" s="119"/>
+      <c r="E19" s="73">
+        <v>13.6</v>
+      </c>
+      <c r="F19" s="73">
+        <v>3.8</v>
+      </c>
+      <c r="G19" s="73">
+        <v>2070</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="2">
+        <f t="shared" si="56"/>
+        <v>51.68</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="57"/>
+        <v>56</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="58"/>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="59"/>
+        <v>483.09178743961354</v>
+      </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <f t="shared" si="60"/>
+        <v>14492.753623188406</v>
+      </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="61"/>
+        <v>62.399355877616756</v>
+      </c>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W19" s="18">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="63">
-        <f>W32</f>
-        <v>5</v>
-      </c>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="29"/>
+      <c r="S19" s="3">
+        <f t="shared" si="62"/>
+        <v>56</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="63"/>
+        <v>51.68</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="64"/>
+        <v>6.9304016960000006E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="65"/>
+        <v>2.5114944098100479E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="66"/>
+        <v>-8.6646557138446648E-7</v>
+      </c>
+      <c r="X19">
+        <v>0.18</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="67"/>
+        <v>1.5596380284920397E-7</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="68"/>
+        <v>4.7971749269758907E-5</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="69"/>
+        <v>6.9079318948452829E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="M20" s="3"/>
+    <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="120">
+        <f t="shared" si="20"/>
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="C20" s="73">
+        <v>64</v>
+      </c>
+      <c r="D20" s="119"/>
+      <c r="E20" s="73">
+        <v>13.55</v>
+      </c>
+      <c r="F20" s="73">
+        <v>4.38</v>
+      </c>
+      <c r="G20" s="73">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="2">
+        <f t="shared" si="56"/>
+        <v>59.349000000000004</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="57"/>
+        <v>64</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="58"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="59"/>
+        <v>500.00000000000006</v>
+      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3">
+        <f t="shared" si="60"/>
+        <v>15000.000000000002</v>
+      </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="61"/>
+        <v>64.583333333333343</v>
+      </c>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="20">
-        <v>4800</v>
-      </c>
-      <c r="Y20" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD20" s="66">
-        <f>W31</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="31"/>
+      <c r="S20" s="3">
+        <f t="shared" si="62"/>
+        <v>64</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="63"/>
+        <v>59.349000000000004</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="64"/>
+        <v>7.9588314678000011E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="65"/>
+        <v>2.7866521912590401E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="66"/>
+        <v>-9.2888406375301325E-7</v>
+      </c>
+      <c r="X20">
+        <v>0.18</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="67"/>
+        <v>1.6719913147554239E-7</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="68"/>
+        <v>5.1427540664812096E-5</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="69"/>
+        <v>7.4055658557329422E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="2"/>
-      <c r="M21" s="3"/>
+    <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="120">
+        <f t="shared" si="20"/>
+        <v>1.4944444444444445</v>
+      </c>
+      <c r="C21" s="73">
+        <v>89</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="73">
+        <v>13.42</v>
+      </c>
+      <c r="F21" s="73">
+        <v>6.3</v>
+      </c>
+      <c r="G21" s="73">
+        <v>1760</v>
+      </c>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="2">
+        <f t="shared" si="56"/>
+        <v>84.545999999999992</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="57"/>
+        <v>89</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="58"/>
+        <v>4.4886363697321396</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="59"/>
+        <v>568.18181818181813</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
+      <c r="O21" s="3">
+        <f t="shared" si="60"/>
+        <v>17045.454545454544</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="61"/>
+        <v>73.390151515151516</v>
+      </c>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="22">
-        <v>12</v>
-      </c>
-      <c r="Y21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z21" s="27">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD21" s="66">
-        <f>Z21</f>
-        <v>5</v>
-      </c>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="31"/>
+      <c r="S21" s="3">
+        <f t="shared" si="62"/>
+        <v>89</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="63"/>
+        <v>84.545999999999992</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="64"/>
+        <v>0.11337804601199999</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="65"/>
+        <v>3.4933741195761404E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="66"/>
+        <v>-1.0247230750756679E-6</v>
+      </c>
+      <c r="X21">
+        <v>0.18</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="67"/>
+        <v>1.844501535136202E-7</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="68"/>
+        <v>5.6733654575473117E-5</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="69"/>
+        <v>8.1696462588681292E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="M22" s="3"/>
+      <c r="B22" s="120">
+        <f t="shared" si="20"/>
+        <v>1.7944444444444443</v>
+      </c>
+      <c r="C22" s="73">
+        <v>143</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="73">
+        <v>13.1</v>
+      </c>
+      <c r="F22" s="73">
+        <v>11.7</v>
+      </c>
+      <c r="G22" s="73">
+        <v>1430</v>
+      </c>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="2">
+        <f t="shared" si="56"/>
+        <v>153.26999999999998</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="57"/>
+        <v>143</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="58"/>
+        <v>4.962844630259907</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="59"/>
+        <v>699.30069930069931</v>
+      </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="3">
+        <f t="shared" si="60"/>
+        <v>20979.020979020977</v>
+      </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="61"/>
+        <v>90.326340326340329</v>
+      </c>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD22" s="66">
-        <f>Z20</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="31"/>
+      <c r="S22" s="3">
+        <f t="shared" si="62"/>
+        <v>143</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="63"/>
+        <v>153.26999999999998</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="64"/>
+        <v>0.20553844193999998</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="65"/>
+        <v>5.1455589760283277E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="66"/>
+        <v>-1.226358222620085E-6</v>
+      </c>
+      <c r="X22">
+        <v>0.18</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="67"/>
+        <v>2.2074448007161529E-7</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="68"/>
+        <v>6.7897157271276857E-5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="69"/>
+        <v>9.7771906470638676E-3</v>
+      </c>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
     </row>
-    <row r="23" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="M23" s="3"/>
+    <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="120">
+        <f t="shared" si="20"/>
+        <v>1.9166666666666665</v>
+      </c>
+      <c r="C23" s="73">
+        <v>165</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="73">
+        <v>12.72</v>
+      </c>
+      <c r="F23" s="73">
+        <v>16.86</v>
+      </c>
+      <c r="G23" s="73">
+        <v>1280</v>
+      </c>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="2">
+        <f t="shared" si="56"/>
+        <v>214.45920000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="57"/>
+        <v>165</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="58"/>
+        <v>5.1059454739005803</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="59"/>
+        <v>781.25000000000011</v>
+      </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="3">
+        <f t="shared" si="60"/>
+        <v>23437.500000000004</v>
+      </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="61"/>
+        <v>100.91145833333334</v>
+      </c>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB23" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC23" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD23" s="66">
-        <f>W27/100</f>
-        <v>232.25806451612902</v>
-      </c>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="31"/>
+      <c r="S23" s="3">
+        <f t="shared" si="62"/>
+        <v>165</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="63"/>
+        <v>214.45920000000001</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="64"/>
+        <v>0.28759450530240005</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="65"/>
+        <v>6.4445710585523411E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="66"/>
+        <v>-1.3748418258244993E-6</v>
+      </c>
+      <c r="X23">
+        <v>0.18</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="67"/>
+        <v>2.4747152864840988E-7</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="68"/>
+        <v>7.6117931897337472E-5</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="69"/>
+        <v>1.0960982193216597E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -17264,28 +17798,9 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="34">
-        <v>240</v>
-      </c>
-      <c r="W24" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="37"/>
-      <c r="AC24" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD24" s="66">
-        <f>Y32</f>
-        <v>180</v>
-      </c>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="31"/>
+      <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -17303,22 +17818,29 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="V25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="AC25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD25" s="66">
-        <f>Y31</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="31"/>
+      <c r="V25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+    <row r="26" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -17333,68 +17855,118 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="V26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC26" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD26" s="66">
-        <f>W40</f>
+      <c r="V26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD26" s="63">
+        <f>W39</f>
+        <v>5</v>
+      </c>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="29"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="V27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="20">
+        <v>4800</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="25">
         <v>0</v>
       </c>
-      <c r="AE26" s="67">
-        <f>W39</f>
-        <v>7538.711197196546</v>
-      </c>
-      <c r="AF26" s="68">
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD27" s="66">
         <f>W38</f>
-        <v>-396.83873454558267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V27" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="W27" s="39">
-        <f>W20*W21/X27</f>
-        <v>23225.806451612902</v>
-      </c>
-      <c r="X27" s="40">
-        <v>2.48</v>
-      </c>
-      <c r="Y27" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z27" s="41"/>
-      <c r="AC27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD27" s="66">
-        <f>W42</f>
-        <v>-63666.357495381133</v>
-      </c>
-      <c r="AE27" s="67">
-        <f>W41</f>
-        <v>17815.881603657734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="45"/>
       <c r="AF27" s="31"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="V28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="22">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="27">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="30"/>
       <c r="AC28" s="65" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AD28" s="66">
-        <f>Z41</f>
-        <v>-5111.2603560094558</v>
-      </c>
-      <c r="AE28" s="69">
-        <f>Z40</f>
-        <v>1.0238441352501362</v>
-      </c>
+        <f>Z28</f>
+        <v>5</v>
+      </c>
+      <c r="AE28" s="30"/>
       <c r="AF28" s="31"/>
     </row>
-    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -17402,34 +17974,28 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="V29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC29" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD29" s="71">
-        <f>Z39</f>
-        <v>5078.4189614630086</v>
-      </c>
-      <c r="AE29" s="72">
-        <f>Z38</f>
-        <v>0.96677372377219584</v>
-      </c>
-      <c r="AF29" s="33"/>
+      <c r="J29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="66">
+        <f>Z27</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="31"/>
     </row>
-    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -17437,30 +18003,33 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z30" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="J30" s="2"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="V30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB30" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC30" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30" s="66">
+        <f>W34/100</f>
+        <v>232.25806451612902</v>
+      </c>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="31"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -17468,41 +18037,37 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="V31" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="W31" s="58">
-        <v>0</v>
-      </c>
-      <c r="X31" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y31" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="89">
-        <f>Z41/W27*100</f>
-        <v>-22.006815421707383</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>70</v>
-      </c>
+      <c r="J31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="34">
+        <v>240</v>
+      </c>
+      <c r="W31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="37"/>
+      <c r="AC31" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="66">
+        <f>Y39</f>
+        <v>180</v>
+      </c>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="31"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -17510,155 +18075,109 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="V32" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="W32" s="58">
-        <v>5</v>
-      </c>
-      <c r="X32" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y32" s="59">
-        <v>180</v>
-      </c>
-      <c r="Z32" s="60">
-        <v>77</v>
-      </c>
+      <c r="J32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="V32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="AC32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD32" s="66">
+        <f>Y38</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="31"/>
     </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="33" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="89">
-        <f>(Z32-Z31)/(W32-W31)</f>
-        <v>19.801363084341478</v>
+      <c r="J33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC33" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD33" s="66">
+        <f>W47</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="67">
+        <f>W46</f>
+        <v>7538.711197196546</v>
+      </c>
+      <c r="AF33" s="68">
+        <f>W45</f>
+        <v>-396.83873454558267</v>
       </c>
     </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B34" s="73">
-        <v>87</v>
-      </c>
-      <c r="C34" s="6">
-        <f>B34/180*(2.4-0.53)+0.53</f>
-        <v>1.4338333333333333</v>
-      </c>
-      <c r="D34" s="88">
-        <f>(C34-1)*180</f>
-        <v>78.089999999999989</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="89">
-        <f>Z32-Z33*(W32-W31)</f>
-        <v>-22.006815421707387</v>
-      </c>
+    <row r="34" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V34" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="39">
+        <f>W27*W28/X34</f>
+        <v>23225.806451612902</v>
+      </c>
+      <c r="X34" s="40">
+        <v>2.48</v>
+      </c>
+      <c r="Y34" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z34" s="41"/>
+      <c r="AC34" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="66">
+        <f>W49</f>
+        <v>-9205.8035946064356</v>
+      </c>
+      <c r="AE34" s="67">
+        <f>W48</f>
+        <v>5975.3720269176101</v>
+      </c>
+      <c r="AF34" s="31"/>
     </row>
-    <row r="35" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="73">
-        <v>90</v>
-      </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:C40" si="27">B35/180*(2.4-0.53)+0.53</f>
-        <v>1.4649999999999999</v>
-      </c>
-      <c r="D35" s="88">
-        <f t="shared" ref="D35:D40" si="28">(C35-1)*180</f>
-        <v>83.699999999999974</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="48" t="s">
-        <v>19</v>
-      </c>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AC35" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD35" s="66">
+        <f>Z48</f>
+        <v>-5111.2603560094558</v>
+      </c>
+      <c r="AE35" s="69">
+        <f>Z47</f>
+        <v>1.0238441352501362</v>
+      </c>
+      <c r="AF35" s="31"/>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B36" s="73">
-        <v>100</v>
-      </c>
-      <c r="C36" s="6">
-        <f t="shared" si="27"/>
-        <v>1.568888888888889</v>
-      </c>
-      <c r="D36" s="88">
-        <f t="shared" si="28"/>
-        <v>102.40000000000002</v>
-      </c>
+    <row r="36" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -17675,166 +18194,428 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC36" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD36" s="71">
+        <f>Z46</f>
+        <v>5078.4189614630086</v>
+      </c>
+      <c r="AE36" s="72">
+        <f>Z45</f>
+        <v>0.96677372377219584</v>
+      </c>
+      <c r="AF36" s="33"/>
     </row>
-    <row r="37" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="73">
-        <v>110</v>
-      </c>
-      <c r="C37" s="6">
-        <f t="shared" si="27"/>
-        <v>1.6727777777777779</v>
-      </c>
-      <c r="D37" s="88">
-        <f t="shared" si="28"/>
-        <v>121.10000000000002</v>
-      </c>
+    <row r="37" spans="2:41" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" t="s">
-        <v>51</v>
+      <c r="J37" s="9"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z37" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B38" s="73">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="V38" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="W38" s="58">
+        <v>0</v>
+      </c>
+      <c r="X38" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="89">
+        <f>Z48/W34*100</f>
+        <v>-22.006815421707383</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="V39" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="W39" s="58">
+        <v>5</v>
+      </c>
+      <c r="X39" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" s="59">
+        <v>180</v>
+      </c>
+      <c r="Z39" s="60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="89">
+        <f>(Z39-Z38)/(W39-W38)</f>
+        <v>19.801363084341478</v>
+      </c>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B41" s="73">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6">
+        <f>B41/180*(2.4-0.53)+0.53</f>
+        <v>1.4338333333333333</v>
+      </c>
+      <c r="D41" s="88">
+        <f>(C41-1)*180</f>
+        <v>78.089999999999989</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="89">
+        <f>Z39-Z40*(W39-W38)</f>
+        <v>-22.006815421707387</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="73">
+        <v>90</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C47" si="70">B42/180*(2.4-0.53)+0.53</f>
+        <v>1.4649999999999999</v>
+      </c>
+      <c r="D42" s="88">
+        <f t="shared" ref="D42:D47" si="71">(C42-1)*180</f>
+        <v>83.699999999999974</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B43" s="73">
+        <v>100</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="70"/>
+        <v>1.568888888888889</v>
+      </c>
+      <c r="D43" s="88">
+        <f t="shared" si="71"/>
+        <v>102.40000000000002</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="73">
+        <v>110</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="70"/>
+        <v>1.6727777777777779</v>
+      </c>
+      <c r="D44" s="88">
+        <f t="shared" si="71"/>
+        <v>121.10000000000002</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="2"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="V44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B45" s="73">
         <v>114</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" si="27"/>
+      <c r="C45" s="6">
+        <f t="shared" si="70"/>
         <v>1.7143333333333333</v>
       </c>
-      <c r="D38" s="88">
-        <f t="shared" si="28"/>
+      <c r="D45" s="88">
+        <f t="shared" si="71"/>
         <v>128.57999999999998</v>
       </c>
-      <c r="V38" s="49" t="s">
+      <c r="V45" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W38" s="50">
+      <c r="W45" s="50">
         <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),1)</f>
         <v>-396.83873454558267</v>
       </c>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="51" t="s">
+      <c r="X45" s="28"/>
+      <c r="Y45" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Z38" s="52">
+      <c r="Z45" s="52">
         <f>INDEX(LINEST($O$4:$O$12,$P$4:$P$12),1)</f>
         <v>0.96677372377219584</v>
       </c>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="104"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
     </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B39" s="73">
+    <row r="46" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B46" s="73">
         <v>127.5</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="27"/>
+      <c r="C46" s="6">
+        <f t="shared" si="70"/>
         <v>1.8545833333333333</v>
       </c>
-      <c r="D39" s="88">
-        <f t="shared" si="28"/>
+      <c r="D46" s="88">
+        <f t="shared" si="71"/>
         <v>153.82499999999999</v>
       </c>
-      <c r="V39" s="43"/>
-      <c r="W39" s="54">
+      <c r="V46" s="43"/>
+      <c r="W46" s="54">
         <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),2)</f>
         <v>7538.711197196546</v>
       </c>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="46">
+      <c r="X46" s="30"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="46">
         <f>INDEX(LINEST($O$4:$O$12,$P$4:$P$12),2)</f>
         <v>5078.4189614630086</v>
       </c>
     </row>
-    <row r="40" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="80">
+    <row r="47" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="80">
         <v>136.4</v>
       </c>
-      <c r="C40" s="6">
-        <f t="shared" si="27"/>
+      <c r="C47" s="6">
+        <f t="shared" si="70"/>
         <v>1.9470444444444444</v>
       </c>
-      <c r="D40" s="88">
-        <f t="shared" si="28"/>
+      <c r="D47" s="88">
+        <f t="shared" si="71"/>
         <v>170.46799999999999</v>
       </c>
-      <c r="V40" s="43"/>
-      <c r="W40" s="54">
+      <c r="V47" s="43"/>
+      <c r="W47" s="54">
         <f>INDEX(LINEST($P$4:$P$12,$D$4:$D$12^{1,2},FALSE,FALSE),3)</f>
         <v>0</v>
       </c>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="44" t="s">
+      <c r="X47" s="30"/>
+      <c r="Y47" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Z40" s="46">
+      <c r="Z47" s="46">
         <f>INDEX(LINEST($P$4:$P$12,$O$4:$O$12),1)</f>
         <v>1.0238441352501362</v>
       </c>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="V41" s="43" t="s">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="V48" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="W41" s="54">
+      <c r="W48" s="54">
         <f>INDEX(LINEST($O$4:$O$12,$L$4:$L$12),1)</f>
-        <v>17815.881603657734</v>
-      </c>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="46">
+        <v>5975.3720269176101</v>
+      </c>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="46">
         <f>INDEX(LINEST($P$4:$P$12,$O$4:$O$12),2)</f>
         <v>-5111.2603560094558</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AA48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="V42" s="43"/>
-      <c r="W42" s="54">
+    <row r="49" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V49" s="43"/>
+      <c r="W49" s="54">
         <f>INDEX(LINEST($O$4:$O$12,$L$4:$L$12),2)</f>
-        <v>-63666.357495381133</v>
-      </c>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="31"/>
+        <v>-9205.8035946064356</v>
+      </c>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="31"/>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="V43" s="19"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="31"/>
+    <row r="50" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V50" s="19"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="31"/>
     </row>
-    <row r="44" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V44" s="107" t="s">
+    <row r="51" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V51" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="W44" s="108">
-        <f>EXP((0-$AD$27)/$AE$27)</f>
-        <v>35.643728970875671</v>
-      </c>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" t="s">
+      <c r="W51" s="108">
+        <f>EXP((0-$AD$34)/$AE$34)</f>
+        <v>4.6675034779253295</v>
+      </c>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" t="s">
         <v>86</v>
       </c>
     </row>

--- a/myESC-Particle-DEV/saves/calibration20161012.xlsx
+++ b/myESC-Particle-DEV/saves/calibration20161012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="99">
   <si>
     <t>throttleFlt, deg</t>
   </si>
@@ -289,18 +289,50 @@
   <si>
     <t>Model Ng from Model Throttle, rpm</t>
   </si>
+  <si>
+    <t>Charger Pwr noFan, W</t>
+  </si>
+  <si>
+    <t>P_NG_SHP_NOFAN</t>
+  </si>
+  <si>
+    <t>Model Power from NG</t>
+  </si>
+  <si>
+    <t>P_NG_SHP</t>
+  </si>
+  <si>
+    <t>Model Power from NG No Fan</t>
+  </si>
+  <si>
+    <t>Model Power from NG Fan</t>
+  </si>
+  <si>
+    <t>Back Pressure Torque, ft-lbf</t>
+  </si>
+  <si>
+    <t>Back Pressure Effect, shp</t>
+  </si>
+  <si>
+    <t>Model Power from NG NoFan</t>
+  </si>
+  <si>
+    <t>Back Pressure Power</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +343,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -697,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,6 +980,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,11 +1282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137647952"/>
-        <c:axId val="137646776"/>
+        <c:axId val="210273776"/>
+        <c:axId val="210274168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137647952"/>
+        <c:axId val="210273776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,12 +1399,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137646776"/>
+        <c:crossAx val="210274168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137646776"/>
+        <c:axId val="210274168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137647952"/>
+        <c:crossAx val="210273776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,6 +1567,893 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Use to Determine 100% Ng</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoHiTec!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ng, %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="60"/>
+            <c:backward val="8"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$J$2:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$P$2:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>27.192101740294518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.26475694444445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.58385744234802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.272108843537424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.708333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.164075993091544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.10973084886129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.176609848484858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211042888"/>
+        <c:axId val="211043280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211042888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power, watts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211043280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211043280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211042888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Between Speeds is Linear</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoHiTec!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fan,RPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$N$3:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7812.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9433.962264150945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12244.897959183674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15544.041450777202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18633.540372670806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21306.818181818184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoHiTec!$O$3:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3278.688524590164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4950.4950495049507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7812.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10067.114093959732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10869.565217391306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13761.467889908257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15957.44680851064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211038576"/>
+        <c:axId val="211816576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211038576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211816576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211816576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211038576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1768,8 +2702,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209161400"/>
-        <c:axId val="209159048"/>
+        <c:axId val="211813832"/>
+        <c:axId val="211815400"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1937,11 +2871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209155520"/>
-        <c:axId val="209160616"/>
+        <c:axId val="211814224"/>
+        <c:axId val="211819712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209161400"/>
+        <c:axId val="211813832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2060,12 +2994,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209159048"/>
+        <c:crossAx val="211815400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209159048"/>
+        <c:axId val="211815400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,12 +3111,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209161400"/>
+        <c:crossAx val="211813832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209160616"/>
+        <c:axId val="211819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,12 +3159,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209155520"/>
+        <c:crossAx val="211814224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209155520"/>
+        <c:axId val="211814224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +3174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209160616"/>
+        <c:crossAx val="211819712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2330,7 +3264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2494,11 +3428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209156696"/>
-        <c:axId val="209158264"/>
+        <c:axId val="211815008"/>
+        <c:axId val="211819320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209156696"/>
+        <c:axId val="211815008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2528,12 +3462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209158264"/>
+        <c:crossAx val="211819320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209158264"/>
+        <c:axId val="211819320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +3496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209156696"/>
+        <c:crossAx val="211815008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2579,7 +3513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2697,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209161008"/>
-        <c:axId val="208967784"/>
+        <c:axId val="211817752"/>
+        <c:axId val="211814616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209161008"/>
+        <c:axId val="211817752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,12 +3663,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208967784"/>
+        <c:crossAx val="211814616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208967784"/>
+        <c:axId val="211814616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +3679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209161008"/>
+        <c:crossAx val="211817752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,7 +3700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2944,11 +3878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208971312"/>
-        <c:axId val="208970920"/>
+        <c:axId val="211820888"/>
+        <c:axId val="211818144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208971312"/>
+        <c:axId val="211820888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3007,12 +3941,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208970920"/>
+        <c:crossAx val="211818144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208970920"/>
+        <c:axId val="211818144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,7 +4003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208971312"/>
+        <c:crossAx val="211820888"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3118,7 +4052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3332,11 +4266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208969352"/>
-        <c:axId val="208963864"/>
+        <c:axId val="211817360"/>
+        <c:axId val="211818928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208969352"/>
+        <c:axId val="211817360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,12 +4327,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208963864"/>
+        <c:crossAx val="211818928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208963864"/>
+        <c:axId val="211818928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +4389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208969352"/>
+        <c:crossAx val="211817360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3504,7 +4438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3721,11 +4655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208964648"/>
-        <c:axId val="208968568"/>
+        <c:axId val="211813440"/>
+        <c:axId val="516773376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208964648"/>
+        <c:axId val="211813440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,12 +4716,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208968568"/>
+        <c:crossAx val="516773376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208968568"/>
+        <c:axId val="516773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +4778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208964648"/>
+        <c:crossAx val="211813440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3893,7 +4827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4117,11 +5051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208965040"/>
-        <c:axId val="208967392"/>
+        <c:axId val="516765928"/>
+        <c:axId val="516772984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208965040"/>
+        <c:axId val="516765928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,12 +5167,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208967392"/>
+        <c:crossAx val="516772984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208967392"/>
+        <c:axId val="516772984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4351,7 +5285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208965040"/>
+        <c:crossAx val="516765928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4638,11 +5572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137647168"/>
-        <c:axId val="137647560"/>
+        <c:axId val="210276912"/>
+        <c:axId val="210275344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137647168"/>
+        <c:axId val="210276912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,12 +5633,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137647560"/>
+        <c:crossAx val="210275344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137647560"/>
+        <c:axId val="210275344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4761,7 +5695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137647168"/>
+        <c:crossAx val="210276912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5066,8 +6000,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137646384"/>
-        <c:axId val="137651872"/>
+        <c:axId val="210278088"/>
+        <c:axId val="207628360"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5241,11 +6175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137650696"/>
-        <c:axId val="137651088"/>
+        <c:axId val="211042104"/>
+        <c:axId val="207627968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137646384"/>
+        <c:axId val="210278088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -5365,13 +6299,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137651872"/>
+        <c:crossAx val="207628360"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137651872"/>
+        <c:axId val="207628360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,12 +6418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137646384"/>
+        <c:crossAx val="210278088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137651088"/>
+        <c:axId val="207627968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="320"/>
@@ -5590,13 +6524,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137650696"/>
+        <c:crossAx val="211042104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137650696"/>
+        <c:axId val="211042104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5606,7 +6540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137651088"/>
+        <c:crossAx val="207627968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5868,11 +6802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137651480"/>
-        <c:axId val="137648736"/>
+        <c:axId val="211037400"/>
+        <c:axId val="211040144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137651480"/>
+        <c:axId val="211037400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5903,12 +6837,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137648736"/>
+        <c:crossAx val="211040144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137648736"/>
+        <c:axId val="211040144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,7 +6872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137651480"/>
+        <c:crossAx val="211037400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6080,11 +7014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137652656"/>
-        <c:axId val="137649912"/>
+        <c:axId val="211044848"/>
+        <c:axId val="211044064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137652656"/>
+        <c:axId val="211044848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,12 +7047,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137649912"/>
+        <c:crossAx val="211044064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137649912"/>
+        <c:axId val="211044064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,7 +7063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137652656"/>
+        <c:crossAx val="211044848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6166,6 +7100,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6323,11 +7258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137653048"/>
-        <c:axId val="137653440"/>
+        <c:axId val="211040928"/>
+        <c:axId val="211041320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137653048"/>
+        <c:axId val="211040928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6386,12 +7321,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137653440"/>
+        <c:crossAx val="211041320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137653440"/>
+        <c:axId val="211041320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6448,7 +7383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137653048"/>
+        <c:crossAx val="211040928"/>
         <c:crossesAt val="-20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6947,11 +7882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209157088"/>
-        <c:axId val="209156304"/>
+        <c:axId val="211044456"/>
+        <c:axId val="211039752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209157088"/>
+        <c:axId val="211044456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,12 +7993,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209156304"/>
+        <c:crossAx val="211039752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209156304"/>
+        <c:axId val="211039752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10000"/>
@@ -7115,7 +8050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209157088"/>
+        <c:crossAx val="211044456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7240,11 +8175,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Use to Determine 100% Ng</a:t>
+              <a:t>Effect of Fan</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Backpressure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7276,7 +8217,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247530767514812E-2"/>
+          <c:y val="0.14669721730198101"/>
+          <c:w val="0.86675884805056802"/>
+          <c:h val="0.68838228870744322"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7285,17 +8236,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoHiTec!$P$1</c:f>
+              <c:f>CalArduinoTurnigy!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ng, %</c:v>
+                  <c:v>Charger Pwr, W</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -7326,74 +8277,276 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="60"/>
-            <c:backward val="8"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7005121195293681E-2"/>
+                  <c:y val="0.11218085046363549"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$J$2:$J$34</c:f>
+              <c:f>CalArduinoTurnigy!$O$4:$O$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.16</c:v>
+                  <c:v>4477.6119402985078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.64</c:v>
+                  <c:v>6493.5064935064938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.12</c:v>
+                  <c:v>9202.4539877300613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>11194.029850746268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.199999999999996</c:v>
+                  <c:v>13953.488372093025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.800000000000011</c:v>
+                  <c:v>14851.485148514852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.39999999999999</c:v>
+                  <c:v>16949.152542372882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156</c:v>
+                  <c:v>20833.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23219.81424148607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$P$2:$P$34</c:f>
+              <c:f>CalArduinoTurnigy!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.9340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3968000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.3796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.981099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.526600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.419400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.904499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.11679999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.61249999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CalArduinoTurnigy!$T$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charger Pwr noFan, W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11121014936424087"/>
+                  <c:y val="0.34026664743539742"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CalArduinoTurnigy!$O$15:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.192101740294518</c:v>
+                  <c:v>4870.1298701298701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.26475694444445</c:v>
+                  <c:v>5905.5118110236226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.58385744234802</c:v>
+                  <c:v>9433.962264150945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.272108843537424</c:v>
+                  <c:v>11320.754716981133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.708333333333343</c:v>
+                  <c:v>14492.753623188406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.164075993091544</c:v>
+                  <c:v>15000.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.10973084886129</c:v>
+                  <c:v>17045.454545454544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.176609848484858</c:v>
+                  <c:v>20979.020979020977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23437.500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CalArduinoTurnigy!$T$15:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.8512000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.516800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.349000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.545999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.26999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214.45920000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7408,11 +8561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209162576"/>
-        <c:axId val="209158656"/>
+        <c:axId val="208913688"/>
+        <c:axId val="208924272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209162576"/>
+        <c:axId val="208913688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,11 +8606,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Power, watts</a:t>
+                  <a:t>Ng, rpm</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7468,123 +8622,6 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="209158656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="209158656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ng, %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -7641,7 +8678,69 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209162576"/>
+        <c:crossAx val="208924272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208924272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208913688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7653,6 +8752,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3804872492204294E-2"/>
+          <c:y val="0.1912524430905779"/>
+          <c:w val="0.45366267507700786"/>
+          <c:h val="0.16963973985671141"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7705,36 +8845,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Correlation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Between Speeds is Linear</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7775,18 +8886,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CalArduinoHiTec!$O$1</c:f>
+              <c:f>CalArduinoTurnigy!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fan,RPM</c:v>
+                  <c:v>Back Pressure Torque, ft-lbf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7806,106 +8919,74 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$N$3:$N$9</c:f>
+              <c:f>CalArduinoTurnigy!$O$2:$O$12</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7812.5000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9433.962264150945</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12244.897959183674</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15000.000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15544.041450777202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18633.540372670806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21306.818181818184</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>4477.6119402985078</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>6493.5064935064938</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>9202.4539877300613</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>11194.029850746268</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>13953.488372093025</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>14851.485148514852</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>16949.152542372882</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>20833.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>23219.81424148607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CalArduinoHiTec!$O$3:$O$9</c:f>
+              <c:f>CalArduinoTurnigy!$AN$2:$AN$12</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3278.688524590164</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4950.4950495049507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7812.5000000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10067.114093959732</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="4">
-                  <c:v>10869.565217391306</c:v>
+                  <c:v>6.4512088674778589E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13761.467889908257</c:v>
+                  <c:v>0.64530812657094261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15957.44680851064</c:v>
+                  <c:v>1.7699937526841907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1856611295898758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2193949163420301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2889455688704601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6245247644312304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7920,11 +9001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209161792"/>
-        <c:axId val="209157872"/>
+        <c:axId val="528921776"/>
+        <c:axId val="528921384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209161792"/>
+        <c:axId val="528921776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7944,7 +9025,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ng, RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7981,12 +9118,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209157872"/>
+        <c:crossAx val="528921384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209157872"/>
+        <c:axId val="528921384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,7 +9143,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8043,7 +9180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209161792"/>
+        <c:crossAx val="528921776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8213,6 +9350,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10636,6 +11853,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14882,16 +17131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>634365</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>510541</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14971,6 +17220,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>15246</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15548,11 +17857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15573,18 +17882,20 @@
     <col min="18" max="18" width="4.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="7.77734375" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
     <col min="27" max="27" width="7.88671875" customWidth="1"/>
-    <col min="28" max="32" width="10" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" customWidth="1"/>
+    <col min="29" max="32" width="10" customWidth="1"/>
     <col min="33" max="34" width="11.5546875" customWidth="1"/>
     <col min="35" max="35" width="8.6640625" customWidth="1"/>
     <col min="37" max="37" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -15667,7 +17978,6 @@
       <c r="AA1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="4"/>
       <c r="AC1" s="4" t="s">
         <v>87</v>
       </c>
@@ -15689,8 +17999,20 @@
       <c r="AI1" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="AK1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B2" s="113">
         <f t="shared" ref="B2" si="1">C2/180+1</f>
         <v>1.0000055555555556</v>
@@ -15745,7 +18067,6 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="97"/>
       <c r="AC2" s="95">
         <f t="shared" ref="AC2:AC13" si="8">C2/$AD$31*$AD$26</f>
         <v>2.7777777777777779E-5</v>
@@ -15774,8 +18095,10 @@
         <f t="shared" ref="AI2:AI13" si="13">MAX(($AD$35+$AE$35*AF2*$AD$30)/$AD$30, 0)</f>
         <v>0</v>
       </c>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B3" s="113">
         <f>C3/180+1</f>
         <v>1.0259305748773628</v>
@@ -15831,7 +18154,6 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="97"/>
       <c r="AC3" s="95">
         <f t="shared" si="8"/>
         <v>0.12965287438681469</v>
@@ -15860,8 +18182,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="AK3" s="97">
+        <f>$W$65+$X$65*$O3+$O3^2*$Y$65</f>
+        <v>42.005705947307973</v>
+      </c>
+      <c r="AL3" s="97">
+        <f>$W$64+$X$64*$O3+$O3^2*$Y$64</f>
+        <v>35.326501767589406</v>
+      </c>
+      <c r="AM3" s="97">
+        <f>AK3-AL3</f>
+        <v>6.6792041797185675</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B4" s="113">
         <f>C4/180+1</f>
         <v>1.0444444444444445</v>
@@ -15947,7 +18281,6 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="97"/>
       <c r="AC4" s="95">
         <f t="shared" si="8"/>
         <v>0.22222222222222224</v>
@@ -15976,10 +18309,22 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="AK4" s="97">
+        <f>$W$65+$X$65*O4+O4^2*$Y$65</f>
+        <v>10.797311049896059</v>
+      </c>
+      <c r="AL4" s="97">
+        <f t="shared" ref="AL4:AL12" si="20">$W$64+$X$64*$O4+$O4^2*$Y$64</f>
+        <v>9.859441326692183</v>
+      </c>
+      <c r="AM4" s="97">
+        <f t="shared" ref="AM4:AM12" si="21">AK4-AL4</f>
+        <v>0.9378697232038764</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113">
-        <f t="shared" ref="B5:B23" si="20">C5/180+1</f>
+        <f t="shared" ref="B5:B23" si="22">C5/180+1</f>
         <v>1.0722222222222222</v>
       </c>
       <c r="C5" s="73">
@@ -16012,7 +18357,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L13" si="21">LN(K5)</f>
+        <f t="shared" ref="L5:L13" si="23">LN(K5)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M5" s="3">
@@ -16059,7 +18404,6 @@
         <f t="shared" si="19"/>
         <v>-6.1775453488307925E-7</v>
       </c>
-      <c r="AB5" s="97"/>
       <c r="AC5" s="95">
         <f t="shared" si="8"/>
         <v>0.36111111111111105</v>
@@ -16088,10 +18432,22 @@
         <f t="shared" si="13"/>
         <v>4.9746648882778732</v>
       </c>
+      <c r="AK5" s="97">
+        <f>$W$65+$X$65*O5+O5^2*$Y$65</f>
+        <v>7.4192738226801325</v>
+      </c>
+      <c r="AL5" s="97">
+        <f t="shared" si="20"/>
+        <v>7.4906362770663897</v>
+      </c>
+      <c r="AM5" s="97">
+        <f t="shared" si="21"/>
+        <v>-7.1362454386257212E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="C6" s="73">
@@ -16120,19 +18476,19 @@
         <v>20.3796</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6" si="22">C6</f>
+        <f t="shared" ref="K6" si="24">C6</f>
         <v>25</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6" si="23">LN(K6)</f>
+        <f t="shared" ref="L6" si="25">LN(K6)</f>
         <v>3.2188758248682006</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6" si="24">1/G6/0.000001</f>
+        <f t="shared" ref="M6" si="26">1/G6/0.000001</f>
         <v>306.74846625766872</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6" si="25">1/H6/0.000001</f>
+        <f t="shared" ref="N6" si="27">1/H6/0.000001</f>
         <v>156.00624024960999</v>
       </c>
       <c r="O6" s="3">
@@ -16171,7 +18527,6 @@
         <f t="shared" si="19"/>
         <v>-8.4745953571407239E-7</v>
       </c>
-      <c r="AB6" s="97"/>
       <c r="AC6" s="95">
         <f t="shared" si="8"/>
         <v>0.69444444444444442</v>
@@ -16200,10 +18555,26 @@
         <f t="shared" si="13"/>
         <v>22.199572833298117</v>
       </c>
+      <c r="AK6" s="97">
+        <f>$W$65+$X$65*O6+O6^2*$Y$65</f>
+        <v>13.315230924736014</v>
+      </c>
+      <c r="AL6" s="97">
+        <f t="shared" si="20"/>
+        <v>13.20219407635787</v>
+      </c>
+      <c r="AM6" s="97">
+        <f t="shared" si="21"/>
+        <v>0.11303684837814387</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN3:AN12" si="28">AM6/O6*5252</f>
+        <v>6.4512088674778589E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1944444444444444</v>
       </c>
       <c r="C7" s="73">
@@ -16228,7 +18599,7 @@
         <v>6.04</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J12" si="26">E7*F7</f>
+        <f t="shared" ref="J7:J12" si="29">E7*F7</f>
         <v>29.981099999999998</v>
       </c>
       <c r="K7" s="1">
@@ -16236,7 +18607,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5553480614894135</v>
       </c>
       <c r="M7" s="3">
@@ -16272,7 +18643,7 @@
         <v>29.981099999999998</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U12" si="27">T7*0.001341022</f>
+        <f t="shared" ref="U7:U12" si="30">T7*0.001341022</f>
         <v>4.0205314684200001E-2</v>
       </c>
       <c r="V7">
@@ -16287,18 +18658,17 @@
         <v>0.18</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y11" si="28">-X7*W7</f>
+        <f t="shared" ref="Y7:Y11" si="31">-X7*W7</f>
         <v>1.5166234652903156E-7</v>
       </c>
       <c r="Z7">
-        <f t="shared" ref="Z7:Z11" si="29">Y7/6.66*2048.5</f>
+        <f t="shared" ref="Z7:Z11" si="32">Y7/6.66*2048.5</f>
         <v>4.6648696225934108E-5</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA11" si="30">Z7*144</f>
+        <f t="shared" ref="AA7:AA11" si="33">Z7*144</f>
         <v>6.7174122565345114E-3</v>
       </c>
-      <c r="AB7" s="97"/>
       <c r="AC7" s="95">
         <f t="shared" si="8"/>
         <v>0.97222222222222221</v>
@@ -16327,10 +18697,26 @@
         <f t="shared" si="13"/>
         <v>31.062500992239318</v>
       </c>
+      <c r="AK7" s="97">
+        <f>$W$65+$X$65*O7+O7^2*$Y$65</f>
+        <v>25.282261169401892</v>
+      </c>
+      <c r="AL7" s="97">
+        <f t="shared" si="20"/>
+        <v>23.90686162032263</v>
+      </c>
+      <c r="AM7" s="97">
+        <f t="shared" si="21"/>
+        <v>1.3753995490792619</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="28"/>
+        <v>0.64530812657094261</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="113">
-        <f t="shared" ref="B8:B9" si="31">C8/180+1</f>
+        <f t="shared" ref="B8:B9" si="34">C8/180+1</f>
         <v>1.3</v>
       </c>
       <c r="C8" s="73">
@@ -16355,23 +18741,23 @@
         <v>8.24</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J9" si="32">E8*F8</f>
+        <f t="shared" ref="J8:J9" si="35">E8*F8</f>
         <v>53.526600000000002</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K9" si="33">C8</f>
+        <f t="shared" ref="K8:K9" si="36">C8</f>
         <v>54</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L9" si="34">LN(K8)</f>
+        <f t="shared" ref="L8:L9" si="37">LN(K8)</f>
         <v>3.9889840465642745</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:M9" si="35">1/G8/0.000001</f>
+        <f t="shared" ref="M8:M9" si="38">1/G8/0.000001</f>
         <v>465.11627906976747</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N9" si="36">1/H8/0.000001</f>
+        <f t="shared" ref="N8:N9" si="39">1/H8/0.000001</f>
         <v>314.46540880503147</v>
       </c>
       <c r="O8" s="3">
@@ -16399,7 +18785,7 @@
         <v>53.526600000000002</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U9" si="37">T8*0.001341022</f>
+        <f t="shared" ref="U8:U9" si="40">T8*0.001341022</f>
         <v>7.1780348185200002E-2</v>
       </c>
       <c r="V8">
@@ -16414,18 +18800,17 @@
         <v>0.18</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y9" si="38">-X8*W8</f>
+        <f t="shared" ref="Y8:Y9" si="41">-X8*W8</f>
         <v>1.7426380716209282E-7</v>
       </c>
       <c r="Z8">
-        <f t="shared" ref="Z8:Z9" si="39">Y8/6.66*2048.5</f>
+        <f t="shared" ref="Z8:Z9" si="42">Y8/6.66*2048.5</f>
         <v>5.3600511857589661E-5</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA9" si="40">Z8*144</f>
+        <f t="shared" ref="AA8:AA9" si="43">Z8*144</f>
         <v>7.7184737074929115E-3</v>
       </c>
-      <c r="AB8" s="97"/>
       <c r="AC8" s="95">
         <f t="shared" si="8"/>
         <v>1.5</v>
@@ -16454,10 +18839,26 @@
         <f t="shared" si="13"/>
         <v>42.484794318558556</v>
       </c>
+      <c r="AK8" s="97">
+        <f>$W$65+$X$65*O8+O8^2*$Y$65</f>
+        <v>52.552212538977358</v>
+      </c>
+      <c r="AL8" s="97">
+        <f t="shared" si="20"/>
+        <v>47.849701638985707</v>
+      </c>
+      <c r="AM8" s="97">
+        <f t="shared" si="21"/>
+        <v>4.7025108999916512</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="28"/>
+        <v>1.7699937526841907</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C9" s="73">
@@ -16482,23 +18883,23 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>62.419400000000003</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>64</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>495.04950495049508</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>350.87719298245611</v>
       </c>
       <c r="O9" s="3">
@@ -16526,7 +18927,7 @@
         <v>62.419400000000003</v>
       </c>
       <c r="U9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>8.3705788626800004E-2</v>
       </c>
       <c r="V9">
@@ -16541,18 +18942,17 @@
         <v>0.18</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.7938368807419976E-7</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5.5175298051050779E-5</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>7.945242919351312E-3</v>
       </c>
-      <c r="AB9" s="97"/>
       <c r="AC9" s="95">
         <f t="shared" si="8"/>
         <v>1.7777777777777779</v>
@@ -16581,10 +18981,26 @@
         <f t="shared" si="13"/>
         <v>46.960060903736228</v>
       </c>
+      <c r="AK9" s="97">
+        <f>$W$65+$X$65*O9+O9^2*$Y$65</f>
+        <v>64.104302785604773</v>
+      </c>
+      <c r="AL9" s="97">
+        <f t="shared" si="20"/>
+        <v>57.923740370183936</v>
+      </c>
+      <c r="AM9" s="97">
+        <f t="shared" si="21"/>
+        <v>6.1805624154208374</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="28"/>
+        <v>2.1856611295898758</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C10" s="73">
@@ -16609,7 +19025,7 @@
         <v>10.8</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>88.904499999999999</v>
       </c>
       <c r="K10" s="1">
@@ -16617,7 +19033,7 @@
         <v>89</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M10" s="3">
@@ -16653,7 +19069,7 @@
         <v>88.904499999999999</v>
       </c>
       <c r="U10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11922289039900001</v>
       </c>
       <c r="V10">
@@ -16668,18 +19084,17 @@
         <v>0.18</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.961692341774554E-7</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>6.0338239671549158E-5</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8.6887065127030788E-3</v>
       </c>
-      <c r="AB10" s="97"/>
       <c r="AC10" s="95">
         <f t="shared" si="8"/>
         <v>2.4722222222222223</v>
@@ -16708,10 +19123,26 @@
         <f t="shared" si="13"/>
         <v>55.646006931978896</v>
       </c>
+      <c r="AK10" s="97">
+        <f>$W$65+$X$65*O10+O10^2*$Y$65</f>
+        <v>96.212589333349598</v>
+      </c>
+      <c r="AL10" s="97">
+        <f t="shared" si="20"/>
+        <v>85.82302049648348</v>
+      </c>
+      <c r="AM10" s="97">
+        <f t="shared" si="21"/>
+        <v>10.389568836866118</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="28"/>
+        <v>3.2193949163420301</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8111111111111111</v>
       </c>
       <c r="C11" s="73">
@@ -16736,7 +19167,7 @@
         <v>14.4</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>169.11679999999998</v>
       </c>
       <c r="K11" s="1">
@@ -16744,7 +19175,7 @@
         <v>146</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9836066217083363</v>
       </c>
       <c r="M11" s="3">
@@ -16780,7 +19211,7 @@
         <v>169.11679999999998</v>
       </c>
       <c r="U11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.22678934936959999</v>
       </c>
       <c r="V11">
@@ -16795,18 +19226,17 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.9210023107076041E-7</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5.9086685187455361E-5</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8.5084826669935727E-3</v>
       </c>
-      <c r="AB11" s="97"/>
       <c r="AC11" s="95">
         <f t="shared" si="8"/>
         <v>4.0555555555555554</v>
@@ -16835,10 +19265,26 @@
         <f t="shared" si="13"/>
         <v>68.68389031912038</v>
       </c>
+      <c r="AK11" s="97">
+        <f>$W$65+$X$65*O11+O11^2*$Y$65</f>
+        <v>174.60964938675588</v>
+      </c>
+      <c r="AL11" s="97">
+        <f t="shared" si="20"/>
+        <v>153.6297624830745</v>
+      </c>
+      <c r="AM11" s="97">
+        <f t="shared" si="21"/>
+        <v>20.979886903681376</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="28"/>
+        <v>5.2889455688704601</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C12" s="73">
@@ -16863,7 +19309,7 @@
         <v>15.8</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>241.61249999999998</v>
       </c>
       <c r="K12" s="1">
@@ -16871,7 +19317,7 @@
         <v>165</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M12" s="3">
@@ -16907,7 +19353,7 @@
         <v>241.61249999999998</v>
       </c>
       <c r="U12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.32400767797500002</v>
       </c>
       <c r="V12">
@@ -16918,7 +19364,6 @@
         <f t="shared" si="19"/>
         <v>-1.5780928109351396E-6</v>
       </c>
-      <c r="AB12" s="97"/>
       <c r="AC12" s="95">
         <f t="shared" si="8"/>
         <v>4.583333333333333</v>
@@ -16947,10 +19392,26 @@
         <f t="shared" si="13"/>
         <v>71.906386382734198</v>
       </c>
+      <c r="AK12" s="97">
+        <f>$W$65+$X$65*O12+O12^2*$Y$65</f>
+        <v>234.97846898859822</v>
+      </c>
+      <c r="AL12" s="97">
+        <f t="shared" si="20"/>
+        <v>205.69053401749818</v>
+      </c>
+      <c r="AM12" s="97">
+        <f t="shared" si="21"/>
+        <v>29.287934971100043</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="28"/>
+        <v>6.6245247644312304</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="C13" s="117">
@@ -16967,7 +19428,7 @@
         <v>180</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.1929568508902104</v>
       </c>
       <c r="O13" s="3">
@@ -16995,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13" si="41">T13*0.001341022</f>
+        <f t="shared" ref="U13" si="44">T13*0.001341022</f>
         <v>0</v>
       </c>
       <c r="AB13" s="97"/>
@@ -17028,10 +19489,29 @@
         <v>74.198330559209566</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.05</v>
       </c>
       <c r="C15" s="73">
@@ -17050,71 +19530,87 @@
       <c r="H15" s="119"/>
       <c r="I15" s="119"/>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="42">E15*F15</f>
+        <f t="shared" ref="J15" si="45">E15*F15</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15" si="43">C15</f>
+        <f t="shared" ref="K15" si="46">C15</f>
         <v>9</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15" si="44">LN(K15)</f>
+        <f t="shared" ref="L15" si="47">LN(K15)</f>
         <v>2.1972245773362196</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" ref="M15" si="45">1/G15/0.000001</f>
+        <f t="shared" ref="M15" si="48">1/G15/0.000001</f>
         <v>162.33766233766235</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3">
-        <f t="shared" ref="O15" si="46">M15*60/$W$26</f>
+        <f t="shared" ref="O15" si="49">M15*60/$W$26</f>
         <v>4870.1298701298701</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="47">O15/$W$34*100</f>
+        <f t="shared" ref="Q15" si="50">O15/$W$34*100</f>
         <v>20.96861471861472</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3">
-        <f t="shared" ref="S15" si="48">K15</f>
+        <f t="shared" ref="S15" si="51">K15</f>
         <v>9</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15" si="49">J15</f>
+        <f t="shared" ref="T15" si="52">J15</f>
         <v>5.8512000000000004</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15" si="50">T15*0.001341022</f>
+        <f t="shared" ref="U15" si="53">T15*0.001341022</f>
         <v>7.8465879264000005E-3</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15" si="51">U15/O15*5252</f>
+        <f t="shared" ref="V15" si="54">U15/O15*5252</f>
         <v>8.461844116767642E-3</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15" si="52">-V15/2/O15</f>
+        <f t="shared" ref="W15" si="55">-V15/2/O15</f>
         <v>-8.6874932932147796E-7</v>
       </c>
       <c r="X15">
         <v>0.18</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15" si="53">-X15*W15</f>
+        <f t="shared" ref="Y15" si="56">-X15*W15</f>
         <v>1.5637487927786602E-7</v>
       </c>
       <c r="Z15">
-        <f t="shared" ref="Z15" si="54">Y15/6.66*2048.5</f>
+        <f t="shared" ref="Z15" si="57">Y15/6.66*2048.5</f>
         <v>4.8098189219325605E-5</v>
       </c>
       <c r="AA15">
-        <f t="shared" ref="AA15" si="55">Z15*144</f>
+        <f t="shared" ref="AA15" si="58">Z15*144</f>
         <v>6.9261392475828869E-3</v>
       </c>
+      <c r="AB15" s="97">
+        <f>$W$64+$X$64*$O15+$O15^2*$Y$64</f>
+        <v>8.9553905571368411</v>
+      </c>
+      <c r="AC15" s="97">
+        <f>$W$65+$X$65*$O15+$O15^2*$Y$65</f>
+        <v>9.6200537179282612</v>
+      </c>
+      <c r="AD15" s="97">
+        <f>AC15-AB15</f>
+        <v>0.66466316079142018</v>
+      </c>
+      <c r="AE15" s="96">
+        <f>AD15/O15*5252</f>
+        <v>0.7167798423378493</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0722222222222222</v>
       </c>
       <c r="C16" s="73">
@@ -17133,71 +19629,87 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J24" si="56">E16*F16</f>
+        <f t="shared" ref="J16:J23" si="59">E16*F16</f>
         <v>7.7969999999999997</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:K24" si="57">C16</f>
+        <f t="shared" ref="K16:K23" si="60">C16</f>
         <v>13</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ref="L16:L24" si="58">LN(K16)</f>
+        <f t="shared" ref="L16:L23" si="61">LN(K16)</f>
         <v>2.5649493574615367</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16:M24" si="59">1/G16/0.000001</f>
+        <f t="shared" ref="M16:M23" si="62">1/G16/0.000001</f>
         <v>196.85039370078741</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3">
-        <f t="shared" ref="O16:O24" si="60">M16*60/$W$26</f>
+        <f t="shared" ref="O16:O23" si="63">M16*60/$W$26</f>
         <v>5905.5118110236226</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:Q24" si="61">O16/$W$34*100</f>
+        <f t="shared" ref="Q16:Q23" si="64">O16/$W$34*100</f>
         <v>25.426509186351709</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:S24" si="62">K16</f>
+        <f t="shared" ref="S16:S23" si="65">K16</f>
         <v>13</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16:T24" si="63">J16</f>
+        <f t="shared" ref="T16:T23" si="66">J16</f>
         <v>7.7969999999999997</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U24" si="64">T16*0.001341022</f>
+        <f t="shared" ref="U16:U23" si="67">T16*0.001341022</f>
         <v>1.0455948534E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V24" si="65">U16/O16*5252</f>
+        <f t="shared" ref="V16:V23" si="68">U16/O16*5252</f>
         <v>9.2988793279628473E-3</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W24" si="66">-V16/2/O16</f>
+        <f t="shared" ref="W16:W23" si="69">-V16/2/O16</f>
         <v>-7.873051164341877E-7</v>
       </c>
       <c r="X16">
         <v>0.18</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y24" si="67">-X16*W16</f>
+        <f t="shared" ref="Y16:Y23" si="70">-X16*W16</f>
         <v>1.4171492095815379E-7</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:Z24" si="68">Y16/6.66*2048.5</f>
+        <f t="shared" ref="Z16:Z23" si="71">Y16/6.66*2048.5</f>
         <v>4.3589041378795503E-5</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AA24" si="69">Z16*144</f>
+        <f t="shared" ref="AA16:AA23" si="72">Z16*144</f>
         <v>6.2768219585465522E-3</v>
+      </c>
+      <c r="AB16" s="97">
+        <f t="shared" ref="AB16:AB23" si="73">$W$64+$X$64*O16+O16^2*$Y$64</f>
+        <v>7.5981000432770465</v>
+      </c>
+      <c r="AC16" s="97">
+        <f t="shared" ref="AC16:AC23" si="74">$W$65+$X$65*$O16+$O16^2*$Y$65</f>
+        <v>7.7200511556357299</v>
+      </c>
+      <c r="AD16" s="97">
+        <f t="shared" ref="AD16:AD23" si="75">AC16-AB16</f>
+        <v>0.12195111235868339</v>
+      </c>
+      <c r="AE16" s="96">
+        <f t="shared" ref="AE16:AE23" si="76">AD16/O16*5252</f>
+        <v>0.10845583966358832</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1444444444444444</v>
       </c>
       <c r="C17" s="73">
@@ -17216,71 +19728,87 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
       <c r="J17" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>18.150000000000002</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>26</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3.2580965380214821</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>314.46540880503147</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>9433.962264150945</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>40.618448637316575</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>26</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>18.150000000000002</v>
       </c>
       <c r="U17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2.4339549300000006E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1.3550119169901601E-2</v>
       </c>
       <c r="W17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-7.1815631600478467E-7</v>
       </c>
       <c r="X17">
         <v>0.18</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.2926813688086123E-7</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3.9760627387454087E-5</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>5.7255303437933882E-3</v>
+      </c>
+      <c r="AB17" s="97">
+        <f t="shared" si="73"/>
+        <v>14.163378705093869</v>
+      </c>
+      <c r="AC17" s="97">
+        <f t="shared" si="74"/>
+        <v>14.374112001744152</v>
+      </c>
+      <c r="AD17" s="97">
+        <f t="shared" si="75"/>
+        <v>0.2107332966502824</v>
+      </c>
+      <c r="AE17" s="96">
+        <f t="shared" si="76"/>
+        <v>0.117317755044772</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
       <c r="C18" s="73">
@@ -17299,71 +19827,87 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
       <c r="J18" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>28.516800000000003</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>36</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>3.5835189384561099</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>377.35849056603774</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>11320.754716981133</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>48.742138364779883</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>36</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>28.516800000000003</v>
       </c>
       <c r="U18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>3.8241656169600007E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1.7741324074575297E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-7.8357514662707549E-7</v>
       </c>
       <c r="X18">
         <v>0.18</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.4104352639287358E-7</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>4.3382532104474698E-5</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>6.2470846230443565E-3</v>
+      </c>
+      <c r="AB18" s="97">
+        <f t="shared" si="73"/>
+        <v>24.774554333211086</v>
+      </c>
+      <c r="AC18" s="97">
+        <f t="shared" si="74"/>
+        <v>26.262589660758252</v>
+      </c>
+      <c r="AD18" s="97">
+        <f t="shared" si="75"/>
+        <v>1.4880353275471663</v>
+      </c>
+      <c r="AE18" s="96">
+        <f t="shared" si="76"/>
+        <v>0.69033926939119827</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="C19" s="73">
@@ -17382,71 +19926,87 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
       <c r="J19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>51.68</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>56</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>4.0253516907351496</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>483.09178743961354</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>14492.753623188406</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>62.399355877616756</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>56</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>51.68</v>
       </c>
       <c r="U19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6.9304016960000006E-2</v>
       </c>
       <c r="V19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2.5114944098100479E-2</v>
       </c>
       <c r="W19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-8.6646557138446648E-7</v>
       </c>
       <c r="X19">
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.5596380284920397E-7</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>4.7971749269758907E-5</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>6.9079318948452829E-3</v>
+      </c>
+      <c r="AB19" s="97">
+        <f t="shared" si="73"/>
+        <v>53.764929307947781</v>
+      </c>
+      <c r="AC19" s="97">
+        <f t="shared" si="74"/>
+        <v>59.331755202776606</v>
+      </c>
+      <c r="AD19" s="97">
+        <f t="shared" si="75"/>
+        <v>5.5668258948288241</v>
+      </c>
+      <c r="AE19" s="96">
+        <f t="shared" si="76"/>
+        <v>2.0173509023752279</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="C20" s="73">
@@ -17465,71 +20025,87 @@
       <c r="H20" s="119"/>
       <c r="I20" s="119"/>
       <c r="J20" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>59.349000000000004</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>64</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>4.1588830833596715</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>500.00000000000006</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>15000.000000000002</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>64.583333333333343</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>64</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>59.349000000000004</v>
       </c>
       <c r="U20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7.9588314678000011E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2.7866521912590401E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-9.2888406375301325E-7</v>
       </c>
       <c r="X20">
         <v>0.18</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.6719913147554239E-7</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>5.1427540664812096E-5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>7.4055658557329422E-3</v>
+      </c>
+      <c r="AB20" s="97">
+        <f t="shared" si="73"/>
+        <v>59.697840288730617</v>
+      </c>
+      <c r="AC20" s="97">
+        <f t="shared" si="74"/>
+        <v>66.141557190477442</v>
+      </c>
+      <c r="AD20" s="97">
+        <f t="shared" si="75"/>
+        <v>6.443716901746825</v>
+      </c>
+      <c r="AE20" s="96">
+        <f t="shared" si="76"/>
+        <v>2.2561600778649549</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4944444444444445</v>
       </c>
       <c r="C21" s="73">
@@ -17548,71 +20124,87 @@
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>84.545999999999992</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>89</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>4.4886363697321396</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>568.18181818181813</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>17045.454545454544</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>73.390151515151516</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>89</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>84.545999999999992</v>
       </c>
       <c r="U21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0.11337804601199999</v>
       </c>
       <c r="V21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>3.4933741195761404E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-1.0247230750756679E-6</v>
       </c>
       <c r="X21">
         <v>0.18</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1.844501535136202E-7</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>5.6733654575473117E-5</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>8.1696462588681292E-3</v>
+      </c>
+      <c r="AB21" s="97">
+        <f t="shared" si="73"/>
+        <v>87.250679960713484</v>
+      </c>
+      <c r="AC21" s="97">
+        <f t="shared" si="74"/>
+        <v>97.858911712085671</v>
+      </c>
+      <c r="AD21" s="97">
+        <f t="shared" si="75"/>
+        <v>10.608231751372188</v>
+      </c>
+      <c r="AE21" s="96">
+        <f t="shared" si="76"/>
+        <v>3.2685800786147952</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.7944444444444443</v>
       </c>
       <c r="C22" s="73">
@@ -17631,76 +20223,88 @@
       <c r="H22" s="119"/>
       <c r="I22" s="119"/>
       <c r="J22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>153.26999999999998</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>143</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>4.962844630259907</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>699.30069930069931</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>20979.020979020977</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>90.326340326340329</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>143</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>153.26999999999998</v>
       </c>
       <c r="U22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0.20553844193999998</v>
       </c>
       <c r="V22">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5.1455589760283277E-2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-1.226358222620085E-6</v>
       </c>
       <c r="X22">
         <v>0.18</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>2.2074448007161529E-7</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>6.7897157271276857E-5</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>9.7771906470638676E-3</v>
       </c>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
+      <c r="AB22" s="97">
+        <f t="shared" si="73"/>
+        <v>156.58105321993372</v>
+      </c>
+      <c r="AC22" s="97">
+        <f t="shared" si="74"/>
+        <v>178.02882802314784</v>
+      </c>
+      <c r="AD22" s="97">
+        <f t="shared" si="75"/>
+        <v>21.447774803214116</v>
+      </c>
+      <c r="AE22" s="96">
+        <f t="shared" si="76"/>
+        <v>5.3693503323689065</v>
+      </c>
       <c r="AF22" s="97"/>
     </row>
     <row r="23" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9166666666666665</v>
       </c>
       <c r="C23" s="73">
@@ -17719,66 +20323,82 @@
       <c r="H23" s="119"/>
       <c r="I23" s="119"/>
       <c r="J23" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>214.45920000000001</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>165</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>5.1059454739005803</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>781.25000000000011</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>23437.500000000004</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>100.91145833333334</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>165</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>214.45920000000001</v>
       </c>
       <c r="U23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0.28759450530240005</v>
       </c>
       <c r="V23">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6.4445710585523411E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>-1.3748418258244993E-6</v>
       </c>
       <c r="X23">
         <v>0.18</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>2.4747152864840988E-7</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>7.6117931897337472E-5</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1.0960982193216597E-2</v>
+      </c>
+      <c r="AB23" s="97">
+        <f t="shared" si="73"/>
+        <v>210.83327358395567</v>
+      </c>
+      <c r="AC23" s="97">
+        <f t="shared" si="74"/>
+        <v>240.94727124611853</v>
+      </c>
+      <c r="AD23" s="97">
+        <f t="shared" si="75"/>
+        <v>30.113997662162859</v>
+      </c>
+      <c r="AE23" s="96">
+        <f t="shared" si="76"/>
+        <v>6.7481052041249843</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -18397,11 +21017,11 @@
         <v>90</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" ref="C42:C47" si="70">B42/180*(2.4-0.53)+0.53</f>
+        <f t="shared" ref="C42:C47" si="77">B42/180*(2.4-0.53)+0.53</f>
         <v>1.4649999999999999</v>
       </c>
       <c r="D42" s="88">
-        <f t="shared" ref="D42:D47" si="71">(C42-1)*180</f>
+        <f t="shared" ref="D42:D47" si="78">(C42-1)*180</f>
         <v>83.699999999999974</v>
       </c>
       <c r="E42" s="6"/>
@@ -18433,11 +21053,11 @@
         <v>100</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.568888888888889</v>
       </c>
       <c r="D43" s="88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>102.40000000000002</v>
       </c>
       <c r="E43" s="6"/>
@@ -18462,11 +21082,11 @@
         <v>110</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.6727777777777779</v>
       </c>
       <c r="D44" s="88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>121.10000000000002</v>
       </c>
       <c r="E44" s="6"/>
@@ -18492,11 +21112,11 @@
         <v>114</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.7143333333333333</v>
       </c>
       <c r="D45" s="88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>128.57999999999998</v>
       </c>
       <c r="V45" s="49" t="s">
@@ -18524,11 +21144,11 @@
         <v>127.5</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.8545833333333333</v>
       </c>
       <c r="D46" s="88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>153.82499999999999</v>
       </c>
       <c r="V46" s="43"/>
@@ -18548,11 +21168,11 @@
         <v>136.4</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.9470444444444444</v>
       </c>
       <c r="D47" s="88">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>170.46799999999999</v>
       </c>
       <c r="V47" s="43"/>
@@ -18618,6 +21238,47 @@
       <c r="AA51" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="63" spans="22:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="22:27" x14ac:dyDescent="0.3">
+      <c r="V64" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="W64" s="124">
+        <f>INDEX(LINEST($T$15:$T$23,$O$15:$O$23^{1,2}),3)</f>
+        <v>35.326501767589406</v>
+      </c>
+      <c r="X64" s="123">
+        <f>INDEX(LINEST($T$15:$T$23,$O$15:$O$23^{1,2}),2)</f>
+        <v>-8.7993028175634112E-3</v>
+      </c>
+      <c r="Y64" s="128">
+        <f>INDEX(LINEST($T$15:$T$23,$O$15:$O$23^{1,2}),1)</f>
+        <v>6.9493724793152154E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="22:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V65" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="W65" s="126">
+        <f>INDEX(LINEST($T$4:$T$12,$O$4:$O$12^{1,2}),3)</f>
+        <v>42.005705947307973</v>
+      </c>
+      <c r="X65" s="127">
+        <f>INDEX(LINEST($T$4:$T$12,$O$4:$O$12^{1,2}),2)</f>
+        <v>-1.0620484056152471E-2</v>
+      </c>
+      <c r="Y65" s="121">
+        <f>INDEX(LINEST($T$4:$T$12,$O$4:$O$12^{1,2}),1)</f>
+        <v>8.1530272037980668E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="22:25" x14ac:dyDescent="0.3">
+      <c r="V66" s="45"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
